--- a/nl_sql_results/nltosql-perfect_table_subsetter-snails-Native-oracle-nlsqlmodel_gemini-2.0-flash-001.xlsx
+++ b/nl_sql_results/nltosql-perfect_table_subsetter-snails-Native-oracle-nlsqlmodel_gemini-2.0-flash-001.xlsx
@@ -499,7 +499,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t xml:space="preserve">select count(*) turtleCount  from tblFieldDataTurtleMeasurements where age = '5' </t>
+          <t xml:space="preserve">select count(*) turtleCount  from tblFieldDataTurtleMeasurements where age = '5'  </t>
         </is>
       </c>
       <c r="G2" t="n">
@@ -533,16 +533,16 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>SELECT LocationID, COUNT(*) FROM tblFieldDataTurtleMeasurements GROUP BY LocationID</t>
+          <t>SELECT LocationID, COUNT(RecordID) FROM tblFieldDataTurtleMeasurements GROUP BY LocationID</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">select locationID, count(*) turtleCount from tblFieldDataTurtleMeasurements group by locationID </t>
+          <t xml:space="preserve">select locationID, count(*) turtleCount from tblFieldDataTurtleMeasurements group by locationID  </t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="H3" t="b">
         <v>1</v>
@@ -577,7 +577,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">select avg(weight) turtleWeight from tblFieldDataTurtleMeasurements </t>
+          <t xml:space="preserve">select avg(weight) turtleWeight from tblFieldDataTurtleMeasurements  </t>
         </is>
       </c>
       <c r="G4" t="n">
@@ -616,7 +616,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">select distinct t.locationID from tblFieldDataTurtleMeasurements t join tblFieldDataSnakeDataCollection s on t.LocationID = s.LocationID </t>
+          <t xml:space="preserve">select distinct t.locationID from tblFieldDataTurtleMeasurements t join tblFieldDataSnakeDataCollection s on t.LocationID = s.LocationID  </t>
         </is>
       </c>
       <c r="G5" t="n">
@@ -655,7 +655,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">select locationID, count(distinct [trap_#]) trapCount from tblFieldDataMinnowTrapSurveys group by locationID </t>
+          <t xml:space="preserve">select locationID, count(distinct [trap_#]) trapCount from tblFieldDataMinnowTrapSurveys group by locationID  </t>
         </is>
       </c>
       <c r="G6" t="n">
@@ -694,7 +694,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t xml:space="preserve">select locationid, sum(count) minnowCountSum from tblFieldDataMinnowTrapSurveys group by LocationID </t>
+          <t xml:space="preserve">select locationid, sum(count) minnowCountSum from tblFieldDataMinnowTrapSurveys group by LocationID  </t>
         </is>
       </c>
       <c r="G7" t="n">
@@ -735,7 +735,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t xml:space="preserve">select locationID, [Trap_#], sum(count) minnowCountSum from tblFieldDataMinnowTrapSurveys group by locationID, [Trap_#] </t>
+          <t xml:space="preserve">select locationID, [Trap_#], sum(count) minnowCountSum from tblFieldDataMinnowTrapSurveys group by locationID, [Trap_#]  </t>
         </is>
       </c>
       <c r="G8" t="n">
@@ -774,7 +774,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t xml:space="preserve">select stage, sum(count) minnowCountSum from tblFieldDataMinnowTrapSurveys where locationID = 'ASIS_HERPS_20H' group by stage </t>
+          <t xml:space="preserve">select stage, sum(count) minnowCountSum from tblFieldDataMinnowTrapSurveys where locationID = 'ASIS_HERPS_20H' group by stage  </t>
         </is>
       </c>
       <c r="G9" t="n">
@@ -813,7 +813,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t xml:space="preserve">select avg(tempc) avgTemp from tblFieldDataWaterProperties where locationId in ( 	select locationId  	from tblFieldDataAmphibianCallCounts ) </t>
+          <t xml:space="preserve">select avg(tempc) avgTemp from tblFieldDataWaterProperties where locationId in ( 	select locationId  	from tblFieldDataAmphibianCallCounts )  </t>
         </is>
       </c>
       <c r="G10" t="n">
@@ -852,7 +852,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t xml:space="preserve">select avg(tempc) avgTempC, avg(salinity) avgSalinity, avg(conductivity) avgConduct, avg(pH) avgPH from tblFieldDataWaterProperties w, tblFieldDataTurtleTrapSurveys t where w. recordid in ( 	select recordid from tblFieldDataTurtleTrapSurveys )  </t>
+          <t xml:space="preserve">select avg(tempc) avgTempC, avg(salinity) avgSalinity, avg(conductivity) avgConduct, avg(pH) avgPH from tblFieldDataWaterProperties w, tblFieldDataTurtleTrapSurveys t where w. recordid in ( 	select recordid from tblFieldDataTurtleTrapSurveys )   </t>
         </is>
       </c>
       <c r="G11" t="n">
@@ -894,7 +894,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t xml:space="preserve">select t.RecordID, m.comments from tblFieldDataTurtleTrapSurveys t join tblFieldDataTurtleMeasurements m on t.RecordID = m.RecordID  	and m.sex &lt;&gt; t.sex </t>
+          <t xml:space="preserve">select t.RecordID, m.comments from tblFieldDataTurtleTrapSurveys t join tblFieldDataTurtleMeasurements m on t.RecordID = m.RecordID  	and m.sex &lt;&gt; t.sex  </t>
         </is>
       </c>
       <c r="G12" t="n">
@@ -935,7 +935,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t xml:space="preserve">select sex, max(weight) heaviestWeight from tblFieldDataTurtleMeasurements group by sex </t>
+          <t xml:space="preserve">select sex, max(weight) heaviestWeight from tblFieldDataTurtleMeasurements group by sex  </t>
         </is>
       </c>
       <c r="G13" t="n">
@@ -967,21 +967,25 @@
           <t>gemini-2.0-flash-001</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr"/>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>SELECT max(SVL) FROM tblFieldDataSnakeDataCollection</t>
+        </is>
+      </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t xml:space="preserve">select top 1 svl  from tblFieldDataSnakeDataCollection order by svl desc </t>
+          <t xml:space="preserve">select  svl  from tblFieldDataSnakeDataCollection order by svl desc limit 1 </t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>-1</v>
+        <v>232</v>
       </c>
       <c r="H14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>empty result set</t>
+          <t>full tuple compare succeeded</t>
         </is>
       </c>
     </row>
@@ -1009,7 +1013,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t xml:space="preserve">select sex, avg(weight) avgWeight, avg(svl) avgSvl from tblFieldDataSnakeDataCollection group by sex </t>
+          <t xml:space="preserve">select sex, avg(weight) avgWeight, avg(svl) avgSvl from tblFieldDataSnakeDataCollection group by sex  </t>
         </is>
       </c>
       <c r="G15" t="n">
@@ -1048,7 +1052,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t xml:space="preserve">select [Species_Code], avg(TLength) avgTLength, avg(Weight) avgWeight from tblFieldDataSnakeDataCollection group by [Species_Code] </t>
+          <t xml:space="preserve">select [Species_Code], avg(TLength) avgTLength, avg(Weight) avgWeight from tblFieldDataSnakeDataCollection group by [Species_Code]  </t>
         </is>
       </c>
       <c r="G16" t="n">
@@ -1082,16 +1086,16 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>SELECT T1.`Agency/Title`, count(*) FROM Observer_LU AS T1 JOIN tlinkObservers AS T2 ON T1.ObsInits = T2.ObsInits JOIN tblFieldDataTurtleMeasurements AS T3 ON T2.EventID = T3.EventID GROUP BY T1.`Agency/Title`</t>
+          <t>SELECT T1."Agency/Title", COUNT(T2.RecordID) FROM Observer_LU AS T1 INNER JOIN tlinkObservers AS T3 ON T1.ObsInits = T3.ObsInits INNER JOIN tblFieldDataTurtleMeasurements AS T2 ON T3.EventID = T2.EventID GROUP BY T1."Agency/Title"</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t xml:space="preserve">select [Agency/Title], count(distinct recordID) from tblFieldDataTurtleMeasurements t join tlinkObservers ol on t.EventID = ol.EventID join Observer_LU o on o.obsinits = ol.obsinits group by [Agency/Title] </t>
+          <t xml:space="preserve">select [Agency/Title], count(distinct recordID) from tblFieldDataTurtleMeasurements t join tlinkObservers ol on t.EventID = ol.EventID join Observer_LU o on o.obsinits = ol.obsinits group by [Agency/Title]  </t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>430</v>
+        <v>438</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -1134,7 +1138,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t xml:space="preserve">select e.Eventid  from tblEvents e join tblEventDataHerps ed on e.eventid = ed.EventID join tlinkObservers ol on ed.EventID = ol.EventID join Observer_LU o on ol.ObsInits = o.ObsInits where year = 2004  	and firstName = 'allison' 	and lastName = 'turner' </t>
+          <t xml:space="preserve">select e.Eventid  from tblEvents e join tblEventDataHerps ed on e.eventid = ed.EventID join tlinkObservers ol on ed.EventID = ol.EventID join Observer_LU o on ol.ObsInits = o.ObsInits where year = 2004  	and firstName = 'allison' 	and lastName = 'turner'  </t>
         </is>
       </c>
       <c r="G18" t="n">
@@ -1181,7 +1185,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t xml:space="preserve">select distinct o.ObsInits, firstName, lastName  from tlinkObservers ol join Observer_LU o on ol.ObsInits = o.ObsInits join tblFieldDataTurtleMeasurements tm on tm.EventID = ol.EventID </t>
+          <t xml:space="preserve">select distinct o.ObsInits, firstName, lastName  from tlinkObservers ol join Observer_LU o on ol.ObsInits = o.ObsInits join tblFieldDataTurtleMeasurements tm on tm.EventID = ol.EventID  </t>
         </is>
       </c>
       <c r="G19" t="n">
@@ -1220,7 +1224,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t xml:space="preserve">select count(distinct [species_code]) speciesCount from tblFieldDataGreenCardObservations </t>
+          <t xml:space="preserve">select count(distinct [species_code]) speciesCount from tblFieldDataGreenCardObservations  </t>
         </is>
       </c>
       <c r="G20" t="n">
@@ -1267,7 +1271,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t xml:space="preserve">select l.locationId, avg(UTMX) X, avg(UTMY) Y from tblFieldDataTimeConstrainedSearches df join tblLocationsPoints l on df.LocationID = l.LocationID group by l.locationId </t>
+          <t xml:space="preserve">select l.locationId, avg(UTMX) X, avg(UTMY) Y from tblFieldDataTimeConstrainedSearches df join tblLocationsPoints l on df.LocationID = l.LocationID group by l.locationId  </t>
         </is>
       </c>
       <c r="G21" t="n">
@@ -1313,7 +1317,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t xml:space="preserve">select description, count(*) minnowCount from tlustage s join tblFieldDataMinnowTrapSurveys m on s.stage = m.stage group by description </t>
+          <t xml:space="preserve">select description, count(*) minnowCount from tlustage s join tblFieldDataMinnowTrapSurveys m on s.stage = m.stage group by description  </t>
         </is>
       </c>
       <c r="G22" t="n">
@@ -1352,7 +1356,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t xml:space="preserve">select AbundanceID, AbundanceText from tblAbundance_LU where Abundance = 'Occasional' </t>
+          <t xml:space="preserve">select AbundanceID, AbundanceText from tblAbundance_LU where Abundance = 'Occasional'  </t>
         </is>
       </c>
       <c r="G23" t="n">
@@ -1386,12 +1390,12 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>SELECT DISTINCT LocationID FROM tblFieldDataCoverBoard WHERE Type = 'Wood'</t>
+          <t>SELECT DISTINCT LocationID FROM tblFieldDataCoverBoard WHERE Type = "Wood"</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t xml:space="preserve">select distinct LocationID  from tblFieldDataCoverBoard where type = 'Wood' </t>
+          <t xml:space="preserve">select distinct LocationID  from tblFieldDataCoverBoard where type = 'Wood'  </t>
         </is>
       </c>
       <c r="G24" t="n">
@@ -1430,7 +1434,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t xml:space="preserve">select [Board_#], type  from tblFieldDataCoverBoard cb join tblLocations l on cb.LocationID = l.LocationID where siteid = '18CB1' and [Board_#] &lt;&gt; 0 </t>
+          <t xml:space="preserve">select [Board_#], type  from tblFieldDataCoverBoard cb join tblLocations l on cb.LocationID = l.LocationID where siteid = '18CB1' and [Board_#] &lt;&gt; 0  </t>
         </is>
       </c>
       <c r="G25" t="n">
@@ -1469,7 +1473,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t xml:space="preserve">select avg(AirTemp) as avgTemp  from tblFieldDataCoverBoard cb join tblEventDataHerps ev on cb.EventID = ev.EventID join tblLocations l on cb.LocationID = l.LocationID where Type = 'Metal' and SiteId = '30CB2' and weather = 'cloudy' </t>
+          <t xml:space="preserve">select avg(AirTemp) as avgTemp  from tblFieldDataCoverBoard cb join tblEventDataHerps ev on cb.EventID = ev.EventID join tblLocations l on cb.LocationID = l.LocationID where Type = 'Metal' and SiteId = '30CB2' and weather = 'cloudy'  </t>
         </is>
       </c>
       <c r="G26" t="n">
@@ -1511,7 +1515,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t xml:space="preserve">select behavior, count(*) as recordCount from tblFieldDataSnakeDataCollection where capturemethod = 'coverboard' group by behavior </t>
+          <t xml:space="preserve">select behavior, count(*) as recordCount from tblFieldDataSnakeDataCollection where capturemethod = 'coverboard' group by behavior  </t>
         </is>
       </c>
       <c r="G27" t="n">
@@ -1550,7 +1554,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t xml:space="preserve">select Behavior, CaptureMethod  from tblFieldDataSnakeDataCollection where notes like '%rafters%' </t>
+          <t xml:space="preserve">select Behavior, CaptureMethod  from tblFieldDataSnakeDataCollection where notes like '%rafters%'  </t>
         </is>
       </c>
       <c r="G28" t="n">
@@ -1601,7 +1605,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t xml:space="preserve">select PointID, SnakeID, [Board_#], UTMX, UTMY from tblFieldDataCoverBoard cb join tblLocations l on cb.LocationID = l.LocationID join tblLocationsPoints lp on l.LocationID = lp.LocationID where Recapture = 'new' and siteid = '18CB1' </t>
+          <t xml:space="preserve">select PointID, SnakeID, [Board_#], UTMX, UTMY from tblFieldDataCoverBoard cb join tblLocations l on cb.LocationID = l.LocationID join tblLocationsPoints lp on l.LocationID = lp.LocationID where Recapture = 'new' and siteid = '18CB1'  </t>
         </is>
       </c>
       <c r="G29" t="n">
@@ -1640,7 +1644,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t xml:space="preserve">select distinct o.ObsInits from Observer_LU o join tlinkObservers tlo on o.ObsInits = tlo.ObsInits join tblEvents e on tlo.EventID = e.EventID join tblFieldDataCoverBoard cb on e.EventID = cb.EventID </t>
+          <t xml:space="preserve">select distinct o.ObsInits from Observer_LU o join tlinkObservers tlo on o.ObsInits = tlo.ObsInits join tblEvents e on tlo.EventID = e.EventID join tblFieldDataCoverBoard cb on e.EventID = cb.EventID  </t>
         </is>
       </c>
       <c r="G30" t="n">
@@ -1679,7 +1683,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t xml:space="preserve">select weather, count(*) eventCount, avg(airtemp) avgAirTemp, avg(watertemp) avgWaterTemp  from tblEventDataHerps group by weather </t>
+          <t xml:space="preserve">select weather, count(*) eventCount, avg(airtemp) avgAirTemp, avg(watertemp) avgWaterTemp  from tblEventDataHerps group by weather  </t>
         </is>
       </c>
       <c r="G31" t="n">
@@ -1720,7 +1724,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t xml:space="preserve">select o.ObsInits, avg(airtemp) avgAirTemp from Observer_LU o join tlinkObservers tlo on o.ObsInits = tlo.ObsInits join tblEventDataHerps e on tlo.EventID = e.EventID group by o.ObsInits </t>
+          <t xml:space="preserve">select o.ObsInits, avg(airtemp) avgAirTemp from Observer_LU o join tlinkObservers tlo on o.ObsInits = tlo.ObsInits join tblEventDataHerps e on tlo.EventID = e.EventID group by o.ObsInits  </t>
         </is>
       </c>
       <c r="G32" t="n">
@@ -1761,7 +1765,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t xml:space="preserve">select weather, avg(airtemp) avgAirTemp  from tblEventDataHerps group by weather </t>
+          <t xml:space="preserve">select weather, avg(airtemp) avgAirTemp  from tblEventDataHerps group by weather  </t>
         </is>
       </c>
       <c r="G33" t="n">
@@ -1800,7 +1804,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t xml:space="preserve">select description  from tluProject where project = 'WQ' </t>
+          <t xml:space="preserve">select description  from tluProject where project = 'WQ'  </t>
         </is>
       </c>
       <c r="G34" t="n">
@@ -1843,7 +1847,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t xml:space="preserve">select parktype  from tluParkCode where parkcode = 'ASIS' </t>
+          <t xml:space="preserve">select parktype  from tluParkCode where parkcode = 'ASIS'  </t>
         </is>
       </c>
       <c r="G35" t="n">
@@ -1882,7 +1886,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t xml:space="preserve">select text  from tluEvidenceCode where [evidence_code] = 'DOR' </t>
+          <t xml:space="preserve">select text  from tluEvidenceCode where [evidence_code] = 'DOR'  </t>
         </is>
       </c>
       <c r="G36" t="n">
@@ -1921,7 +1925,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t xml:space="preserve">select habitat, description  from tluMicroHabitat where habitat in ('Temporary Pond', 'Permanent Pond') </t>
+          <t xml:space="preserve">select habitat, description  from tluMicroHabitat where habitat in ('Temporary Pond', 'Permanent Pond')  </t>
         </is>
       </c>
       <c r="G37" t="n">
@@ -1960,7 +1964,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t xml:space="preserve">select [trap_type], count(*) recordCount from tblFieldDataTurtleTrapSurveys group by [Trap_Type] </t>
+          <t xml:space="preserve">select [trap_type], count(*) recordCount from tblFieldDataTurtleTrapSurveys group by [Trap_Type]  </t>
         </is>
       </c>
       <c r="G38" t="n">
@@ -1999,7 +2003,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t xml:space="preserve">select distinct t.locationid from tblLocations l join tblFieldDataTurtleTrapSurveys t on l.LocationID = t.LocationID where [trap_type] = 'crab' </t>
+          <t xml:space="preserve">select distinct t.locationid from tblLocations l join tblFieldDataTurtleTrapSurveys t on l.LocationID = t.LocationID where [trap_type] = 'crab'  </t>
         </is>
       </c>
       <c r="G39" t="n">
@@ -2047,7 +2051,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t xml:space="preserve">select sex, avg([carapace_length]) avgCarLen, avg([carapace_width]) avgCarWid,  			avg([plastron_length]) avgPlasLen, avg([plastron_width]) avgPlasWid, 			avg(weight) avgWeight from tblFieldDataTurtleMeasurements group by sex </t>
+          <t xml:space="preserve">select sex, avg([carapace_length]) avgCarLen, avg([carapace_width]) avgCarWid,  			avg([plastron_length]) avgPlasLen, avg([plastron_width]) avgPlasWid, 			avg(weight) avgWeight from tblFieldDataTurtleMeasurements group by sex  </t>
         </is>
       </c>
       <c r="G40" t="n">
@@ -2086,7 +2090,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t xml:space="preserve">select count(*) gravidCount from tblFieldDataTurtleMeasurements where gravid = 1 </t>
+          <t xml:space="preserve">select count(*) gravidCount from tblFieldDataTurtleMeasurements where gravid = 1  </t>
         </is>
       </c>
       <c r="G41" t="n">
@@ -2132,7 +2136,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t xml:space="preserve">select distinct CommonName, SpCode, genus, subgenus  from tbl_Nests join tlu_PlantSpecies on tbl_Nests.SpCode = tlu_PlantSpecies.SpeciesCode order by CommonName </t>
+          <t xml:space="preserve">select distinct CommonName, SpCode, genus, subgenus  from tbl_Nests join tlu_PlantSpecies on tbl_Nests.SpCode = tlu_PlantSpecies.SpeciesCode order by CommonName  </t>
         </is>
       </c>
       <c r="G42" t="n">
@@ -2177,7 +2181,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t xml:space="preserve">select distinct CommonName  from tlu_PlantSpecies where SpeciesCode not in ( 	select distinct SpCode from tbl_Nests 	) </t>
+          <t xml:space="preserve">select distinct CommonName  from tlu_PlantSpecies where SpeciesCode not in ( 	select distinct SpCode from tbl_Nests 	)  </t>
         </is>
       </c>
       <c r="G43" t="n">
@@ -2209,21 +2213,30 @@
           <t>gemini-2.0-flash-001</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr"/>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>SELECT T1.genus, COUNT(T2.Nest_ID) AS nest_count
+FROM tlu_PlantSpecies AS T1
+INNER JOIN tbl_Nests AS T2 ON T1.SpeciesCode = T2.SpCode
+GROUP BY T1.genus
+ORDER BY nest_count DESC
+LIMIT 5;</t>
+        </is>
+      </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t xml:space="preserve">select TOP 5 genus, count(*) as NestCount  from tlu_PlantSpecies join tbl_Nests on tlu_PlantSpecies.SpeciesCode = tbl_Nests.SpCode group by genus order by NestCount desc </t>
+          <t xml:space="preserve">select  genus, count(*) as NestCount  from tlu_PlantSpecies join tbl_Nests on tlu_PlantSpecies.SpeciesCode = tbl_Nests.SpCode group by genus order by NestCount desc limit 5 </t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>-1</v>
+        <v>309</v>
       </c>
       <c r="H44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>empty result set</t>
+          <t>full tuple compare succeeded</t>
         </is>
       </c>
     </row>
@@ -2251,7 +2264,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t xml:space="preserve">select *  from tlu_DecayStage </t>
+          <t xml:space="preserve">select *  from tlu_DecayStage  </t>
         </is>
       </c>
       <c r="G45" t="n">
@@ -2290,7 +2303,7 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t xml:space="preserve">select count(distinct Event_ID)  from tbl_Deadwood </t>
+          <t xml:space="preserve">select count(distinct Event_ID)  from tbl_Deadwood  </t>
         </is>
       </c>
       <c r="G46" t="n">
@@ -2329,7 +2342,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t xml:space="preserve">select Event_ID, count(*)  from tbl_Deadwood  group by Event_ID </t>
+          <t xml:space="preserve">select Event_ID, count(*)  from tbl_Deadwood  group by Event_ID  </t>
         </is>
       </c>
       <c r="G47" t="n">
@@ -2386,18 +2399,18 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t xml:space="preserve">select DecayStage_Descr, count(*) as numLogs  from tbl_Deadwood join tlu_DecayStage on tbl_Deadwood.Decay = tlu_DecayStage.DecayStage_ID where Event_ID in ( 	select TOP 1 Event_ID from tbl_Deadwood group by Event_ID order by count(*) desc ) group by DecayStage_Descr </t>
+          <t xml:space="preserve">select DecayStage_Descr, count(*) as numLogs  from tbl_Deadwood join tlu_DecayStage on tbl_Deadwood.Decay = tlu_DecayStage.DecayStage_ID where Event_ID in ( 	select Event_ID from tbl_Deadwood group by Event_ID order by count(*) desc limit 1 ) group by DecayStage_Descr  </t>
         </is>
       </c>
       <c r="G48" t="n">
         <v>351</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>asymmetrical tuple result size</t>
+          <t>full tuple compare succeeded</t>
         </is>
       </c>
     </row>
@@ -2430,7 +2443,7 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT e.Event_ID, Deadwood_Count, Nest_Count  FROM tbl_Events AS e JOIN (     SELECT Event_ID, COUNT(*) AS Deadwood_Count     FROM tbl_Deadwood     GROUP BY Event_ID ) AS dw ON e.Event_ID = dw.Event_ID JOIN (     SELECT Event_ID, COUNT(*) AS Nest_Count     FROM tbl_Nests     GROUP BY Event_ID ) AS ne ON e.Event_ID = ne.Event_ID order by Deadwood_Count desc </t>
+          <t xml:space="preserve">SELECT e.Event_ID, Deadwood_Count, Nest_Count  FROM tbl_Events AS e JOIN (     SELECT Event_ID, COUNT(*) AS Deadwood_Count     FROM tbl_Deadwood     GROUP BY Event_ID ) AS dw ON e.Event_ID = dw.Event_ID JOIN (     SELECT Event_ID, COUNT(*) AS Nest_Count     FROM tbl_Nests     GROUP BY Event_ID ) AS ne ON e.Event_ID = ne.Event_ID order by Deadwood_Count desc  </t>
         </is>
       </c>
       <c r="G49" t="n">
@@ -2464,23 +2477,40 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>SELECT T1.Plot_ID, T1.X_Coord, T1.Y_Coord, T1.Directions FROM tbl_Locations AS T1 INNER JOIN tbl_Events AS T2 ON T1.Location_ID = T2.Location_ID ORDER BY T2.Event_ID DESC LIMIT 1</t>
+          <t>SELECT
+  T1.Plot_ID,
+  T1.X_Coord,
+  T1.Y_Coord,
+  T1.Directions
+FROM tbl_Locations AS T1
+INNER JOIN tbl_Events AS T2
+  ON T1.Location_ID = T2.Location_ID
+INNER JOIN tbl_Nests AS T3
+  ON T2.Event_ID = T3.Event_ID
+GROUP BY
+  T1.Plot_ID,
+  T1.X_Coord,
+  T1.Y_Coord,
+  T1.Directions
+ORDER BY
+  COUNT(T3.Nest_ID) DESC
+LIMIT 1;</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT Plot_ID, X_Coord, Y_Coord, Directions  from tbl_Locations l JOIN tbl_Events e on e.Location_ID = l.Location_ID WHERE e.Event_ID in ( 	SELECT TOP 1 Event_ID  	from tbl_Nests  	group by Event_ID  	order by count(*)  ) </t>
+          <t xml:space="preserve">SELECT Plot_ID, X_Coord, Y_Coord, Directions  from tbl_Locations l JOIN tbl_Events e on e.Location_ID = l.Location_ID WHERE e.Event_ID in ( 	SELECT Event_ID  	from tbl_Nests  	group by Event_ID  	order by count(*) limit 1  )  </t>
         </is>
       </c>
       <c r="G50" t="n">
-        <v>459</v>
+        <v>586</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>asymmetrical tuple result size</t>
+          <t>full tuple compare failed</t>
         </is>
       </c>
     </row>
@@ -2508,7 +2538,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t xml:space="preserve">select avg(DBH) AvgDBH from tbl_Overstory o join tlu_PlantSpecies p on o.SpCode = p.SpeciesCode where genus = 'Acer' </t>
+          <t xml:space="preserve">select avg(DBH) AvgDBH from tbl_Overstory o join tlu_PlantSpecies p on o.SpCode = p.SpeciesCode where genus = 'Acer'  </t>
         </is>
       </c>
       <c r="G51" t="n">
@@ -2547,7 +2577,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t xml:space="preserve">select CanPos_Name, count(*) as treeCount from tlu_Can_Pos p join tbl_Overstory o on p.CanPos_Num = o.CanPos group by CanPos_Name </t>
+          <t xml:space="preserve">select CanPos_Name, count(*) as treeCount from tlu_Can_Pos p join tbl_Overstory o on p.CanPos_Num = o.CanPos group by CanPos_Name  </t>
         </is>
       </c>
       <c r="G52" t="n">
@@ -2595,7 +2625,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t xml:space="preserve">select CommonName, TreeTag from tlu_PlantSpecies s join tbl_Overstory o on s.SpeciesCode = o.SpCode join tlu_Tree_Cond c on o.TreeCond = c.TreeCond_Num where TreeCond_Text = 'down' </t>
+          <t xml:space="preserve">select CommonName, TreeTag from tlu_PlantSpecies s join tbl_Overstory o on s.SpeciesCode = o.SpCode join tlu_Tree_Cond c on o.TreeCond = c.TreeCond_Num where TreeCond_Text = 'down'  </t>
         </is>
       </c>
       <c r="G53" t="n">
@@ -2634,7 +2664,7 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t xml:space="preserve">select spcode, count(*) as saplingCount from tbl_Saplings group by spcode having count(*) &gt; 20 </t>
+          <t xml:space="preserve">select spcode, count(*) as saplingCount from tbl_Saplings group by spcode having count(*) &gt; 20  </t>
         </is>
       </c>
       <c r="G54" t="n">
@@ -2673,7 +2703,7 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t xml:space="preserve">select count(*) as SaplingCount from tbl_Saplings where DClass3 &gt; 10 </t>
+          <t xml:space="preserve">select count(*) as SaplingCount from tbl_Saplings where DClass3 &gt; 10  </t>
         </is>
       </c>
       <c r="G55" t="n">
@@ -2712,7 +2742,7 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t xml:space="preserve">select SpCode, max(Density) seedlingDensity from tbl_Seedlings group by SpCode </t>
+          <t xml:space="preserve">select SpCode, max(Density) seedlingDensity from tbl_Seedlings group by SpCode  </t>
         </is>
       </c>
       <c r="G56" t="n">
@@ -2751,7 +2781,7 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t xml:space="preserve">select count(distinct Event_ID) EventCount from tbl_Seedlings </t>
+          <t xml:space="preserve">select count(distinct Event_ID) EventCount from tbl_Seedlings  </t>
         </is>
       </c>
       <c r="G57" t="n">
@@ -2796,7 +2826,7 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t xml:space="preserve">select directions  from tbl_Tree_Tags t join tbl_Locations l on t.Location_ID = l.Location_ID where Tree_Tag_ID = 6 </t>
+          <t xml:space="preserve">select directions  from tbl_Tree_Tags t join tbl_Locations l on t.Location_ID = l.Location_ID where Tree_Tag_ID = 6  </t>
         </is>
       </c>
       <c r="G58" t="n">
@@ -2835,7 +2865,7 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t xml:space="preserve">select SiteDescription, Loc_Notes  from tbl_locations where Elevation &gt; 4000 </t>
+          <t xml:space="preserve">select SiteDescription, Loc_Notes  from tbl_locations where Elevation &gt; 4000  </t>
         </is>
       </c>
       <c r="G59" t="n">
@@ -2883,7 +2913,7 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t xml:space="preserve">select Event_ID, CoverClass_Text, count(*) NestCount from tlu_Cover_Cls cc join tbl_Nests n on cc.CoverClass_Num = n.Cover group by Event_ID, CoverClass_Text </t>
+          <t xml:space="preserve">select Event_ID, CoverClass_Text, count(*) NestCount from tlu_Cover_Cls cc join tbl_Nests n on cc.CoverClass_Num = n.Cover group by Event_ID, CoverClass_Text  </t>
         </is>
       </c>
       <c r="G60" t="n">
@@ -2922,7 +2952,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t xml:space="preserve">select Witness_Azimuth, Witness_stake from tbl_WitnessTrees where Witness_DBH &lt; 30 </t>
+          <t xml:space="preserve">select Witness_Azimuth, Witness_stake from tbl_WitnessTrees where Witness_DBH &lt; 30  </t>
         </is>
       </c>
       <c r="G61" t="n">
@@ -2970,7 +3000,7 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t xml:space="preserve">select genus, species, count(*) treeCount from tlu_PlantSpecies s join tbl_WitnessTrees w on s.SpeciesCode = w.Witness_SpCode group by genus, species </t>
+          <t xml:space="preserve">select genus, species, count(*) treeCount from tlu_PlantSpecies s join tbl_WitnessTrees w on s.SpeciesCode = w.Witness_SpCode group by genus, species  </t>
         </is>
       </c>
       <c r="G62" t="n">
@@ -3009,7 +3039,7 @@
   T1.ValidName
 FROM tlu_Roads_and_Trails AS T1
 INNER JOIN tbl_Locations AS T2
-  ON T1.ValidName = T2.Trail
+  ON T1.ListedName = T2.Trail
 INNER JOIN tbl_Events AS T3
   ON T2.Location_ID = T3.Location_ID
 WHERE
@@ -3018,7 +3048,7 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t xml:space="preserve">select ListedName, ValidName  from tlu_Roads_and_Trails rt join tbl_locations l on l.Trail = rt.ListedName join tbl_Events e on e.Location_ID = l.Location_ID where e.Event_ID = 2 </t>
+          <t xml:space="preserve">select ListedName, ValidName  from tlu_Roads_and_Trails rt join tbl_locations l on l.Trail = rt.ListedName join tbl_Events e on e.Location_ID = l.Location_ID where e.Event_ID = 2  </t>
         </is>
       </c>
       <c r="G63" t="n">
@@ -3068,7 +3098,7 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t xml:space="preserve">select State, County, count(*) tagCount from tlu_PlaceNames pn join tbl_locations l on pn.id = l.PlaceNameID join tbl_Tree_Tags tg on l.Location_ID = tg.Location_ID group by State, County </t>
+          <t xml:space="preserve">select State, County, count(*) tagCount from tlu_PlaceNames pn join tbl_locations l on pn.id = l.PlaceNameID join tbl_Tree_Tags tg on l.Location_ID = tg.Location_ID group by State, County  </t>
         </is>
       </c>
       <c r="G64" t="n">
@@ -3107,7 +3137,7 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t xml:space="preserve"> select Name, utmE, utmN   from tlu_PlaceNames  where county = 'Blount' </t>
+          <t xml:space="preserve"> select Name, utmE, utmN   from tlu_PlaceNames  where county = 'Blount'  </t>
         </is>
       </c>
       <c r="G65" t="n">
@@ -3142,17 +3172,17 @@
       <c r="E66" t="inlineStr">
         <is>
           <t>SELECT
-  T1.TopoPosition
-FROM tlu_topo_position AS T1
-INNER JOIN tbl_Locations AS T2
-  ON T1.ID = T2.Topo_Position
+  T2.TopoPosition
+FROM tbl_Locations AS T1
+INNER JOIN tlu_topo_position AS T2
+  ON T1.Topo_Position = T2.ID
 WHERE
-  T2.X_Coord = 269647 AND T2.Y_Coord = 3943851;</t>
+  T1.X_Coord = 269647 AND T1.Y_Coord = 3943851;</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t xml:space="preserve">select t.TopoPosition from tlu_topo_position t join tbl_Locations l on l.Topo_Position = t.ID where x_coord = 269647 and y_coord = 3943851 </t>
+          <t xml:space="preserve">select t.TopoPosition from tlu_topo_position t join tbl_Locations l on l.Topo_Position = t.ID where x_coord = 269647 and y_coord = 3943851  </t>
         </is>
       </c>
       <c r="G66" t="n">
@@ -3191,7 +3221,7 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t xml:space="preserve">select Cond_Num from tlu_live_dead where Cond_Text = 'Dead' </t>
+          <t xml:space="preserve">select Cond_Num from tlu_live_dead where Cond_Text = 'Dead'  </t>
         </is>
       </c>
       <c r="G67" t="n">
@@ -3230,7 +3260,7 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t xml:space="preserve">select pres_text  from tlu_presence where pres_num = 3 </t>
+          <t xml:space="preserve">select pres_text  from tlu_presence where pres_num = 3  </t>
         </is>
       </c>
       <c r="G68" t="n">
@@ -3269,7 +3299,7 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t xml:space="preserve">select Datum  from tsys_App_Defaults  </t>
+          <t xml:space="preserve">select Datum  from tsys_App_Defaults   </t>
         </is>
       </c>
       <c r="G69" t="n">
@@ -3320,7 +3350,7 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t xml:space="preserve">select distinct genus, species, CommonName from tlu_PlantSpecies sp join tbl_Overstory os on sp.SpeciesCode = os.SpCode join tbl_Tree_Tags tt on tt.Tree_Tag_ID = os.TreeTag join tbl_locations l on l.Location_ID = tt.Location_ID join tlu_PlaceNames pn on pn.ID = l.PlaceNameID where county = 'Swain' </t>
+          <t xml:space="preserve">select distinct genus, species, CommonName from tlu_PlantSpecies sp join tbl_Overstory os on sp.SpeciesCode = os.SpCode join tbl_Tree_Tags tt on tt.Tree_Tag_ID = os.TreeTag join tbl_locations l on l.Location_ID = tt.Location_ID join tlu_PlaceNames pn on pn.ID = l.PlaceNameID where county = 'Swain'  </t>
         </is>
       </c>
       <c r="G70" t="n">
@@ -3370,7 +3400,7 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t xml:space="preserve">select species, CommonName from tlu_PlantSpecies sp where exists( 	select overstory_id  	from tbl_Overstory  	where SpCode = sp.SpeciesCode ) and not exists ( 	select Seedlings_ID  	from tbl_Seedlings  	where SpCode = sp.SpeciesCode ) </t>
+          <t xml:space="preserve">select species, CommonName from tlu_PlantSpecies sp where exists( 	select overstory_id  	from tbl_Overstory  	where SpCode = sp.SpeciesCode ) and not exists ( 	select Seedlings_ID  	from tbl_Seedlings  	where SpCode = sp.SpeciesCode )  </t>
         </is>
       </c>
       <c r="G71" t="n">
@@ -3409,7 +3439,7 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t xml:space="preserve">select Xcoord, Ycoord  from tbl_Tree_Tags where tag = 652 </t>
+          <t xml:space="preserve">select Xcoord, Ycoord  from tbl_Tree_Tags where tag = 652  </t>
         </is>
       </c>
       <c r="G72" t="n">
@@ -3446,20 +3476,20 @@
           <t>SELECT
   tlu_Cover_Cls.CoverClass_Text,
   COUNT(tbl_Nests.Nest_ID)
-FROM tbl_Nests
-INNER JOIN tlu_Cover_Cls
-  ON tbl_Nests.Cover = tlu_Cover_Cls.CoverClass_Num
+FROM tlu_Cover_Cls
+JOIN tbl_Nests
+  ON tlu_Cover_Cls.CoverClass_Num = tbl_Nests.Cover
 GROUP BY
   tlu_Cover_Cls.CoverClass_Text;</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t xml:space="preserve">select CoverClass_Text, count(*) NestedSubplotCount from tbl_nests n join tlu_Cover_Cls r2 on n.r2 = r2.CoverClass_Num group by CoverClass_Text </t>
+          <t xml:space="preserve">select CoverClass_Text, count(*) NestedSubplotCount from tbl_nests n join tlu_Cover_Cls r2 on n.r2 = r2.CoverClass_Num group by CoverClass_Text  </t>
         </is>
       </c>
       <c r="G73" t="n">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -3501,7 +3531,7 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t xml:space="preserve">select pres_text, count(*) NestedSubplotCount from tbl_nests n join tlu_Presence p on n.Presence_First = p.Pres_Num group by pres_text </t>
+          <t xml:space="preserve">select pres_text, count(*) NestedSubplotCount from tbl_nests n join tlu_Presence p on n.Presence_First = p.Pres_Num group by pres_text  </t>
         </is>
       </c>
       <c r="G74" t="n">
@@ -3540,7 +3570,7 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t xml:space="preserve">select decay, max(MPD) maxMPD from tbl_Deadwood group by decay </t>
+          <t xml:space="preserve">select decay, max(MPD) maxMPD from tbl_Deadwood group by decay  </t>
         </is>
       </c>
       <c r="G75" t="n">
@@ -3579,7 +3609,7 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t xml:space="preserve">select decay, max(length) maxLength from tbl_Deadwood group by decay </t>
+          <t xml:space="preserve">select decay, max(length) maxLength from tbl_Deadwood group by decay  </t>
         </is>
       </c>
       <c r="G76" t="n">
@@ -3613,23 +3643,23 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>SELECT T2.DecayStage_Descr FROM WoodyDebris AS T1 INNER JOIN tlu_DecayStage AS T2 ON T1.DecayStage_ID = T2.DecayStage_ID ORDER BY T1.MidpointDiameterMeters ASC LIMIT 1</t>
+          <t>SELECT T1.DecayStage_Descr FROM tlu_DecayStage AS T1 INNER JOIN tbl_Deadwood AS T2 ON T1.DecayStage_ID = T2.Decay ORDER BY T2.MPD ASC LIMIT 1</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t xml:space="preserve">select DecayStage_Descr from tlu_DecayStage ds where ds.DecayStage_ID in ( 	select top 1 decay 	from tbl_Deadwood 	order by MPD asc ) </t>
+          <t xml:space="preserve">select DecayStage_Descr from tlu_DecayStage ds where ds.DecayStage_ID in ( 	select decay 	from tbl_Deadwood 	order by MPD asc limit 1 )  </t>
         </is>
       </c>
       <c r="G77" t="n">
-        <v>222</v>
+        <v>270</v>
       </c>
       <c r="H77" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>empty result set</t>
+          <t>full tuple compare succeeded</t>
         </is>
       </c>
     </row>
@@ -3652,23 +3682,30 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>SELECT T1.DecayStage_Descr FROM tlu_DecayStage AS T1 INNER JOIN Specimens AS T2 ON T1.DecayStage_ID = T2.DecayStage_ID ORDER BY T2.Length LIMIT 1</t>
+          <t>SELECT
+  T1.DecayStage_Descr
+FROM tlu_DecayStage AS T1
+JOIN tbl_Deadwood AS T2
+  ON T1.DecayStage_ID = T2.Decay
+ORDER BY
+  T2.Length
+LIMIT 1;</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t xml:space="preserve">select DecayStage_Descr from tlu_DecayStage ds where ds.DecayStage_ID in ( 	select top 1 decay 	from tbl_Deadwood 	order by Length asc ) </t>
+          <t xml:space="preserve">select DecayStage_Descr from tlu_DecayStage ds where ds.DecayStage_ID in ( 	select decay 	from tbl_Deadwood 	order by Length asc limit 1 )  </t>
         </is>
       </c>
       <c r="G78" t="n">
-        <v>212</v>
+        <v>274</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>empty result set</t>
+          <t>full tuple compare succeeded</t>
         </is>
       </c>
     </row>
@@ -3696,7 +3733,7 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t xml:space="preserve">select SiteDescription, slope, Aspect, Loc_Notes, Accuracy_Notes from tbl_Locations where slope_shape = 'convex' </t>
+          <t xml:space="preserve">select SiteDescription, slope, Aspect, Loc_Notes, Accuracy_Notes from tbl_Locations where slope_shape = 'convex'  </t>
         </is>
       </c>
       <c r="G79" t="n">
@@ -3735,7 +3772,7 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t xml:space="preserve">select QuadName from tbl_Locations where Topo_Position = 7 </t>
+          <t xml:space="preserve">select QuadName from tbl_Locations where Topo_Position = 7  </t>
         </is>
       </c>
       <c r="G80" t="n">
@@ -3774,7 +3811,7 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t xml:space="preserve">select TreeCond_Text, count(*) saplingCount from tbl_Saplings s join tlu_Tree_Cond c on s.Condition = c.TreeCond_Num group by TreeCond_Text </t>
+          <t xml:space="preserve">select TreeCond_Text, count(*) saplingCount from tbl_Saplings s join tlu_Tree_Cond c on s.Condition = c.TreeCond_Num group by TreeCond_Text  </t>
         </is>
       </c>
       <c r="G81" t="n">
@@ -3813,7 +3850,7 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t xml:space="preserve">select notes  from VERTEBRATES where Ownership = 'BLM' and Common_Name like 'gray wolf' </t>
+          <t xml:space="preserve">select notes  from VERTEBRATES where Ownership = 'BLM' and Common_Name like 'gray wolf'  </t>
         </is>
       </c>
       <c r="G82" t="n">
@@ -3852,7 +3889,7 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t xml:space="preserve">select count(*) obsCount from VERTEBRATES where observer like 'Stefanic' or observer like 'Dennis Hauser' </t>
+          <t xml:space="preserve">select count(*) obsCount from VERTEBRATES where observer like 'Stefanic' or observer like 'Dennis Hauser'  </t>
         </is>
       </c>
       <c r="G83" t="n">
@@ -3900,7 +3937,7 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t xml:space="preserve">select definition, count(*) deerCount from breeding_codes bc join VERTEBRATES v on bc.Breed = v.BREED where Common_Name = 'mule deer' group by definition </t>
+          <t xml:space="preserve">select definition, count(*) deerCount from breeding_codes bc join VERTEBRATES v on bc.Breed = v.BREED where Common_Name = 'mule deer' group by definition  </t>
         </is>
       </c>
       <c r="G84" t="n">
@@ -3939,7 +3976,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t xml:space="preserve">select Common_Name, Genus_species  from INVERTEBRATES where class like 'arachnida' </t>
+          <t xml:space="preserve">select Common_Name, Genus_species  from INVERTEBRATES where class like 'arachnida'  </t>
         </is>
       </c>
       <c r="G85" t="n">
@@ -3978,7 +4015,7 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t xml:space="preserve">select distinct family  from INVERTEBRATES i where not exists ( 	select Invert_Family  	from Invert_Family 	where Invert_Family = i.Family ) and family IS NOT NULL </t>
+          <t xml:space="preserve">select distinct family  from INVERTEBRATES i where not exists ( 	select Invert_Family  	from Invert_Family 	where Invert_Family = i.Family ) and family IS NOT NULL  </t>
         </is>
       </c>
       <c r="G86" t="n">
@@ -4017,7 +4054,7 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t xml:space="preserve">select distinct Species  from Roadkill where HWY_Mile_Marker = '235' </t>
+          <t xml:space="preserve">select distinct Species  from Roadkill where HWY_Mile_Marker = '235'  </t>
         </is>
       </c>
       <c r="G87" t="n">
@@ -4059,7 +4096,7 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t xml:space="preserve">select Month, count(*) roadkillCount from Roadkill where year = 2014 group by Month </t>
+          <t xml:space="preserve">select Month, count(*) roadkillCount from Roadkill where year = 2014 group by Month  </t>
         </is>
       </c>
       <c r="G88" t="n">
@@ -4098,7 +4135,7 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t xml:space="preserve">select comments  from roadkill where year &lt; 1990 </t>
+          <t xml:space="preserve">select comments  from roadkill where year &lt; 1990  </t>
         </is>
       </c>
       <c r="G89" t="n">
@@ -4141,7 +4178,7 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t xml:space="preserve">select count(*) deerCount from roadkill where species like 'mule deer' and year = 2015 </t>
+          <t xml:space="preserve">select count(*) deerCount from roadkill where species like 'mule deer' and year = 2015  </t>
         </is>
       </c>
       <c r="G90" t="n">
@@ -4182,7 +4219,7 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t xml:space="preserve">select count(*) recordCount from Roadkill r where exists( 	select *  	from vertebrates 	where r.Date = Date ) </t>
+          <t xml:space="preserve">select count(*) recordCount from Roadkill r where exists( 	select *  	from vertebrates 	where r.Date = Date )  </t>
         </is>
       </c>
       <c r="G91" t="n">
@@ -4214,21 +4251,25 @@
           <t>gemini-2.0-flash-001</t>
         </is>
       </c>
-      <c r="E92" t="inlineStr"/>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>SELECT Species, Year, Month FROM Roadkill ORDER BY number_killed DESC LIMIT 1</t>
+        </is>
+      </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t xml:space="preserve">select top 1 species, year, month  from Roadkill order by number_killed desc </t>
+          <t xml:space="preserve">select  species, year, month  from Roadkill order by number_killed desc limit 1 </t>
         </is>
       </c>
       <c r="G92" t="n">
-        <v>-1</v>
+        <v>210</v>
       </c>
       <c r="H92" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>empty result set</t>
+          <t>full tuple compare succeeded</t>
         </is>
       </c>
     </row>
@@ -4266,7 +4307,7 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t xml:space="preserve">select definition, vertHabCount, invertHabCount from HABITAT_CODES h join ( 	select Habitat, count(*) vertHabCount 	from VERTEBRATES 	group by habitat ) v on v.Habitat = h.Code join ( 	select Habitat, count(*) invertHabCount 	from INVERTEBRATES 	group by habitat ) i on i.Habitat = h.Code </t>
+          <t xml:space="preserve">select definition, vertHabCount, invertHabCount from HABITAT_CODES h join ( 	select Habitat, count(*) vertHabCount 	from VERTEBRATES 	group by habitat ) v on v.Habitat = h.Code join ( 	select Habitat, count(*) invertHabCount 	from INVERTEBRATES 	group by habitat ) i on i.Habitat = h.Code  </t>
         </is>
       </c>
       <c r="G93" t="n">
@@ -4305,7 +4346,7 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t xml:space="preserve">select definition from HABITAT_CODES where code in ( 	select Habitat 	from INVERTEBRATES 	group by habitat 	having count(*) &gt; 40 ) </t>
+          <t xml:space="preserve">select definition from HABITAT_CODES where code in ( 	select Habitat 	from INVERTEBRATES 	group by habitat 	having count(*) &gt; 40 )  </t>
         </is>
       </c>
       <c r="G94" t="n">
@@ -4359,7 +4400,7 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t xml:space="preserve">select date, observer, Common_Name  from INVERTEBRATES i where exists ( 	select *  	from VERTEBRATES 	where i.date = date and i.Habitat = Habitat ) </t>
+          <t xml:space="preserve">select date, observer, Common_Name  from INVERTEBRATES i where exists ( 	select *  	from VERTEBRATES 	where i.date = date and i.Habitat = Habitat )  </t>
         </is>
       </c>
       <c r="G95" t="n">
@@ -4407,7 +4448,7 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t xml:space="preserve">select i.Observer, v.Observer, i.date, Definition from HABITAT_CODES h join INVERTEBRATES i on i.Habitat = h.Code join VERTEBRATES v on v.date = i.date and v.Habitat = i.Habitat </t>
+          <t xml:space="preserve">select i.Observer, v.Observer, i.date, Definition from HABITAT_CODES h join INVERTEBRATES i on i.Habitat = h.Code join VERTEBRATES v on v.date = i.date and v.Habitat = i.Habitat  </t>
         </is>
       </c>
       <c r="G96" t="n">
@@ -4446,7 +4487,7 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t xml:space="preserve">select OBS_TYPE, count(*) obsCount from INVERTEBRATES group by OBS_TYPE </t>
+          <t xml:space="preserve">select OBS_TYPE, count(*) obsCount from INVERTEBRATES group by OBS_TYPE  </t>
         </is>
       </c>
       <c r="G97" t="n">
@@ -4485,7 +4526,7 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t xml:space="preserve">select location  from INVERTEBRATES where Genus_species like 'Trichodes ornatus' </t>
+          <t xml:space="preserve">select location  from INVERTEBRATES where Genus_species like 'Trichodes ornatus'  </t>
         </is>
       </c>
       <c r="G98" t="n">
@@ -4530,7 +4571,7 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t xml:space="preserve">select distinct observer from INVERTEBRATES except select distinct observer from VERTEBRATES </t>
+          <t xml:space="preserve">select distinct observer from INVERTEBRATES except select distinct observer from VERTEBRATES  </t>
         </is>
       </c>
       <c r="G99" t="n">
@@ -4569,7 +4610,7 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t xml:space="preserve">select UTMN, UTME  from INVERTEBRATES where Common_Name like 'western white' </t>
+          <t xml:space="preserve">select UTMN, UTME  from INVERTEBRATES where Common_Name like 'western white'  </t>
         </is>
       </c>
       <c r="G100" t="n">
@@ -4608,7 +4649,7 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t xml:space="preserve">select Common_Name, Scientific_Name from VERTEBRATES where UTMN = 4814897 and UTME = 291766 </t>
+          <t xml:space="preserve">select Common_Name, Scientific_Name from VERTEBRATES where UTMN = 4814897 and UTME = 291766  </t>
         </is>
       </c>
       <c r="G101" t="n">
@@ -4647,7 +4688,7 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t xml:space="preserve">select distinct species from Roadkill where species not in ( 	select Common_Name 	from VERTEBRATES ) </t>
+          <t xml:space="preserve">select distinct species from Roadkill where species not in ( 	select Common_Name 	from VERTEBRATES )  </t>
         </is>
       </c>
       <c r="G102" t="n">
@@ -4689,7 +4730,7 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t xml:space="preserve">select family, max(number) maxNum from INVERTEBRATES  where number IS NOT NULL group by family </t>
+          <t xml:space="preserve">select family, max(number) maxNum from INVERTEBRATES  where number IS NOT NULL group by family  </t>
         </is>
       </c>
       <c r="G103" t="n">
@@ -4728,7 +4769,7 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t xml:space="preserve">select count(*) errorCount from Paste_Errors where Species like 'deer' </t>
+          <t xml:space="preserve">select count(*) errorCount from Paste_Errors where Species like 'deer'  </t>
         </is>
       </c>
       <c r="G104" t="n">
@@ -4767,7 +4808,7 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t xml:space="preserve">select distinct [order] from INVERTEBRATES where class like 'Insecta' </t>
+          <t xml:space="preserve">select distinct [order] from INVERTEBRATES where class like 'Insecta'  </t>
         </is>
       </c>
       <c r="G105" t="n">
@@ -4809,7 +4850,7 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t xml:space="preserve">select OBS_TYPE, count(*) obsCount from INVERTEBRATES where location like 'Hot springs' group by OBS_TYPE </t>
+          <t xml:space="preserve">select OBS_TYPE, count(*) obsCount from INVERTEBRATES where location like 'Hot springs' group by OBS_TYPE  </t>
         </is>
       </c>
       <c r="G106" t="n">
@@ -4851,7 +4892,7 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t xml:space="preserve">select survey, count(*) stefCount from VERTEBRATES where observer like 'stefanic' group by survey </t>
+          <t xml:space="preserve">select survey, count(*) stefCount from VERTEBRATES where observer like 'stefanic' group by survey  </t>
         </is>
       </c>
       <c r="G107" t="n">
@@ -4890,7 +4931,7 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t xml:space="preserve">select Scientific_Name from WILDLIFE_MASTERLIST where Common_Name like 'moose' </t>
+          <t xml:space="preserve">select Scientific_Name from WILDLIFE_MASTERLIST where Common_Name like 'moose'  </t>
         </is>
       </c>
       <c r="G108" t="n">
@@ -4932,7 +4973,7 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t xml:space="preserve">select Location, count(*) gameCount from roadkill where Big_Game like 'yes' group by Location </t>
+          <t xml:space="preserve">select Location, count(*) gameCount from roadkill where Big_Game like 'yes' group by Location  </t>
         </is>
       </c>
       <c r="G109" t="n">
@@ -4975,7 +5016,7 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t xml:space="preserve">select count(*) mammalCount from VERTEBRATES v join class c on c.Class = v.CLASS where Field2 = 'Mammal' </t>
+          <t xml:space="preserve">select count(*) mammalCount from VERTEBRATES v join class c on c.Class = v.CLASS where Field2 = 'Mammal'  </t>
         </is>
       </c>
       <c r="G110" t="n">
@@ -5025,7 +5066,7 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t xml:space="preserve">select species, Common_Name,  Scientific_Name, Definition, number from VERTEBRATES v join HABITAT_CODES h on v.Habitat = h.Code where number &gt; 100 </t>
+          <t xml:space="preserve">select species, Common_Name,  Scientific_Name, Definition, number from VERTEBRATES v join HABITAT_CODES h on v.Habitat = h.Code where number &gt; 100  </t>
         </is>
       </c>
       <c r="G111" t="n">
@@ -5064,7 +5105,7 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t xml:space="preserve">select Scientific_Name  from WILDLIFE_MASTERLIST where Scientific_Name not in ( 	select Scientific_Name 	from VERTEBRATES ) </t>
+          <t xml:space="preserve">select Scientific_Name  from WILDLIFE_MASTERLIST where Scientific_Name not in ( 	select Scientific_Name 	from VERTEBRATES )  </t>
         </is>
       </c>
       <c r="G112" t="n">
@@ -5103,7 +5144,7 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t xml:space="preserve">select Common_Name  from WILDLIFE_MASTERLIST ml where not exists ( 	select * 	from INVERTEBRATES 	where ml.Common_Name = Common_Name ) </t>
+          <t xml:space="preserve">select Common_Name  from WILDLIFE_MASTERLIST ml where not exists ( 	select * 	from INVERTEBRATES 	where ml.Common_Name = Common_Name )  </t>
         </is>
       </c>
       <c r="G113" t="n">
@@ -5142,7 +5183,7 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t xml:space="preserve">select distinct species  from Roadkill r where year = 2014 and not exists ( 	select species  	from Roadkill 	where year = 2015 and r.Species = Species ) </t>
+          <t xml:space="preserve">select distinct species  from Roadkill r where year = 2014 and not exists ( 	select species  	from Roadkill 	where year = 2015 and r.Species = Species )  </t>
         </is>
       </c>
       <c r="G114" t="n">
@@ -5174,21 +5215,25 @@
           <t>gemini-2.0-flash-001</t>
         </is>
       </c>
-      <c r="E115" t="inlineStr"/>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>SELECT HWY_Mile_Marker FROM Roadkill WHERE Year = '2021' GROUP BY HWY_Mile_Marker ORDER BY count(*) DESC LIMIT 1</t>
+        </is>
+      </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t xml:space="preserve">select top 1 HWY_Mile_Marker from roadkill where year = 2021 group by HWY_Mile_Marker order by count(location) desc </t>
+          <t xml:space="preserve">select  HWY_Mile_Marker from roadkill where year = 2021 group by HWY_Mile_Marker order by count(location) desc limit 1 </t>
         </is>
       </c>
       <c r="G115" t="n">
-        <v>-1</v>
+        <v>223</v>
       </c>
       <c r="H115" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>empty result set</t>
+          <t>full tuple compare succeeded</t>
         </is>
       </c>
     </row>
@@ -5211,16 +5256,19 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>SELECT OBS_TYPE, COUNT(*) FROM VERTEBRATES WHERE Observer = 'Buckley' GROUP BY OBS_TYPE</t>
+          <t>SELECT OBS_TYPE, COUNT(*)
+FROM VERTEBRATES
+WHERE Observer = 'Buckley'
+GROUP BY OBS_TYPE;</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t xml:space="preserve">select OBS_TYPE, count(*) obsCount from VERTEBRATES where observer = 'Buckley' group by OBS_TYPE </t>
+          <t xml:space="preserve">select OBS_TYPE, count(*) obsCount from VERTEBRATES where observer = 'Buckley' group by OBS_TYPE  </t>
         </is>
       </c>
       <c r="G116" t="n">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="H116" t="b">
         <v>1</v>
@@ -5250,20 +5298,16 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>SELECT
-  Notes
-FROM VERTEBRATES
-WHERE
-  Observer = 'stefanic' AND Common_Name = 'dusky flycatcher';</t>
+          <t>SELECT Notes FROM VERTEBRATES WHERE Observer = "stefanic" AND Common_Name = "dusky flycatcher"</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t xml:space="preserve">select notes  from VERTEBRATES where Observer like 'stefanic' and Common_Name like 'dusky flycatcher' </t>
+          <t xml:space="preserve">select notes  from VERTEBRATES where Observer like 'stefanic' and Common_Name like 'dusky flycatcher'  </t>
         </is>
       </c>
       <c r="G117" t="n">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="H117" t="b">
         <v>0</v>
@@ -5298,7 +5342,7 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t xml:space="preserve">select Common_Name, Genus_species, class, family, [order] from invertebrates where location like 'Arco Tunnel' </t>
+          <t xml:space="preserve">select Common_Name, Genus_species, class, family, [order] from invertebrates where location like 'Arco Tunnel'  </t>
         </is>
       </c>
       <c r="G118" t="n">
@@ -5340,7 +5384,7 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t xml:space="preserve">select location, count(*) obsCount from INVERTEBRATES where location not like 'unknown' and observer like 'Munts' group by location </t>
+          <t xml:space="preserve">select location, count(*) obsCount from INVERTEBRATES where location not like 'unknown' and observer like 'Munts' group by location  </t>
         </is>
       </c>
       <c r="G119" t="n">
@@ -5385,7 +5429,7 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t xml:space="preserve">select Common_Name  from INVERTEBRATES i where habitat in ( 	select Habitat 	from VERTEBRATES 	where Common_Name like 'Northern mockingbird' ) </t>
+          <t xml:space="preserve">select Common_Name  from INVERTEBRATES i where habitat in ( 	select Habitat 	from VERTEBRATES 	where Common_Name like 'Northern mockingbird' )  </t>
         </is>
       </c>
       <c r="G120" t="n">
@@ -5424,7 +5468,7 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t xml:space="preserve">select count(*) codeCount from HABITAT_CODES </t>
+          <t xml:space="preserve">select count(*) codeCount from HABITAT_CODES  </t>
         </is>
       </c>
       <c r="G121" t="n">
@@ -5470,7 +5514,7 @@
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t xml:space="preserve">select Event_Notes, Location_ID from tbl_Event_Details d join tbl_Events e on e.Event_ID = d.Event_ID where DAY(Start_Date) = 5 	and MONTH(Start_Date) = 8 	and YEAR(Start_Date) = 2011 </t>
+          <t xml:space="preserve">select Event_Notes, Location_ID from tbl_Event_Details d join tbl_Events e on e.Event_ID = d.Event_ID WHERE date(Start_Date) between date('2011-08-05') AND date('2011-08-05') 	 	  </t>
         </is>
       </c>
       <c r="G122" t="n">
@@ -5481,7 +5525,7 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>empty result set</t>
+          <t>asymmetrical tuple result size</t>
         </is>
       </c>
     </row>
@@ -5508,17 +5552,17 @@
   T1.Event_Notes,
   T2.Loc_Name
 FROM tbl_Event_Details AS T1
-INNER JOIN tbl_Locations AS T2
-  ON T1.Event_ID = T2.Location_ID
 INNER JOIN tbl_Events AS T3
   ON T1.Event_ID = T3.Event_ID
+INNER JOIN tbl_Locations AS T2
+  ON T3.Location_ID = T2.Location_ID
 WHERE
   T3.Start_Date = '2011-08-05';</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t xml:space="preserve">select Event_Notes, Loc_Name from tbl_Event_Details d join tbl_Events e on e.Event_ID = d.Event_ID join tbl_Locations l on e.Location_ID = l.Location_ID where DAY(Start_Date) = 5 	and MONTH(Start_Date) = 8 	and YEAR(Start_Date) = 2011 </t>
+          <t xml:space="preserve">select Event_Notes, Loc_Name from tbl_Event_Details d join tbl_Events e on e.Event_ID = d.Event_ID join tbl_Locations l on e.Location_ID = l.Location_ID WHERE date(Start_Date) between date('2011-08-05') AND date('2011-08-05') 	 	  </t>
         </is>
       </c>
       <c r="G123" t="n">
@@ -5529,7 +5573,7 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>empty result set</t>
+          <t>asymmetrical tuple result size</t>
         </is>
       </c>
     </row>
@@ -5557,7 +5601,7 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t xml:space="preserve">select count(*) eventCount from tbl_events </t>
+          <t xml:space="preserve">select count(*) eventCount from tbl_events  </t>
         </is>
       </c>
       <c r="G124" t="n">
@@ -5596,7 +5640,7 @@
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t xml:space="preserve">select count(*)  from tbl_MacroHabitat mac join tbl_MicroHabitat mic on mac.Event_ID = mic.Event_ID </t>
+          <t xml:space="preserve">select count(*)  from tbl_MacroHabitat mac join tbl_MicroHabitat mic on mac.Event_ID = mic.Event_ID  </t>
         </is>
       </c>
       <c r="G125" t="n">
@@ -5635,7 +5679,7 @@
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t xml:space="preserve">select avg(Slope) avgSlope from tbl_MacroHabitat where Hydrology = 'Upland' </t>
+          <t xml:space="preserve">select avg(Slope) avgSlope from tbl_MacroHabitat where Hydrology = 'Upland'  </t>
         </is>
       </c>
       <c r="G126" t="n">
@@ -5667,21 +5711,25 @@
           <t>gemini-2.0-flash-001</t>
         </is>
       </c>
-      <c r="E127" t="inlineStr"/>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>SELECT Reason, Table, Field, Date_Change FROM tbl_Edit_Log ORDER BY Date_Change DESC LIMIT 1</t>
+        </is>
+      </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t xml:space="preserve">select top 1 Reason, [Table], Field, Date_Change from tbl_Edit_Log order by Date_change desc </t>
+          <t xml:space="preserve">select  Reason, [Table], Field, Date_Change from tbl_Edit_Log order by Date_change desc limit 1 </t>
         </is>
       </c>
       <c r="G127" t="n">
-        <v>-1</v>
+        <v>219</v>
       </c>
       <c r="H127" t="b">
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>empty result set</t>
+          <t>asymmetrical tuple result size</t>
         </is>
       </c>
     </row>
@@ -5709,7 +5757,7 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t xml:space="preserve">select avg(Soil_dist) avgSoilDisturbance from tbl_MicroHabitat where SurfaceWater &gt; 0 </t>
+          <t xml:space="preserve">select avg(Soil_dist) avgSoilDisturbance from tbl_MicroHabitat where SurfaceWater &gt; 0  </t>
         </is>
       </c>
       <c r="G128" t="n">
@@ -5741,21 +5789,38 @@
           <t>gemini-2.0-flash-001</t>
         </is>
       </c>
-      <c r="E129" t="inlineStr"/>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>SELECT
+  T1.LightIndex,
+  T1.Evergreen,
+  T1.Litter,
+  T1.VegHeight,
+  T2.Elevation
+FROM tbl_MicroHabitat AS T1
+INNER JOIN tbl_Locations AS T2
+  ON T1.Event_ID = T2.Location_ID
+WHERE
+  T2.Date_Monumented = '2009-07-28'
+ORDER BY
+  T2.Elevation DESC
+LIMIT 1;</t>
+        </is>
+      </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t xml:space="preserve">select top 1 LightIndex, Evergreen, Litter, VegHeight, Elevation from tbl_MicroHabitat m join tbl_Events e on m.Event_ID = e.Event_ID join tbl_Locations l on e.Location_ID = l.Location_ID where year(Start_Date) = 2009 and month(Start_Date) = 7 and day(Start_Date) = 28 order by Elevation desc </t>
+          <t xml:space="preserve">select LightIndex, Evergreen, Litter, VegHeight, Elevation from tbl_MicroHabitat m join tbl_Events e on m.Event_ID = e.Event_ID join tbl_Locations l on e.Location_ID = l.Location_ID WHERE date(Start_Date) BETWEEN date('2009-07-28') AND date('2009-07-28') order by Elevation desc limit 1  </t>
         </is>
       </c>
       <c r="G129" t="n">
-        <v>-1</v>
+        <v>642</v>
       </c>
       <c r="H129" t="b">
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>empty result set</t>
+          <t>asymmetrical tuple result size</t>
         </is>
       </c>
     </row>
@@ -5778,23 +5843,23 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>SELECT COUNT(DISTINCT Species) FROM tlu_Species_CRLA</t>
+          <t>SELECT count(Species) FROM tlu_Species_CRLA</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t xml:space="preserve">select count(distinct Species) SpeciesCount from tlu_Species_CRLA </t>
+          <t xml:space="preserve">select count(distinct Species) SpeciesCount from tlu_Species_CRLA  </t>
         </is>
       </c>
       <c r="G130" t="n">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H130" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>full tuple compare succeeded</t>
+          <t>full tuple compare failed</t>
         </is>
       </c>
     </row>
@@ -5822,7 +5887,7 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t xml:space="preserve">select Species from tlu_Species_LABE where SampleYear = 2017 </t>
+          <t xml:space="preserve">select Species from tlu_Species_LABE where SampleYear = 2017  </t>
         </is>
       </c>
       <c r="G131" t="n">
@@ -5864,7 +5929,7 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t xml:space="preserve">select SampleYear, count(distinct Species) SpeciesCount from tlu_Species_ORCA group by SampleYear </t>
+          <t xml:space="preserve">select SampleYear, count(distinct Species) SpeciesCount from tlu_Species_ORCA group by SampleYear  </t>
         </is>
       </c>
       <c r="G132" t="n">
@@ -5903,7 +5968,7 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t xml:space="preserve">select SampleYear, count(distinct Species) SpeciesCount from tlu_Species_REDW group by SampleYear </t>
+          <t xml:space="preserve">select SampleYear, count(distinct Species) SpeciesCount from tlu_Species_REDW group by SampleYear  </t>
         </is>
       </c>
       <c r="G133" t="n">
@@ -5942,7 +6007,7 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t xml:space="preserve">select distinct Species from tlu_Species_REDW where Species not in ( 	select Species from tlu_Species_WHIS ) </t>
+          <t xml:space="preserve">select distinct Species from tlu_Species_REDW where Species not in ( 	select Species from tlu_Species_WHIS )  </t>
         </is>
       </c>
       <c r="G134" t="n">
@@ -5981,7 +6046,7 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t xml:space="preserve">select distinct Species from tlu_Species_LAVO where Species in ( 	select Species 	from tlu_Species_ORCA ) </t>
+          <t xml:space="preserve">select distinct Species from tlu_Species_LAVO where Species in ( 	select Species 	from tlu_Species_ORCA )  </t>
         </is>
       </c>
       <c r="G135" t="n">
@@ -6020,7 +6085,7 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t xml:space="preserve">select Position_Title, City, State_Code, Zip_Code from tlu_Contacts where First_Name = 'Ivan' and Last_Name = 'C' </t>
+          <t xml:space="preserve">select Position_Title, City, State_Code, Zip_Code from tlu_Contacts where First_Name = 'Ivan' and Last_Name = 'C'  </t>
         </is>
       </c>
       <c r="G136" t="n">
@@ -6059,7 +6124,7 @@
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t xml:space="preserve">select Position_Title  from tlu_Contacts where First_Name = 'Dominic' and Last_Name = 'D' </t>
+          <t xml:space="preserve">select Position_Title  from tlu_Contacts where First_Name = 'Dominic' and Last_Name = 'D'  </t>
         </is>
       </c>
       <c r="G137" t="n">
@@ -6098,7 +6163,7 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t xml:space="preserve">select count(distinct Enum_Group) enumCount from tlu_Enumerations </t>
+          <t xml:space="preserve">select count(distinct Enum_Group) enumCount from tlu_Enumerations  </t>
         </is>
       </c>
       <c r="G138" t="n">
@@ -6137,7 +6202,7 @@
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t xml:space="preserve">select Enum_Description from tlu_Enumerations where Enum_Group = 'Land Use' 	and Enum_Code = 'Logging' </t>
+          <t xml:space="preserve">select Enum_Description from tlu_Enumerations where Enum_Group = 'Land Use' 	and Enum_Code = 'Logging'  </t>
         </is>
       </c>
       <c r="G139" t="n">
@@ -6178,7 +6243,7 @@
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t xml:space="preserve">select Enum_Group, count(*) codeCount from tlu_Enumerations group by Enum_Group </t>
+          <t xml:space="preserve">select Enum_Group, count(*) codeCount from tlu_Enumerations group by Enum_Group  </t>
         </is>
       </c>
       <c r="G140" t="n">
@@ -6224,7 +6289,7 @@
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t xml:space="preserve">select Revision_Reason, Revision_Desc from tbl_Db_Revisions r join tlu_Contacts c on r.Revision_Contact_ID = c.Contact_ID where First_Name = 'Allison' and Last_Name = 'S' </t>
+          <t xml:space="preserve">select Revision_Reason, Revision_Desc from tbl_Db_Revisions r join tlu_Contacts c on r.Revision_Contact_ID = c.Contact_ID where First_Name = 'Allison' and Last_Name = 'S'  </t>
         </is>
       </c>
       <c r="G141" t="n">
@@ -6265,18 +6330,18 @@
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t xml:space="preserve">select year(Revision_Date) YearRevised, count(*) RevisionCount from tbl_Db_Revisions group by year(Revision_Date) </t>
+          <t xml:space="preserve">select strftime('%Y', Revision_Date) YearRevised, count(*) RevisionCount from tbl_Db_Revisions group by strftime('%Y', Revision_Date)  </t>
         </is>
       </c>
       <c r="G142" t="n">
         <v>227</v>
       </c>
       <c r="H142" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>asymmetrical tuple result size</t>
+          <t>full tuple compare succeeded</t>
         </is>
       </c>
     </row>
@@ -6297,21 +6362,25 @@
           <t>gemini-2.0-flash-001</t>
         </is>
       </c>
-      <c r="E143" t="inlineStr"/>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>SELECT Site_Name, Site_ID, Site_Desc, Length, Route FROM tbl_Sites ORDER BY Site_Start_Y DESC LIMIT 1</t>
+        </is>
+      </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t xml:space="preserve">select top 1 Site_ID, Site_Name, Site_Desc, Length, Route from tbl_Sites order by Site_Start_Y desc </t>
+          <t xml:space="preserve">select  Site_ID, Site_Name, Site_Desc, Length, Route from tbl_Sites order by Site_Start_Y desc limit 1 </t>
         </is>
       </c>
       <c r="G143" t="n">
-        <v>-1</v>
+        <v>260</v>
       </c>
       <c r="H143" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>empty result set</t>
+          <t>full tuple compare succeeded</t>
         </is>
       </c>
     </row>
@@ -6339,7 +6408,7 @@
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t xml:space="preserve">select Site_Start_X, Site_End_X, Site_Start_Y, Site_End_Y from tbl_Sites where Site_Name = 'Nobles Pass C' </t>
+          <t xml:space="preserve">select Site_Start_X, Site_End_X, Site_Start_Y, Site_End_Y from tbl_Sites where Site_Name = 'Nobles Pass C'  </t>
         </is>
       </c>
       <c r="G144" t="n">
@@ -6371,21 +6440,25 @@
           <t>gemini-2.0-flash-001</t>
         </is>
       </c>
-      <c r="E145" t="inlineStr"/>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>SELECT T1.Site_Name, COUNT(T2.Site_ID) AS Number_of_Sites FROM tbl_Sites AS T1 JOIN tbl_Locations AS T2 ON T1.Site_ID = T2.Site_ID GROUP BY T1.Site_Name ORDER BY COUNT(T2.Site_ID) DESC LIMIT 1</t>
+        </is>
+      </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t xml:space="preserve">select top 1 Site_Name, count(*) LocationCount from tbl_Sites s join tbl_Locations l on s.Site_ID = l.Site_ID group by Site_Name order by count(*) desc </t>
+          <t xml:space="preserve">select  Site_Name, count(*) LocationCount from tbl_Sites s join tbl_Locations l on s.Site_ID = l.Site_ID group by Site_Name order by count(*) desc limit 1 </t>
         </is>
       </c>
       <c r="G145" t="n">
-        <v>-1</v>
+        <v>481</v>
       </c>
       <c r="H145" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>empty result set</t>
+          <t>full tuple compare succeeded</t>
         </is>
       </c>
     </row>
@@ -6421,7 +6494,7 @@
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t xml:space="preserve">select Loc_Name, X_Coord, Y_Coord from tbl_Sites s join tbl_Locations l on s.Site_ID = l.Site_ID where site_name = 'North A' </t>
+          <t xml:space="preserve">select Loc_Name, X_Coord, Y_Coord from tbl_Sites s join tbl_Locations l on s.Site_ID = l.Site_ID where site_name = 'North A'  </t>
         </is>
       </c>
       <c r="G146" t="n">
@@ -6453,21 +6526,25 @@
           <t>gemini-2.0-flash-001</t>
         </is>
       </c>
-      <c r="E147" t="inlineStr"/>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>SELECT T1.First_Name FROM tlu_Contacts AS T1 INNER JOIN xref_Event_Contacts AS T2 ON T1.Contact_ID = T2.Contact_ID GROUP BY T1.Contact_ID ORDER BY count(DISTINCT T2.Event_ID) DESC LIMIT 1</t>
+        </is>
+      </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t xml:space="preserve">select top 1 First_Name from tlu_Contacts c join xref_Event_Contacts x on c.Contact_ID = x.Contact_ID group by First_Name order by count(distinct event_id) desc </t>
+          <t xml:space="preserve">select  First_Name from tlu_Contacts c join xref_Event_Contacts x on c.Contact_ID = x.Contact_ID group by First_Name order by count(distinct event_id) desc limit 1 </t>
         </is>
       </c>
       <c r="G147" t="n">
-        <v>-1</v>
+        <v>343</v>
       </c>
       <c r="H147" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>empty result set</t>
+          <t>full tuple compare succeeded</t>
         </is>
       </c>
     </row>
@@ -6505,18 +6582,18 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t xml:space="preserve">select distinct First_Name, Last_Name, Position_Title from tlu_Contacts c join xref_Event_Contacts x on c.Contact_ID = x.Contact_ID join tbl_Events e on x.Event_ID = e.Event_ID where year(Start_Date) = 2021 and month(Start_Date) = 8 </t>
+          <t xml:space="preserve">select distinct First_Name, Last_Name, Position_Title from tlu_Contacts c join xref_Event_Contacts x on c.Contact_ID = x.Contact_ID join tbl_Events e on x.Event_ID = e.Event_ID where date(Start_Date) &gt;= date('2021-08-01') and date(Start_Date) &lt;= date('2021-08-31')  </t>
         </is>
       </c>
       <c r="G148" t="n">
         <v>522</v>
       </c>
       <c r="H148" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>asymmetrical tuple result size</t>
+          <t>full tuple compare succeeded</t>
         </is>
       </c>
     </row>
@@ -6537,21 +6614,35 @@
           <t>gemini-2.0-flash-001</t>
         </is>
       </c>
-      <c r="E149" t="inlineStr"/>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>SELECT
+  T1.Loc_Name,
+  COUNT(T2.Event_ID)
+FROM tbl_Locations AS T1
+INNER JOIN tbl_Events AS T2
+  ON T1.Location_ID = T2.Location_ID
+GROUP BY
+  T1.Loc_Name
+ORDER BY
+  COUNT(T2.Event_ID) DESC
+LIMIT 10;</t>
+        </is>
+      </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t xml:space="preserve">select top 10 Loc_Name, count(*) eventCount from tbl_locations l join tbl_events e on l.Location_ID = e.Location_ID group by Loc_Name order by count(*) desc </t>
+          <t xml:space="preserve">select  Loc_Name, count(*) eventCount from tbl_locations l join tbl_events e on l.Location_ID = e.Location_ID group by Loc_Name order by count(*) desc limit 10 </t>
         </is>
       </c>
       <c r="G149" t="n">
-        <v>-1</v>
+        <v>517</v>
       </c>
       <c r="H149" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>empty result set</t>
+          <t>full tuple compare succeeded</t>
         </is>
       </c>
     </row>
@@ -6572,21 +6663,39 @@
           <t>gemini-2.0-flash-001</t>
         </is>
       </c>
-      <c r="E150" t="inlineStr"/>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>SELECT
+  T1.Site_Name,
+  T1.Site_Desc,
+  COUNT(T2.Event_ID)
+FROM tbl_Sites AS T1
+INNER JOIN tbl_Locations AS T3
+  ON T1.Site_ID = T3.Site_ID
+INNER JOIN tbl_Events AS T2
+  ON T3.Location_ID = T2.Location_ID
+GROUP BY
+  T1.Site_Name,
+  T1.Site_Desc
+ORDER BY
+  COUNT(T2.Event_ID) DESC
+LIMIT 10;</t>
+        </is>
+      </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t xml:space="preserve">select top 10 Site_Name, site_Desc, count(*) eventCount from tbl_locations l join tbl_events e on l.Location_ID = e.Location_ID join tbl_Sites s on l.Site_ID = s.Site_ID group by Site_Name, Site_Desc order by count(*) desc </t>
+          <t xml:space="preserve">select  Site_Name, site_Desc, count(*) eventCount from tbl_locations l join tbl_events e on l.Location_ID = e.Location_ID join tbl_Sites s on l.Site_ID = s.Site_ID group by Site_Name, Site_Desc order by count(*) desc limit 10 </t>
         </is>
       </c>
       <c r="G150" t="n">
-        <v>-1</v>
+        <v>649</v>
       </c>
       <c r="H150" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>empty result set</t>
+          <t>full tuple compare succeeded</t>
         </is>
       </c>
     </row>
@@ -6622,7 +6731,7 @@
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t xml:space="preserve">select PDOP, HDOP, EPE from tbl_locations l join tbl_Sites s on l.Site_ID = s.Site_ID where site_name = 'Mule Town B' </t>
+          <t xml:space="preserve">select PDOP, HDOP, EPE from tbl_locations l join tbl_Sites s on l.Site_ID = s.Site_ID where site_name = 'Mule Town B'  </t>
         </is>
       </c>
       <c r="G151" t="n">
@@ -6665,7 +6774,7 @@
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t xml:space="preserve">select count(*) locCount from tbl_Locations where county = 'Shasta' </t>
+          <t xml:space="preserve">select count(*) locCount from tbl_Locations where county = 'Shasta'  </t>
         </is>
       </c>
       <c r="G152" t="n">
@@ -6707,7 +6816,7 @@
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t xml:space="preserve">select Loc_Type, count(*) locCount from tbl_Locations where county = 'Shasta' group by Loc_Type </t>
+          <t xml:space="preserve">select Loc_Type, count(*) locCount from tbl_Locations where county = 'Shasta' group by Loc_Type  </t>
         </is>
       </c>
       <c r="G153" t="n">
@@ -6739,21 +6848,35 @@
           <t>gemini-2.0-flash-001</t>
         </is>
       </c>
-      <c r="E154" t="inlineStr"/>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>SELECT T1.Site_Name, COUNT(T2.Loc_Type)
+FROM tbl_Sites AS T1
+INNER JOIN tbl_Locations AS T2
+ON T1.Site_ID = T2.Site_ID
+WHERE
+  T2.Loc_Type = 'Infestation'
+GROUP BY
+  T1.Site_Name
+ORDER BY
+  COUNT(T2.Loc_Type) DESC
+LIMIT 10;</t>
+        </is>
+      </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t xml:space="preserve">select top 10 Site_Name, count(*) SiteCount from tbl_Locations l join tbl_sites s on l.Site_ID = s.Site_ID where loc_Type = 'Infestation' group by site_Name order by count(*) desc </t>
+          <t xml:space="preserve">select  Site_Name, count(*) SiteCount from tbl_Locations l join tbl_sites s on l.Site_ID = s.Site_ID where loc_Type = 'Infestation' group by site_Name order by count(*) desc limit 10 </t>
         </is>
       </c>
       <c r="G154" t="n">
-        <v>-1</v>
+        <v>511</v>
       </c>
       <c r="H154" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>empty result set</t>
+          <t>full tuple compare succeeded</t>
         </is>
       </c>
     </row>
@@ -6776,16 +6899,22 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>SELECT DISTINCT T2.Event_ID FROM tbl_Locations AS T1 INNER JOIN tbl_Events AS T2 ON T1.Location_ID = T2.Location_ID WHERE T1.Watershed = "Wood River" AND T1.Subwatershed = "Annie Creek"</t>
+          <t>SELECT DISTINCT
+  T1.Event_ID
+FROM tbl_Events AS T1
+INNER JOIN tbl_Locations AS T2
+  ON T1.Location_ID = T2.Location_ID
+WHERE
+  T2.Watershed = 'Wood River' AND T2.Subwatershed = 'Annie Creek';</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t xml:space="preserve">select Event_ID from tbl_Events e join tbl_locations l on e.Location_ID = l.Location_ID where Watershed = 'Wood River' and Subwatershed = 'Annie Creek' </t>
+          <t xml:space="preserve">select Event_ID from tbl_Events e join tbl_locations l on e.Location_ID = l.Location_ID where Watershed = 'Wood River' and Subwatershed = 'Annie Creek'  </t>
         </is>
       </c>
       <c r="G155" t="n">
-        <v>481</v>
+        <v>490</v>
       </c>
       <c r="H155" t="b">
         <v>1</v>
@@ -6820,7 +6949,7 @@
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t xml:space="preserve">select avg(Elevation) avgElevation from tbl_locations where Subwatershed = 'Annie Creek' </t>
+          <t xml:space="preserve">select avg(Elevation) avgElevation from tbl_locations where Subwatershed = 'Annie Creek'  </t>
         </is>
       </c>
       <c r="G156" t="n">
@@ -6863,7 +6992,7 @@
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t xml:space="preserve">select count(*) LocCount from tbl_locations where Rnd_Plt_In = 'Yes' </t>
+          <t xml:space="preserve">select count(*) LocCount from tbl_locations where Rnd_Plt_In = 'Yes'  </t>
         </is>
       </c>
       <c r="G157" t="n">
@@ -6897,12 +7026,12 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>SELECT X_Coord, Y_Coord, Coord_Units, Coord_System, Datum, Est_H_Error, Accuracy_Notes, Loc_Type FROM tbl_Locations WHERE Loc_Name = "CRLA-Infestation-3924"</t>
+          <t>SELECT X_Coord, Y_Coord, Coord_Units, Coord_System, Datum, Est_H_Error, Accuracy_Notes, Loc_Type FROM tbl_Locations WHERE Loc_Name = 'CRLA-Infestation-3924'</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t xml:space="preserve">select Loc_Name, X_Coord, Y_Coord, Coord_Units, Coord_System, Datum, Est_H_Error, Accuracy_Notes, Loc_Type from tbl_locations where Loc_Name = 'CRLA-Infestation-3924' </t>
+          <t xml:space="preserve">select Loc_Name, X_Coord, Y_Coord, Coord_Units, Coord_System, Datum, Est_H_Error, Accuracy_Notes, Loc_Type from tbl_locations where Loc_Name = 'CRLA-Infestation-3924'  </t>
         </is>
       </c>
       <c r="G158" t="n">
@@ -6941,7 +7070,7 @@
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t xml:space="preserve">select Hydrology, count(*) EventCount from tbl_MacroHabitat group by Hydrology </t>
+          <t xml:space="preserve">select Hydrology, count(*) EventCount from tbl_MacroHabitat group by Hydrology  </t>
         </is>
       </c>
       <c r="G159" t="n">
@@ -6995,18 +7124,18 @@
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t xml:space="preserve">select MacroHab, MicroHab, Hydrology, LandUse, Slope, Aspect from tbl_MacroHabitat mh join tbl_Events e on mh.Event_ID = e.Event_ID where year(Start_Date) = 2015 and month(Start_Date) = 7 </t>
+          <t xml:space="preserve">select MacroHab, MicroHab, Hydrology, LandUse, Slope, Aspect from tbl_MacroHabitat mh join tbl_Events e on mh.Event_ID = e.Event_ID where date(Start_Date) &gt;= date('2015-07-01') and date(Start_Date) &lt;= date('2015-07-31')  </t>
         </is>
       </c>
       <c r="G160" t="n">
         <v>401</v>
       </c>
       <c r="H160" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>asymmetrical tuple result size</t>
+          <t>full tuple compare succeeded</t>
         </is>
       </c>
     </row>
@@ -7034,7 +7163,7 @@
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t xml:space="preserve">select Deciduous, Shrub, Herb, WoodyDebris, Litter, BareGround, Rock from tbl_MicroHabitat where Phenology = 'Flowering' 	and cast(CoverPercent as float) &gt; 90 </t>
+          <t xml:space="preserve">select Deciduous, Shrub, Herb, WoodyDebris, Litter, BareGround, Rock from tbl_MicroHabitat where Phenology = 'Flowering' 	and cast(CoverPercent as float) &gt; 90  </t>
         </is>
       </c>
       <c r="G161" t="n">
@@ -7075,18 +7204,18 @@
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t xml:space="preserve">select year(Event_Date) EventsYear, count(*) eventCount from tbl_events group by year(Event_Date) </t>
+          <t xml:space="preserve">select strftime('%Y', Event_Date) EventsYear, count(*) eventCount from tbl_events group by strftime('%Y', Event_Date)  </t>
         </is>
       </c>
       <c r="G162" t="n">
         <v>210</v>
       </c>
       <c r="H162" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>asymmetrical tuple result size</t>
+          <t>full tuple compare succeeded</t>
         </is>
       </c>
     </row>
@@ -7109,12 +7238,12 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>SELECT avg(MPD) FROM tbl_Deadwood WHERE Decay = "2a"</t>
+          <t>SELECT AVG(MPD) FROM tbl_Deadwood WHERE Decay = '2a'</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t xml:space="preserve">select avg(MPD) avgDiameter from tbl_Deadwood where decay = '2a' </t>
+          <t xml:space="preserve">select avg(MPD) avgDiameter from tbl_Deadwood where decay = '2a'  </t>
         </is>
       </c>
       <c r="G163" t="n">
@@ -7153,7 +7282,7 @@
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t xml:space="preserve">select directions from tbl_Locations where trail = 'maddron bald trail' </t>
+          <t xml:space="preserve">select directions from tbl_Locations where trail = 'maddron bald trail'  </t>
         </is>
       </c>
       <c r="G164" t="n">
@@ -7198,18 +7327,18 @@
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t xml:space="preserve">select SiteDescription from tbl_locations l  join tbl_events e on e.Location_ID = l.Location_ID  where year(event_date) = 2001 </t>
+          <t xml:space="preserve">select SiteDescription from tbl_locations l  join tbl_events e on e.Location_ID = l.Location_ID  where strftime('%Y', Event_Date) = '2001'  </t>
         </is>
       </c>
       <c r="G165" t="n">
         <v>454</v>
       </c>
       <c r="H165" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>asymmetrical tuple result size</t>
+          <t>full tuple compare succeeded</t>
         </is>
       </c>
     </row>
@@ -7245,7 +7374,7 @@
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t xml:space="preserve">select distinct genus, species, CommonName from tbl_Nests n join tlu_PlantSpecies s on n.SpCode = s.SpeciesCode where Event_ID = 30 </t>
+          <t xml:space="preserve">select distinct genus, species, CommonName from tbl_Nests n join tlu_PlantSpecies s on n.SpCode = s.SpeciesCode where Event_ID = 30  </t>
         </is>
       </c>
       <c r="G166" t="n">
@@ -7279,12 +7408,12 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>SELECT AVG(T1.DBH) FROM tbl_Overstory AS T1 INNER JOIN tlu_PlantSpecies AS T2 ON T1.SpCode = T2.SpeciesCode WHERE T1.Event_ID IN (15, 16) AND T2.genus = 'Montana'</t>
+          <t>SELECT AVG(T1.DBH) FROM tbl_Overstory AS T1 INNER JOIN tlu_PlantSpecies AS T2 ON T1.SpCode = T2.SpeciesCode WHERE T2.genus = 'Montana' AND T1.Event_ID IN (15, 16)</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t xml:space="preserve">select avg(DBH) avgDiameter from tbl_events e join tbl_Overstory o on e.Event_ID = o.Event_ID join tlu_PlantSpecies s on o.SpCode = s.SpeciesCode where species = 'montana' 	and e.Event_ID in (15, 16) </t>
+          <t xml:space="preserve">select avg(DBH) avgDiameter from tbl_events e join tbl_Overstory o on e.Event_ID = o.Event_ID join tlu_PlantSpecies s on o.SpCode = s.SpeciesCode where species = 'montana' 	and e.Event_ID in (15, 16)  </t>
         </is>
       </c>
       <c r="G167" t="n">
@@ -7330,7 +7459,7 @@
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t xml:space="preserve">select spcode, DClass1, DClass2, DClass3, DClass4 from tbl_Saplings where spcode = 'Abiefra' </t>
+          <t xml:space="preserve">select spcode, DClass1, DClass2, DClass3, DClass4 from tbl_Saplings where spcode = 'Abiefra'  </t>
         </is>
       </c>
       <c r="G168" t="n">
@@ -7369,7 +7498,7 @@
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t xml:space="preserve">select avg(Density) avgSeedlingDensity from tbl_seedlings s join tlu_PlantSpecies sp on s.SpCode = sp.SpeciesCode where genus = 'Acer' </t>
+          <t xml:space="preserve">select avg(Density) avgSeedlingDensity from tbl_seedlings s join tlu_PlantSpecies sp on s.SpCode = sp.SpeciesCode where genus = 'Acer'  </t>
         </is>
       </c>
       <c r="G169" t="n">
@@ -7408,7 +7537,7 @@
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t xml:space="preserve">select Location_ID, avg(Density) avgSeedlingDensity from tbl_seedlings s join tlu_PlantSpecies sp on s.SpCode = sp.SpeciesCode join tbl_Events e on e.Event_ID = s.Event_ID where genus = 'Acer' group by Location_ID </t>
+          <t xml:space="preserve">select Location_ID, avg(Density) avgSeedlingDensity from tbl_seedlings s join tlu_PlantSpecies sp on s.SpCode = sp.SpeciesCode join tbl_Events e on e.Event_ID = s.Event_ID where genus = 'Acer' group by Location_ID  </t>
         </is>
       </c>
       <c r="G170" t="n">
@@ -7447,7 +7576,7 @@
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t xml:space="preserve">select avg(utmE) ECentroid, avg(utmN) NCentroid from tlu_PlaceNames where County = 'Sevier' and State = 'TN' </t>
+          <t xml:space="preserve">select avg(utmE) ECentroid, avg(utmN) NCentroid from tlu_PlaceNames where County = 'Sevier' and State = 'TN'  </t>
         </is>
       </c>
       <c r="G171" t="n">
@@ -7486,7 +7615,7 @@
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t xml:space="preserve">select XCoord, Ycoord, SpCode from tbl_Tree_Tags where Tree_Tag_ID = 144 </t>
+          <t xml:space="preserve">select XCoord, Ycoord, SpCode from tbl_Tree_Tags where Tree_Tag_ID = 144  </t>
         </is>
       </c>
       <c r="G172" t="n">
@@ -7528,7 +7657,7 @@
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t xml:space="preserve">select TreeCond, count(*) treeCount from tbl_Tree_Tags tt join tbl_Overstory o on o.TreeTag = tt.Tree_Tag_ID where Tag &gt; 220 group by TreeCond </t>
+          <t xml:space="preserve">select TreeCond, count(*) treeCount from tbl_Tree_Tags tt join tbl_Overstory o on o.TreeTag = tt.Tree_Tag_ID where Tag &gt; 220 group by TreeCond  </t>
         </is>
       </c>
       <c r="G173" t="n">
@@ -7574,7 +7703,7 @@
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t xml:space="preserve">select TreeCond_Text, count(*) TreeCount from tlu_Tree_Cond tc join tbl_Overstory o on o.TreeCond = tc.TreeCond_Num group by TreeCond_Text </t>
+          <t xml:space="preserve">select TreeCond_Text, count(*) TreeCount from tlu_Tree_Cond tc join tbl_Overstory o on o.TreeCond = tc.TreeCond_Num group by TreeCond_Text  </t>
         </is>
       </c>
       <c r="G174" t="n">
@@ -7606,21 +7735,29 @@
           <t>gemini-2.0-flash-001</t>
         </is>
       </c>
-      <c r="E175" t="inlineStr"/>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>SELECT Witness_SpCode, Witness_DBH
+FROM tbl_WitnessTrees
+WHERE Location_ID != 4
+ORDER BY Witness_stake DESC
+LIMIT 1;</t>
+        </is>
+      </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t xml:space="preserve">select top 1 Witness_SpCode, Witness_DBH from tbl_WitnessTrees where Location_ID &lt;&gt; 4 order by Witness_stake desc </t>
+          <t xml:space="preserve">select  Witness_SpCode, Witness_DBH from tbl_WitnessTrees where Location_ID &lt;&gt; 4 order by Witness_stake desc limit 1 </t>
         </is>
       </c>
       <c r="G175" t="n">
-        <v>-1</v>
+        <v>237</v>
       </c>
       <c r="H175" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>empty result set</t>
+          <t>full tuple compare succeeded</t>
         </is>
       </c>
     </row>
@@ -7648,7 +7785,7 @@
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t xml:space="preserve">select count(*) OverstoryCount from tlu_Can_Pos c join tbl_Overstory o on c.CanPos_Num = o.CanPos where CanPos_Name = 'codominant' </t>
+          <t xml:space="preserve">select count(*) OverstoryCount from tlu_Can_Pos c join tbl_Overstory o on c.CanPos_Num = o.CanPos where CanPos_Name = 'codominant'  </t>
         </is>
       </c>
       <c r="G176" t="n">
@@ -7683,26 +7820,26 @@
       <c r="E177" t="inlineStr">
         <is>
           <t>SELECT
-  tlu_Can_Pos.CanPos_Name,
-  COUNT(tbl_Overstory.Overstory_ID)
-FROM tbl_Overstory
-JOIN tlu_PlantSpecies
-  ON tbl_Overstory.SpCode = tlu_PlantSpecies.SpeciesCode
-JOIN tlu_Can_Pos
-  ON tbl_Overstory.CanPos = tlu_Can_Pos.CanPos_Num
+  T1.CanPos_Name,
+  COUNT(T2.CanPos)
+FROM tlu_Can_Pos AS T1
+INNER JOIN tbl_Overstory AS T2
+  ON T1.CanPos_Num = T2.CanPos
+INNER JOIN tlu_PlantSpecies AS T3
+  ON T2.SpCode = T3.SpeciesCode
 WHERE
-  tlu_PlantSpecies.CommonName = 'Red Maple'
+  T3.CommonName = 'Red Maple'
 GROUP BY
-  tlu_Can_Pos.CanPos_Name;</t>
+  T1.CanPos_Name;</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t xml:space="preserve">select CanPos_Name, count(*) OverstoryCount from tlu_Can_Pos c join tbl_Overstory o on c.CanPos_Num = o.CanPos join tlu_PlantSpecies s on s.SpeciesCode = o.SpCode where CommonName = 'Red maple' group by CanPos_Name </t>
+          <t xml:space="preserve">select CanPos_Name, count(*) OverstoryCount from tlu_Can_Pos c join tbl_Overstory o on c.CanPos_Num = o.CanPos join tlu_PlantSpecies s on s.SpeciesCode = o.SpCode where CommonName = 'Red maple' group by CanPos_Name  </t>
         </is>
       </c>
       <c r="G177" t="n">
-        <v>401</v>
+        <v>386</v>
       </c>
       <c r="H177" t="b">
         <v>0</v>
@@ -7751,7 +7888,7 @@
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t xml:space="preserve">select SiteDescription, Slope, Aspect, Slope_shape, Elevation from tbl_Locations l join tlu_topo_position p on l.Topo_Position = p.ID where TopoPosition = 'Midslope' </t>
+          <t xml:space="preserve">select SiteDescription, Slope, Aspect, Slope_shape, Elevation from tbl_Locations l join tlu_topo_position p on l.Topo_Position = p.ID where TopoPosition = 'Midslope'  </t>
         </is>
       </c>
       <c r="G178" t="n">
@@ -7797,7 +7934,7 @@
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t xml:space="preserve">select SpCode, CoverClass_Text from tbl_Nests n join tlu_Cover_Cls cc on n.cover = cc.CoverClass_Num where Nest_ID = 48 </t>
+          <t xml:space="preserve">select SpCode, CoverClass_Text from tbl_Nests n join tlu_Cover_Cls cc on n.cover = cc.CoverClass_Num where Nest_ID = 48  </t>
         </is>
       </c>
       <c r="G179" t="n">
@@ -7843,7 +7980,7 @@
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t xml:space="preserve">select DecayStage_Descr, count(*) DeadWoodCount from tlu_DecayStage dc join tbl_Deadwood dw on dc.DecayStage_ID = dw.Decay group by DecayStage_Descr </t>
+          <t xml:space="preserve">select DecayStage_Descr, count(*) DeadWoodCount from tlu_DecayStage dc join tbl_Deadwood dw on dc.DecayStage_ID = dw.Decay group by DecayStage_Descr  </t>
         </is>
       </c>
       <c r="G180" t="n">
@@ -7882,7 +8019,7 @@
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t xml:space="preserve">select count(*) from tlu_DecayStage </t>
+          <t xml:space="preserve">select count(*) from tlu_DecayStage  </t>
         </is>
       </c>
       <c r="G181" t="n">
@@ -7928,7 +8065,7 @@
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t xml:space="preserve">select length, mpd from tbl_Deadwood dw join tlu_DecayStage dc on dw.Decay = dc.DecayStage_ID where DecayStage_Descr like '%log is flat%' </t>
+          <t xml:space="preserve">select length, mpd from tbl_Deadwood dw join tlu_DecayStage dc on dw.Decay = dc.DecayStage_ID where DecayStage_Descr like '%log is flat%'  </t>
         </is>
       </c>
       <c r="G182" t="n">
@@ -7975,7 +8112,7 @@
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t xml:space="preserve">select genus from tlu_PlantSpecies sp join tbl_Nests n on n.SpCode = sp.SpeciesCode join tlu_R1_RestOfPlot r on n.R1 = r.Pres_Num where Pres_Text like '%species occurred in rest of plot%' </t>
+          <t xml:space="preserve">select genus from tlu_PlantSpecies sp join tbl_Nests n on n.SpCode = sp.SpeciesCode join tlu_R1_RestOfPlot r on n.R1 = r.Pres_Num where Pres_Text like '%species occurred in rest of plot%'  </t>
         </is>
       </c>
       <c r="G183" t="n">
@@ -8007,21 +8144,30 @@
           <t>gemini-2.0-flash-001</t>
         </is>
       </c>
-      <c r="E184" t="inlineStr"/>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>SELECT genus, COUNT(*) AS count
+FROM tlu_PlantSpecies
+WHERE SpeciesNotes LIKE '%native%'
+GROUP BY genus
+ORDER BY count DESC
+LIMIT 5;</t>
+        </is>
+      </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t xml:space="preserve">select top 5 genus, count(*) speciesCount from tlu_PlantSpecies where SpeciesNotes like '%native%' group by genus order by count(*) desc </t>
+          <t xml:space="preserve">select  genus, count(*) speciesCount from tlu_PlantSpecies where SpeciesNotes like '%native%' group by genus order by count(*) desc limit 5 </t>
         </is>
       </c>
       <c r="G184" t="n">
-        <v>-1</v>
+        <v>239</v>
       </c>
       <c r="H184" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>empty result set</t>
+          <t>full tuple compare succeeded</t>
         </is>
       </c>
     </row>
@@ -8049,18 +8195,18 @@
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t xml:space="preserve">select Database_title, File_name, Release_notes, Author_email, Author_org_name from tsys_App_Releases where year(release_date) = 2015 </t>
+          <t xml:space="preserve">select Database_title, File_name, Release_notes, Author_email, Author_org_name from tsys_App_Releases where date(release_date) &gt;= date('2015-01-01') AND date(release_date) &lt;= date('2015-12-31')  </t>
         </is>
       </c>
       <c r="G185" t="n">
         <v>282</v>
       </c>
       <c r="H185" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>asymmetrical tuple result size</t>
+          <t>full tuple compare succeeded</t>
         </is>
       </c>
     </row>
@@ -8083,12 +8229,12 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>SELECT COUNT(DISTINCT Shape) FROM tlu_Slope_Shape</t>
+          <t>SELECT count(DISTINCT Shape) FROM tlu_Slope_Shape</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t xml:space="preserve">select count(*) from tlu_Slope_Shape </t>
+          <t xml:space="preserve">select count(*) from tlu_Slope_Shape  </t>
         </is>
       </c>
       <c r="G186" t="n">
@@ -8136,18 +8282,18 @@
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t xml:space="preserve">select Location_ID, avg(density) seedlingDensity from tbl_Seedlings s join tbl_Events e on s.Event_ID = e.Event_ID  where year(Event_Date) = 1999 group by Location_ID </t>
+          <t xml:space="preserve">select Location_ID, avg(density) seedlingDensity from tbl_Seedlings s join tbl_Events e on s.Event_ID = e.Event_ID  where strftime('%Y', Event_Date) = '1999' group by Location_ID  </t>
         </is>
       </c>
       <c r="G187" t="n">
         <v>319</v>
       </c>
       <c r="H187" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>asymmetrical tuple result size</t>
+          <t>full tuple compare succeeded</t>
         </is>
       </c>
     </row>
@@ -8175,18 +8321,18 @@
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t xml:space="preserve">select month(e.Event_Date) Mon, avg(DBH) avgFraseriDiam from tbl_Overstory o join tbl_events e on e.event_id = o.event_id join tlu_PlantSpecies s on o.SpCode = s.SpeciesCode where s.species = 'fraseri' group by month(e.Event_Date) </t>
+          <t xml:space="preserve">select strftime('%m', e.Event_Date) Mon, avg(DBH) avgFraseriDiam from tbl_Overstory o join tbl_events e on e.event_id = o.event_id join tlu_PlantSpecies s on o.SpCode = s.SpeciesCode where s.species = 'fraseri' group by strftime('%m', e.Event_Date)  </t>
         </is>
       </c>
       <c r="G188" t="n">
         <v>391</v>
       </c>
       <c r="H188" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>asymmetrical tuple result size</t>
+          <t>full tuple compare succeeded</t>
         </is>
       </c>
     </row>
@@ -8214,7 +8360,7 @@
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t xml:space="preserve">select layer, count(*) from tlu_Roads_and_Trails group by layer </t>
+          <t xml:space="preserve">select layer, count(*) from tlu_Roads_and_Trails group by layer  </t>
         </is>
       </c>
       <c r="G189" t="n">
@@ -8248,19 +8394,16 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>SELECT Layer, COUNT(*)
-FROM tlu_Roads_and_Trails
-WHERE ValidName LIKE '%Balsam%'
-GROUP BY Layer;</t>
+          <t>SELECT Layer, COUNT(*) FROM tlu_Roads_and_Trails WHERE ValidName LIKE '%Balsam%' GROUP BY Layer</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t xml:space="preserve">select layer, count(*) from tlu_Roads_and_Trails where ValidName like '%Balsam%' group by layer </t>
+          <t xml:space="preserve">select layer, count(*) from tlu_Roads_and_Trails where ValidName like '%Balsam%' group by layer  </t>
         </is>
       </c>
       <c r="G190" t="n">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="H190" t="b">
         <v>1</v>
@@ -8295,7 +8438,7 @@
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t xml:space="preserve">select State, count(*) placeCount from tlu_PlaceNames group by state </t>
+          <t xml:space="preserve">select State, count(*) placeCount from tlu_PlaceNames group by state  </t>
         </is>
       </c>
       <c r="G191" t="n">
@@ -8327,21 +8470,25 @@
           <t>gemini-2.0-flash-001</t>
         </is>
       </c>
-      <c r="E192" t="inlineStr"/>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>SELECT Name, County, State, utmE, utmN FROM tlu_PlaceNames ORDER BY utmN DESC LIMIT 1</t>
+        </is>
+      </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t xml:space="preserve">select top 1 Name, County, State, utmE, utmN from tlu_PlaceNames order by utmN desc </t>
+          <t xml:space="preserve">select  Name, County, State, utmE, utmN from tlu_PlaceNames order by utmN desc limit 1 </t>
         </is>
       </c>
       <c r="G192" t="n">
-        <v>-1</v>
+        <v>210</v>
       </c>
       <c r="H192" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>empty result set</t>
+          <t>full tuple compare succeeded</t>
         </is>
       </c>
     </row>
@@ -8378,7 +8525,7 @@
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t xml:space="preserve">select Pres_Text, count(*) nestCount from tlu_Presence p join tbl_Nests n on p.Pres_Num = n.Presence_First where Event_ID = 30 group by Pres_text </t>
+          <t xml:space="preserve">select Pres_Text, count(*) nestCount from tlu_Presence p join tbl_Nests n on p.Pres_Num = n.Presence_First where Event_ID = 30 group by Pres_text  </t>
         </is>
       </c>
       <c r="G193" t="n">
@@ -8417,7 +8564,7 @@
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t xml:space="preserve">select max(X_Coord) - min(X_Coord) xDist, max(Y_Coord) - min(Y_Coord) yDist from tbl_Locations </t>
+          <t xml:space="preserve">select max(X_Coord) - min(X_Coord) xDist, max(Y_Coord) - min(Y_Coord) yDist from tbl_Locations  </t>
         </is>
       </c>
       <c r="G194" t="n">
@@ -8449,21 +8596,25 @@
           <t>gemini-2.0-flash-001</t>
         </is>
       </c>
-      <c r="E195" t="inlineStr"/>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>SELECT T1.genus, T1.species, T1.CommonName FROM tlu_PlantSpecies AS T1 INNER JOIN tbl_Seedlings AS T2 ON T1.SpeciesCode = T2.SpCode ORDER BY T2.Density DESC LIMIT 1</t>
+        </is>
+      </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t xml:space="preserve">select top 1 Genus, species, CommonName from tbl_Seedlings s join tlu_PlantSpecies sp on s.SpCode = sp.SpeciesCode order by density desc </t>
+          <t xml:space="preserve">select  Genus, species, CommonName from tbl_Seedlings s join tlu_PlantSpecies sp on s.SpCode = sp.SpeciesCode order by density desc limit 1 </t>
         </is>
       </c>
       <c r="G195" t="n">
-        <v>-1</v>
+        <v>287</v>
       </c>
       <c r="H195" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>empty result set</t>
+          <t>full tuple compare succeeded</t>
         </is>
       </c>
     </row>
@@ -8484,21 +8635,30 @@
           <t>gemini-2.0-flash-001</t>
         </is>
       </c>
-      <c r="E196" t="inlineStr"/>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>SELECT strftime('%m', T2.Event_Date) AS Month, AVG(T1.Density) AS AverageDensity
+FROM tbl_Seedlings AS T1
+JOIN tbl_Events AS T2 ON T1.Event_ID = T2.Event_ID
+GROUP BY Month
+ORDER BY AverageDensity DESC
+LIMIT 1;</t>
+        </is>
+      </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t xml:space="preserve">select top 1 month(Event_Date) from tbl_seedlings s join tbl_Events e on s.Event_ID = e.Event_ID group by month(Event_Date) order by avg(Density) desc </t>
+          <t xml:space="preserve">select  strftime('%m', Event_Date) from tbl_seedlings s join tbl_Events e on s.Event_ID = e.Event_ID group by strftime('%m', Event_Date) order by avg(Density) desc limit 1  </t>
         </is>
       </c>
       <c r="G196" t="n">
-        <v>-1</v>
+        <v>291</v>
       </c>
       <c r="H196" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>empty result set</t>
+          <t>full tuple compare succeeded</t>
         </is>
       </c>
     </row>
@@ -8535,7 +8695,7 @@
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t xml:space="preserve">select CommonName, count(*) tagCount from tbl_Tree_Tags tg join tlu_PlantSpecies sp on tg.SpCode = sp.SpeciesCode where Location_ID = 2 group by CommonName </t>
+          <t xml:space="preserve">select CommonName, count(*) tagCount from tbl_Tree_Tags tg join tlu_PlantSpecies sp on tg.SpCode = sp.SpeciesCode where Location_ID = 2 group by CommonName  </t>
         </is>
       </c>
       <c r="G197" t="n">
@@ -8587,7 +8747,7 @@
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t xml:space="preserve">select genus, CommonName, count(*) tagCount from tbl_Tree_Tags tg join tlu_PlantSpecies sp on tg.SpCode = sp.SpeciesCode join tbl_Locations l on tg.Location_ID = l.Location_ID where Elevation &gt; 4000 group by genus, CommonName </t>
+          <t xml:space="preserve">select genus, CommonName, count(*) tagCount from tbl_Tree_Tags tg join tlu_PlantSpecies sp on tg.SpCode = sp.SpeciesCode join tbl_Locations l on tg.Location_ID = l.Location_ID where Elevation &gt; 4000 group by genus, CommonName  </t>
         </is>
       </c>
       <c r="G198" t="n">
@@ -8626,7 +8786,7 @@
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t xml:space="preserve">select Eco_notes, coord_units, Coord_system, datum from tbl_locations where Plot_ID = 'A14_1' </t>
+          <t xml:space="preserve">select Eco_notes, coord_units, Coord_system, datum from tbl_locations where Plot_ID = 'A14_1'  </t>
         </is>
       </c>
       <c r="G199" t="n">
@@ -8665,7 +8825,7 @@
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t xml:space="preserve">select loc_notes from tbl_locations where Other_Disturbance like '%probably post logging%' </t>
+          <t xml:space="preserve">select loc_notes from tbl_locations where Other_Disturbance like '%probably post logging%'  </t>
         </is>
       </c>
       <c r="G200" t="n">
@@ -8699,12 +8859,12 @@
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>SELECT COUNT(DISTINCT Event_ID) FROM tbl_Deadwood INTERSECT SELECT COUNT(DISTINCT Event_ID) FROM tbl_Overstory</t>
+          <t>SELECT COUNT(DISTINCT Event_ID) FROM tbl_Overstory INTERSECT SELECT COUNT(DISTINCT Event_ID) FROM tbl_Deadwood</t>
         </is>
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t xml:space="preserve">select count(distinct Event_ID) eventCount from tbl_Deadwood d where d.Event_ID in (select event_id from tbl_Overstory) </t>
+          <t xml:space="preserve">select count(distinct Event_ID) eventCount from tbl_Deadwood d where d.Event_ID in (select event_id from tbl_Overstory)  </t>
         </is>
       </c>
       <c r="G201" t="n">
@@ -8738,18 +8898,16 @@
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>SELECT
-  COUNT(VEHNO)
-FROM GV;</t>
+          <t>SELECT count(*) FROM GV;</t>
         </is>
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT COUNT(DISTINCT VIN) VEHCOUNT FROM GV </t>
+          <t xml:space="preserve">SELECT COUNT(DISTINCT VIN) VEHCOUNT FROM GV  </t>
         </is>
       </c>
       <c r="G202" t="n">
-        <v>637</v>
+        <v>631</v>
       </c>
       <c r="H202" t="b">
         <v>0</v>
@@ -8788,7 +8946,7 @@
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT COUNT(DISTINCT CASEID) CRASHCOUNT FROM FIRE </t>
+          <t xml:space="preserve">SELECT COUNT(DISTINCT CASEID) CRASHCOUNT FROM FIRE  </t>
         </is>
       </c>
       <c r="G203" t="n">
@@ -8827,7 +8985,7 @@
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT DISTINCT CRASHYEAR FROM CRASH </t>
+          <t xml:space="preserve">SELECT DISTINCT CRASHYEAR FROM CRASH  </t>
         </is>
       </c>
       <c r="G204" t="n">
@@ -8866,7 +9024,7 @@
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT COUNT(*) AS RECORDEDEVENTCOUNT FROM EDREVENT </t>
+          <t xml:space="preserve">SELECT COUNT(*) AS RECORDEDEVENTCOUNT FROM EDREVENT  </t>
         </is>
       </c>
       <c r="G205" t="n">
@@ -8909,7 +9067,7 @@
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT COUNT(*) OCCCOUNT FROM OCC WHERE EMSDATA = 1 </t>
+          <t xml:space="preserve">SELECT COUNT(*) OCCCOUNT FROM OCC WHERE EMSDATA = 1  </t>
         </is>
       </c>
       <c r="G206" t="n">
@@ -8952,7 +9110,7 @@
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT COUNT(*) CASECOUNT FROM JKWGT WHERE CATEGORY = 3 </t>
+          <t xml:space="preserve">SELECT COUNT(*) CASECOUNT FROM JKWGT WHERE CATEGORY = 3  </t>
         </is>
       </c>
       <c r="G207" t="n">
@@ -8991,7 +9149,7 @@
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT AVG(JKWGT3) WGT3AVG FROM JKWGT </t>
+          <t xml:space="preserve">SELECT AVG(JKWGT3) WGT3AVG FROM JKWGT  </t>
         </is>
       </c>
       <c r="G208" t="n">
@@ -9030,7 +9188,7 @@
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT CATEGORY, AVG(JKWGT5) WGT5AVG FROM JKWGT GROUP BY CATEGORY </t>
+          <t xml:space="preserve">SELECT CATEGORY, AVG(JKWGT5) WGT5AVG FROM JKWGT GROUP BY CATEGORY  </t>
         </is>
       </c>
       <c r="G209" t="n">
@@ -9071,7 +9229,7 @@
       </c>
       <c r="F210" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT COUNT(DISTINCT CASEID) CRASHCOUNT FROM GV WHERE ALCTESTRESULT &gt; 250 AND ALCTESTRESULT &lt; 500 </t>
+          <t xml:space="preserve">SELECT COUNT(DISTINCT CASEID) CRASHCOUNT FROM GV WHERE ALCTESTRESULT &gt; 250 AND ALCTESTRESULT &lt; 500  </t>
         </is>
       </c>
       <c r="G210" t="n">
@@ -9111,14 +9269,14 @@
   GV.CURBWT
 FROM GV
 JOIN VPICDECODE
-  ON GV.CASENO = VPICDECODE.CASENO
+  ON GV.CASEID = VPICDECODE.CASEID
 WHERE
   GV.CURBWT BETWEEN 2000 AND 3000;</t>
         </is>
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT V.MAKE, V.MODEL, CURBWT FROM GV  JOIN VPICDECODE V ON GV.CASEID = V.CASEID AND GV.VEHNO = V.VEHNO WHERE CURBWT &gt;= 2000 AND CURBWT &lt;= 3000 </t>
+          <t xml:space="preserve">SELECT V.MAKE, V.MODEL, CURBWT FROM GV  JOIN VPICDECODE V ON GV.CASEID = V.CASEID AND GV.VEHNO = V.VEHNO WHERE CURBWT &gt;= 2000 AND CURBWT &lt;= 3000  </t>
         </is>
       </c>
       <c r="G211" t="n">
@@ -9157,7 +9315,7 @@
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT INSPTYPE, COUNT(*) AS VEHCOUNT FROM GV GROUP BY INSPTYPE </t>
+          <t xml:space="preserve">SELECT INSPTYPE, COUNT(*) AS VEHCOUNT FROM GV GROUP BY INSPTYPE  </t>
         </is>
       </c>
       <c r="G212" t="n">
@@ -9196,7 +9354,7 @@
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT LIGHTCOND, COUNT(DISTINCT CASEID) FROM GV GROUP BY LIGHTCOND </t>
+          <t xml:space="preserve">SELECT LIGHTCOND, COUNT(DISTINCT CASEID) FROM GV GROUP BY LIGHTCOND  </t>
         </is>
       </c>
       <c r="G213" t="n">
@@ -9239,7 +9397,7 @@
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT COUNT(*) VEHCOUNT FROM GV WHERE PARDRUG = 1 AND TOWED = 3 </t>
+          <t xml:space="preserve">SELECT COUNT(*) VEHCOUNT FROM GV WHERE PARDRUG = 1 AND TOWED = 3  </t>
         </is>
       </c>
       <c r="G214" t="n">
@@ -9278,7 +9436,7 @@
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT RUMBROAD, COUNT(*) VEHCOUNT FROM GV GROUP BY RUMBROAD </t>
+          <t xml:space="preserve">SELECT RUMBROAD, COUNT(*) VEHCOUNT FROM GV GROUP BY RUMBROAD  </t>
         </is>
       </c>
       <c r="G215" t="n">
@@ -9321,7 +9479,9 @@
 JOIN EDRPRECRASH
   ON GV.CASEID = EDRPRECRASH.CASEID AND GV.VEHNO = EDRPRECRASH.VEHNO
 WHERE
-  EDRPRECRASH.PCODE = 1010 AND GV.SPEEDLIMIT &lt; 300 AND EDRPRECRASH.PVALUE &lt; 300
+  EDRPRECRASH.PCODE = 86
+  AND GV.SPEEDLIMIT &lt; 300
+  AND EDRPRECRASH.PVALUE &lt; 300
 GROUP BY
   GV.VEHNO,
   GV.SPEEDLIMIT;</t>
@@ -9329,11 +9489,11 @@
       </c>
       <c r="F216" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT SPEEDLIMIT, MAXSPEED, MAXSPEED - SPEEDLIMIT DIFF FROM GV JOIN ( 	SELECT CASEID, VEHNO, MAX(PVALUE) MAXSPEED FROM EDRPRECRASH 	WHERE PCODE = 1010 AND PVALUE &lt; 300 	GROUP BY CASEID, VEHNO ) S ON GV.CASEID = S.CASEID AND GV.VEHNO = S.VEHNO WHERE SPEEDLIMIT &lt; 300 </t>
+          <t xml:space="preserve">SELECT SPEEDLIMIT, MAXSPEED, MAXSPEED - SPEEDLIMIT DIFF FROM GV JOIN ( 	SELECT CASEID, VEHNO, MAX(PVALUE) MAXSPEED FROM EDRPRECRASH 	WHERE PCODE = 1010 AND PVALUE &lt; 300 	GROUP BY CASEID, VEHNO ) S ON GV.CASEID = S.CASEID AND GV.VEHNO = S.VEHNO WHERE SPEEDLIMIT &lt; 300  </t>
         </is>
       </c>
       <c r="G216" t="n">
-        <v>946</v>
+        <v>886</v>
       </c>
       <c r="H216" t="b">
         <v>0</v>
@@ -9368,7 +9528,7 @@
       </c>
       <c r="F217" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT AVG(STRKLENGTH) AVGLENGTH FROM GV WHERE STRKLENGTH BETWEEN 0 AND 120 </t>
+          <t xml:space="preserve">SELECT AVG(STRKLENGTH) AVGLENGTH FROM GV WHERE STRKLENGTH BETWEEN 0 AND 120  </t>
         </is>
       </c>
       <c r="G217" t="n">
@@ -9411,7 +9571,7 @@
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT COUNT(*) VEHCOUNT FROM GV WHERE TRAFDEV = 3 </t>
+          <t xml:space="preserve">SELECT COUNT(*) VEHCOUNT FROM GV WHERE TRAFDEV = 3  </t>
         </is>
       </c>
       <c r="G218" t="n">
@@ -9450,7 +9610,7 @@
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT INTMAG, COUNT(DISTINCT(CONCAT(CASEID, VEHNO))) VEHCOUNT FROM INTRUSION GROUP BY INTMAG </t>
+          <t xml:space="preserve">SELECT INTMAG, COUNT(DISTINCT(CONCAT(CASEID, VEHNO))) VEHCOUNT FROM INTRUSION GROUP BY INTMAG  </t>
         </is>
       </c>
       <c r="G219" t="n">
@@ -9489,7 +9649,7 @@
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT INTMAG, (COUNT(DISTINCT CASEID)) CRASHCOUNT FROM INTRUSION GROUP BY INTMAG </t>
+          <t xml:space="preserve">SELECT INTMAG, (COUNT(DISTINCT CASEID)) CRASHCOUNT FROM INTRUSION GROUP BY INTMAG  </t>
         </is>
       </c>
       <c r="G220" t="n">
@@ -9528,7 +9688,7 @@
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT CASEID, VEHNO, INTCOMP, INTMAG, INTDIRECT FROM INTRUSION WHERE CASEID &lt; 20392 </t>
+          <t xml:space="preserve">SELECT CASEID, VEHNO, INTCOMP, INTMAG, INTDIRECT FROM INTRUSION WHERE CASEID &lt; 20392  </t>
         </is>
       </c>
       <c r="G221" t="n">
@@ -9567,7 +9727,7 @@
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT VEHNO, INTDIRECT FROM INTRUSION WHERE CASEID = 20387 </t>
+          <t xml:space="preserve">SELECT VEHNO, INTDIRECT FROM INTRUSION WHERE CASEID = 20387  </t>
         </is>
       </c>
       <c r="G222" t="n">
@@ -9606,7 +9766,7 @@
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT REGION, COUNT(*) INJCOUNT FROM INJURY GROUP BY REGION </t>
+          <t xml:space="preserve">SELECT REGION, COUNT(*) INJCOUNT FROM INJURY GROUP BY REGION  </t>
         </is>
       </c>
       <c r="G223" t="n">
@@ -9645,7 +9805,7 @@
       </c>
       <c r="F224" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT AIS, COUNT(*) INJCOUNT FROM INJURY GROUP BY AIS </t>
+          <t xml:space="preserve">SELECT AIS, COUNT(*) INJCOUNT FROM INJURY GROUP BY AIS  </t>
         </is>
       </c>
       <c r="G224" t="n">
@@ -9688,7 +9848,7 @@
       </c>
       <c r="F225" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT COUNT(*) INJCOUNT FROM ICS WHERE SOE = 999 </t>
+          <t xml:space="preserve">SELECT COUNT(*) INJCOUNT FROM ICS WHERE SOE = 999  </t>
         </is>
       </c>
       <c r="G225" t="n">
@@ -9730,7 +9890,7 @@
       </c>
       <c r="F226" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT REGION, COUNT(*) INJCOUNT FROM INJURY WHERE AIS = 5 GROUP BY REGION </t>
+          <t xml:space="preserve">SELECT REGION, COUNT(*) INJCOUNT FROM INJURY WHERE AIS = 5 GROUP BY REGION  </t>
         </is>
       </c>
       <c r="G226" t="n">
@@ -9769,7 +9929,7 @@
       </c>
       <c r="F227" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT AIS, COUNT(*) INJCOUNT FROM INJURY WHERE REGION = 6 GROUP BY AIS </t>
+          <t xml:space="preserve">SELECT AIS, COUNT(*) INJCOUNT FROM INJURY WHERE REGION = 6 GROUP BY AIS  </t>
         </is>
       </c>
       <c r="G227" t="n">
@@ -9808,7 +9968,7 @@
   T2.Make
 FROM INJURY AS T1
 INNER JOIN VPICDECODE AS T2
-  ON T1.CASEID = T2.CASEID AND T1.VEHNO = T2.VEHNO
+  ON T1.VEHNO = T2.VEHNO
 WHERE
   T1.INJLEVEL = 1
 GROUP BY
@@ -9817,11 +9977,11 @@
       </c>
       <c r="F228" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT MAKE, COUNT(*) MINORINJURIES FROM VPICDECODE V JOIN INJURY I ON  V.CASEID = I.CASEID AND V.VEHNO = I.VEHNO WHERE AIS = 1 GROUP BY MAKE </t>
+          <t xml:space="preserve">SELECT MAKE, COUNT(*) MINORINJURIES FROM VPICDECODE V JOIN INJURY I ON  V.CASEID = I.CASEID AND V.VEHNO = I.VEHNO WHERE AIS = 1 GROUP BY MAKE  </t>
         </is>
       </c>
       <c r="G228" t="n">
-        <v>1418</v>
+        <v>1406</v>
       </c>
       <c r="H228" t="b">
         <v>0</v>
@@ -9849,21 +10009,25 @@
           <t>gemini-2.0-flash-001</t>
         </is>
       </c>
-      <c r="E229" t="inlineStr"/>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>SELECT T2.ManufacturerFullName FROM INJURY AS T1 INNER JOIN VPICDECODE AS T2 ON T1.CASEID  =  T2.CASEID WHERE T1.INJLEVEL  =  1 GROUP BY T2.ManufacturerFullName ORDER BY COUNT(*) DESC LIMIT 1</t>
+        </is>
+      </c>
       <c r="F229" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT TOP 1 MAKE FROM VPICDECODE V JOIN INJURY I ON  V.CASEID = I.CASEID AND V.VEHNO = I.VEHNO WHERE REGION = 3 GROUP BY MAKE ORDER BY COUNT(*) </t>
+          <t xml:space="preserve">SELECT  MAKE FROM VPICDECODE V JOIN INJURY I ON  V.CASEID = I.CASEID AND V.VEHNO = I.VEHNO WHERE REGION = 3 GROUP BY MAKE ORDER BY COUNT(*) limit 1 </t>
         </is>
       </c>
       <c r="G229" t="n">
-        <v>-1</v>
+        <v>1385</v>
       </c>
       <c r="H229" t="b">
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>empty result set</t>
+          <t>full tuple compare failed</t>
         </is>
       </c>
     </row>
@@ -9891,7 +10055,7 @@
       </c>
       <c r="F230" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT AVG(NOTIFIED) AVGNOTIFICATIONTIME FROM EMSCARE WHERE NOTIFIED &lt;= 1000 </t>
+          <t xml:space="preserve">SELECT AVG(NOTIFIED) AVGNOTIFICATIONTIME FROM EMSCARE WHERE NOTIFIED &lt;= 1000  </t>
         </is>
       </c>
       <c r="G230" t="n">
@@ -9930,7 +10094,7 @@
       </c>
       <c r="F231" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT AVG(SCENEARR) AVGARRIVALTIME FROM EMSCARE WHERE SCENEARR &lt;= 1600 </t>
+          <t xml:space="preserve">SELECT AVG(SCENEARR) AVGARRIVALTIME FROM EMSCARE WHERE SCENEARR &lt;= 1600  </t>
         </is>
       </c>
       <c r="G231" t="n">
@@ -9971,7 +10135,7 @@
       </c>
       <c r="F232" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT AVG(SCENEDEP) AVGDEPTIME FROM EMSCARE WHERE SCENEDEP &lt;= 1600 </t>
+          <t xml:space="preserve">SELECT AVG(SCENEDEP) AVGDEPTIME FROM EMSCARE WHERE SCENEDEP &lt;= 1600  </t>
         </is>
       </c>
       <c r="G232" t="n">
@@ -10012,7 +10176,7 @@
       </c>
       <c r="F233" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT AVG(ARRMEDICAL) AVGMEDARRIVE FROM EMSCARE WHERE ARRMEDICAL &lt;= 1600 </t>
+          <t xml:space="preserve">SELECT AVG(ARRMEDICAL) AVGMEDARRIVE FROM EMSCARE WHERE ARRMEDICAL &lt;= 1600  </t>
         </is>
       </c>
       <c r="G233" t="n">
@@ -10060,7 +10224,7 @@
       </c>
       <c r="F234" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT CASEID, NOTIFIED, SCENEARR, SCENEDEP, ARRMEDICAL FROM EMSCARE WHERE EMSTYPE = 1 </t>
+          <t xml:space="preserve">SELECT CASEID, NOTIFIED, SCENEARR, SCENEDEP, ARRMEDICAL FROM EMSCARE WHERE EMSTYPE = 1  </t>
         </is>
       </c>
       <c r="G234" t="n">
@@ -10103,7 +10267,7 @@
       </c>
       <c r="F235" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT COUNT(*) TACOMACOUNT FROM VPICDECODE WHERE MAKE = 'TOYOTA' AND MODEL = 'TACOMA' </t>
+          <t xml:space="preserve">SELECT COUNT(*) TACOMACOUNT FROM VPICDECODE WHERE MAKE = 'TOYOTA' AND MODEL = 'TACOMA'  </t>
         </is>
       </c>
       <c r="G235" t="n">
@@ -10137,19 +10301,16 @@
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>SELECT MODELYR, COUNT(*) AS count
-FROM GV
-GROUP BY MODELYR
-ORDER BY MODELYR;</t>
+          <t>SELECT MODELYR, COUNT(*) FROM GV GROUP BY MODELYR ORDER BY MODELYR</t>
         </is>
       </c>
       <c r="F236" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT MODELYR, COUNT(*) VEHCOUNT FROM GV GROUP BY MODELYR ORDER BY MODELYR </t>
+          <t xml:space="preserve">SELECT MODELYR, COUNT(*) VEHCOUNT FROM GV GROUP BY MODELYR ORDER BY MODELYR  </t>
         </is>
       </c>
       <c r="G236" t="n">
-        <v>660</v>
+        <v>654</v>
       </c>
       <c r="H236" t="b">
         <v>1</v>
@@ -10177,21 +10338,25 @@
           <t>gemini-2.0-flash-001</t>
         </is>
       </c>
-      <c r="E237" t="inlineStr"/>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>SELECT Make FROM VPICDECODE GROUP BY Make ORDER BY avg(ModelYear) LIMIT 1</t>
+        </is>
+      </c>
       <c r="F237" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT TOP 1 MAKE, AVG(MODELYEAR) AVGYEAR FROM VPICDECODE GROUP BY MAKE ORDER BY AVGYEAR ASC </t>
+          <t xml:space="preserve">SELECT  MAKE, AVG(MODELYEAR) AVGYEAR FROM VPICDECODE GROUP BY MAKE ORDER BY AVGYEAR ASC limit 1 </t>
         </is>
       </c>
       <c r="G237" t="n">
-        <v>-1</v>
+        <v>1274</v>
       </c>
       <c r="H237" t="b">
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>empty result set</t>
+          <t>Insufficient number of columns in generated result set</t>
         </is>
       </c>
     </row>
@@ -10215,7 +10380,7 @@
       <c r="E238" t="inlineStr">
         <is>
           <t>SELECT
-  COUNT(CASEID)
+  COUNT(*)
 FROM GV
 WHERE
   DRPRESENT = 0;</t>
@@ -10223,11 +10388,11 @@
       </c>
       <c r="F238" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT COUNT(*) VEHCOUNT FROM GV WHERE DRPRESENT = 0 </t>
+          <t xml:space="preserve">SELECT COUNT(*) VEHCOUNT FROM GV WHERE DRPRESENT = 0  </t>
         </is>
       </c>
       <c r="G238" t="n">
-        <v>675</v>
+        <v>644</v>
       </c>
       <c r="H238" t="b">
         <v>1</v>
@@ -10266,7 +10431,7 @@
       </c>
       <c r="F239" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT COUNT(*) VEHCOUNT FROM GV  WHERE ZIP = 95020 </t>
+          <t xml:space="preserve">SELECT COUNT(*) VEHCOUNT FROM GV  WHERE ZIP = 95020  </t>
         </is>
       </c>
       <c r="G239" t="n">
@@ -10305,7 +10470,7 @@
       </c>
       <c r="F240" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT DRUGTEST, COUNT(*) FROM GV GROUP BY DRUGTEST </t>
+          <t xml:space="preserve">SELECT DRUGTEST, COUNT(*) FROM GV GROUP BY DRUGTEST  </t>
         </is>
       </c>
       <c r="G240" t="n">
@@ -10344,7 +10509,7 @@
       </c>
       <c r="F241" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT DISTINCT GLAZPRE FROM GLAZING </t>
+          <t xml:space="preserve">SELECT DISTINCT GLAZPRE FROM GLAZING  </t>
         </is>
       </c>
       <c r="G241" t="n">
@@ -10383,7 +10548,7 @@
       </c>
       <c r="F242" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT CDCPLANE, COUNT(DISTINCT CONCAT(CASEID, VEHNO)) VEHICLECOUNT FROM CDC GROUP BY CDCPLANE </t>
+          <t xml:space="preserve">SELECT CDCPLANE, COUNT(DISTINCT CONCAT(CASEID, VEHNO)) VEHICLECOUNT FROM CDC GROUP BY CDCPLANE  </t>
         </is>
       </c>
       <c r="G242" t="n">
@@ -10421,16 +10586,16 @@
   COUNT(CASEID)
 FROM INTERIOR
 WHERE
-  GLAZINGCONT = 1;</t>
+  GLAZINGCONT &gt; 0;</t>
         </is>
       </c>
       <c r="F243" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT COUNT(DISTINCT CASEID) ACCIDENTCOUNT FROM INTERIOR WHERE GLAZINGCONT = 1 </t>
+          <t xml:space="preserve">SELECT COUNT(DISTINCT CASEID) ACCIDENTCOUNT FROM INTERIOR WHERE GLAZINGCONT = 1  </t>
         </is>
       </c>
       <c r="G243" t="n">
-        <v>337</v>
+        <v>310</v>
       </c>
       <c r="H243" t="b">
         <v>0</v>
@@ -10458,21 +10623,25 @@
           <t>gemini-2.0-flash-001</t>
         </is>
       </c>
-      <c r="E244" t="inlineStr"/>
+      <c r="E244" t="inlineStr">
+        <is>
+          <t>SELECT RECFRONT1 FROM TIREPLAC WHERE RECFRONT1 != '9999999999' GROUP BY RECFRONT1 ORDER BY COUNT(*) DESC LIMIT 1</t>
+        </is>
+      </c>
       <c r="F244" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT TOP 1 RECFRONT1 FROM TIREPLAC T WHERE RECFRONT1 &lt;&gt; '9999999999' GROUP BY RECFRONT1 ORDER BY COUNT(*) DESC </t>
+          <t xml:space="preserve">SELECT  RECFRONT1 FROM TIREPLAC T WHERE RECFRONT1 &lt;&gt; '9999999999' GROUP BY RECFRONT1 ORDER BY COUNT(*) DESC limit 1 </t>
         </is>
       </c>
       <c r="G244" t="n">
-        <v>-1</v>
+        <v>309</v>
       </c>
       <c r="H244" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I244" t="inlineStr">
         <is>
-          <t>empty result set</t>
+          <t>full tuple compare succeeded</t>
         </is>
       </c>
     </row>
@@ -10495,27 +10664,23 @@
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>SELECT
-  COUNT(CASEID)
-FROM GLAZING
-WHERE
-  GLAZLOC = 1;</t>
+          <t>SELECT COUNT(DISTINCT VEHNO) FROM GLAZING WHERE GLAZLOC = 1</t>
         </is>
       </c>
       <c r="F245" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT COUNT(*) AS WINDSHIELD_DAMAGE_COUNT FROM GLAZING WHERE GLAZLOC = 1 </t>
+          <t xml:space="preserve">SELECT COUNT(*) AS WINDSHIELD_DAMAGE_COUNT FROM GLAZING WHERE GLAZLOC = 1  </t>
         </is>
       </c>
       <c r="G245" t="n">
-        <v>244</v>
+        <v>212</v>
       </c>
       <c r="H245" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I245" t="inlineStr">
         <is>
-          <t>full tuple compare succeeded</t>
+          <t>full tuple compare failed</t>
         </is>
       </c>
     </row>
@@ -10543,7 +10708,7 @@
       </c>
       <c r="F246" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT GLAZIMP, COUNT(DISTINCT VIN) AS VEHCOUNT FROM GLAZING GZ JOIN GV ON GV.CASEID = GZ.CASEID AND GV.VEHNO = GZ.VEHNO GROUP BY GLAZIMP ORDER BY GLAZIMP </t>
+          <t xml:space="preserve">SELECT GLAZIMP, COUNT(DISTINCT VIN) AS VEHCOUNT FROM GLAZING GZ JOIN GV ON GV.CASEID = GZ.CASEID AND GV.VEHNO = GZ.VEHNO GROUP BY GLAZIMP ORDER BY GLAZIMP  </t>
         </is>
       </c>
       <c r="G246" t="n">
@@ -10582,7 +10747,7 @@
       </c>
       <c r="F247" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT COUNT(*) CRASHCOUNT FROM ADAPT </t>
+          <t xml:space="preserve">SELECT COUNT(*) CRASHCOUNT FROM ADAPT  </t>
         </is>
       </c>
       <c r="G247" t="n">
@@ -10614,21 +10779,25 @@
           <t>gemini-2.0-flash-001</t>
         </is>
       </c>
-      <c r="E248" t="inlineStr"/>
+      <c r="E248" t="inlineStr">
+        <is>
+          <t>SELECT max(PVALUE) FROM EDRPOSTCRASH WHERE PCODE = 101</t>
+        </is>
+      </c>
       <c r="F248" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT TOP 1 PVALUE FROM EDRPOSTCRASH WHERE PCODE = 2060 ORDER BY PVALUE DESC </t>
+          <t xml:space="preserve">SELECT  PVALUE FROM EDRPOSTCRASH WHERE PCODE = 2060 ORDER BY PVALUE DESC limit 1 </t>
         </is>
       </c>
       <c r="G248" t="n">
-        <v>-1</v>
+        <v>220</v>
       </c>
       <c r="H248" t="b">
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr">
         <is>
-          <t>empty result set</t>
+          <t>full tuple compare failed</t>
         </is>
       </c>
     </row>
@@ -10656,7 +10825,7 @@
       </c>
       <c r="F249" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT CRASHMONTH, COUNT(*) AS CRASHCOUNT  FROM CRASH GROUP BY CRASHMONTH ORDER BY CRASHMONTH </t>
+          <t xml:space="preserve">SELECT CRASHMONTH, COUNT(*) AS CRASHCOUNT  FROM CRASH GROUP BY CRASHMONTH ORDER BY CRASHMONTH  </t>
         </is>
       </c>
       <c r="G249" t="n">
@@ -10690,23 +10859,26 @@
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>SELECT MAX(PVALUE) FROM EDRPRECRASH WHERE PCODE = 1010 AND PVALUE &gt; 100 AND PVALUE &lt;= 200 GROUP BY CASEID</t>
+          <t>SELECT CASEID, MAX(PVALUE)
+FROM EDRPRECRASH
+WHERE CATEGORY = 1 AND PCODE = 112 AND PVALUE &gt; 100 AND PVALUE &lt;= 200
+GROUP BY CASEID;</t>
         </is>
       </c>
       <c r="F250" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT CASEID, MAX(PVALUE) MAXSPEED FROM EDRPRECRASH WHERE PCODE = 1010 AND PVALUE &gt; 100 AND PVALUE &lt; 200 GROUP BY CASEID </t>
+          <t xml:space="preserve">SELECT CASEID, MAX(PVALUE) MAXSPEED FROM EDRPRECRASH WHERE PCODE = 1010 AND PVALUE &gt; 100 AND PVALUE &lt; 200 GROUP BY CASEID  </t>
         </is>
       </c>
       <c r="G250" t="n">
-        <v>322</v>
+        <v>271</v>
       </c>
       <c r="H250" t="b">
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr">
         <is>
-          <t>Insufficient number of columns in generated result set</t>
+          <t>asymmetrical tuple result size</t>
         </is>
       </c>
     </row>
@@ -10738,24 +10910,24 @@
 JOIN VPICDECODE
   ON EDRPRECRASH.CASEID = VPICDECODE.CASEID
 WHERE
-  EDRPRECRASH.PCODE = 1010
+  EDRPRECRASH.PCODE = 14
 GROUP BY
   VPICDECODE.CASEID,
   VPICDECODE.Make,
   VPICDECODE.Model
 HAVING
-  MAX(EDRPRECRASH.PVALUE) BETWEEN 160 AND 300
+  MAX(EDRPRECRASH.PVALUE) &gt; 160 AND MAX(EDRPRECRASH.PVALUE) &lt;= 300
 ORDER BY
   max_speed DESC;</t>
         </is>
       </c>
       <c r="F251" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT PR.CASEID, MAKE, MODEL, MAX(PVALUE) MAXSPEED  FROM EDRPRECRASH PR JOIN VPICDECODE V ON PR.CASEID = V.CASEID AND V.VEHNO = PR.VEHNO WHERE PCODE = 1010 AND PVALUE &gt; 160 AND PVALUE &lt; 300 GROUP BY PR.CASEID, PR.VEHNO, MAKE, MODEL ORDER BY MAX(PVALUE) DESC </t>
+          <t xml:space="preserve">SELECT PR.CASEID, MAKE, MODEL, MAX(PVALUE) MAXSPEED  FROM EDRPRECRASH PR JOIN VPICDECODE V ON PR.CASEID = V.CASEID AND V.VEHNO = PR.VEHNO WHERE PCODE = 1010 AND PVALUE &gt; 160 AND PVALUE &lt; 300 GROUP BY PR.CASEID, PR.VEHNO, MAKE, MODEL ORDER BY MAX(PVALUE) DESC  </t>
         </is>
       </c>
       <c r="G251" t="n">
-        <v>1580</v>
+        <v>1527</v>
       </c>
       <c r="H251" t="b">
         <v>0</v>
@@ -10790,7 +10962,7 @@
       </c>
       <c r="F252" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT DISTINCT MAKE FROM VPICDECODE </t>
+          <t xml:space="preserve">SELECT DISTINCT MAKE FROM VPICDECODE  </t>
         </is>
       </c>
       <c r="G252" t="n">
@@ -10829,7 +11001,7 @@
       </c>
       <c r="F253" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT COUNT(DISTINCT ICS_TYPE) TYPECOUNT FROM ICS </t>
+          <t xml:space="preserve">SELECT COUNT(DISTINCT ICS_TYPE) TYPECOUNT FROM ICS  </t>
         </is>
       </c>
       <c r="G253" t="n">
@@ -10868,7 +11040,7 @@
       </c>
       <c r="F254" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT BRI, COUNT(*) AS INJURY_COUNT  FROM ICS GROUP BY BRI </t>
+          <t xml:space="preserve">SELECT BRI, COUNT(*) AS INJURY_COUNT  FROM ICS GROUP BY BRI  </t>
         </is>
       </c>
       <c r="G254" t="n">
@@ -10907,7 +11079,7 @@
       </c>
       <c r="F255" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT AVG(AGE) AVGAGE FROM OCC WHERE AGE &lt;= 130 </t>
+          <t xml:space="preserve">SELECT AVG(AGE) AVGAGE FROM OCC WHERE AGE &lt;= 130  </t>
         </is>
       </c>
       <c r="G255" t="n">
@@ -10946,7 +11118,7 @@
       </c>
       <c r="F256" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT AGE, AVG(HEIGHT) AVGHEIGHT FROM OCC WHERE AGE &lt;= 120 AND HEIGHT &lt;= 220 GROUP BY AGE ORDER BY AGE ASC </t>
+          <t xml:space="preserve">SELECT AGE, AVG(HEIGHT) AVGHEIGHT FROM OCC WHERE AGE &lt;= 120 AND HEIGHT &lt;= 220 GROUP BY AGE ORDER BY AGE ASC  </t>
         </is>
       </c>
       <c r="G256" t="n">
@@ -10989,7 +11161,7 @@
       </c>
       <c r="F257" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT COUNT(DISTINCT CASEID) DEATHCOUNT FROM OCC WHERE FETALMORT = 1 </t>
+          <t xml:space="preserve">SELECT COUNT(DISTINCT CASEID) DEATHCOUNT FROM OCC WHERE FETALMORT = 1  </t>
         </is>
       </c>
       <c r="G257" t="n">
@@ -11032,7 +11204,7 @@
       </c>
       <c r="F258" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT COUNT(DISTINCT CASEID) NOBELTCOUNT FROM OCC WHERE BELTAVAIL = 1 </t>
+          <t xml:space="preserve">SELECT COUNT(DISTINCT CASEID) NOBELTCOUNT FROM OCC WHERE BELTAVAIL = 1  </t>
         </is>
       </c>
       <c r="G258" t="n">
@@ -11075,7 +11247,7 @@
       </c>
       <c r="F259" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT COUNT(DISTINCT CASEID) NOBELTCOUNT FROM OCC WHERE BELTUSE IN (0, 1) </t>
+          <t xml:space="preserve">SELECT COUNT(DISTINCT CASEID) NOBELTCOUNT FROM OCC WHERE BELTUSE IN (0, 1)  </t>
         </is>
       </c>
       <c r="G259" t="n">
@@ -11118,7 +11290,7 @@
       </c>
       <c r="F260" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT COUNT(*) OCCCOUNT FROM OCC WHERE BELTUSE IN (0, 1) AND BELTAVAIL IN (2, 3, 4, 5, 6, 7, 8) </t>
+          <t xml:space="preserve">SELECT COUNT(*) OCCCOUNT FROM OCC WHERE BELTUSE IN (0, 1) AND BELTAVAIL IN (2, 3, 4, 5, 6, 7, 8)  </t>
         </is>
       </c>
       <c r="G260" t="n">
@@ -11152,19 +11324,16 @@
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>SELECT BELTUSE, COUNT(*)
-FROM OCC
-WHERE MORTALITY = 1
-GROUP BY BELTUSE;</t>
+          <t>SELECT BELTUSE, COUNT(*) FROM OCC WHERE MORTALITY = 1 GROUP BY BELTUSE</t>
         </is>
       </c>
       <c r="F261" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT BELTUSE, COUNT(*) MORTALCOUNT FROM OCC WHERE MORTALITY = 1 GROUP BY BELTUSE </t>
+          <t xml:space="preserve">SELECT BELTUSE, COUNT(*) MORTALCOUNT FROM OCC WHERE MORTALITY = 1 GROUP BY BELTUSE  </t>
         </is>
       </c>
       <c r="G261" t="n">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="H261" t="b">
         <v>1</v>
@@ -11201,7 +11370,7 @@
       </c>
       <c r="F262" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT M.BELTUSE, TOTALCOUNT, MORTALCOUNT FROM ( 	SELECT BELTUSE, COUNT(*) MORTALCOUNT 	FROM OCC 	WHERE MORTALITY = 1 	GROUP BY BELTUSE ) M JOIN ( 	SELECT BELTUSE, COUNT(*) TOTALCOUNT 	FROM OCC 	GROUP BY BELTUSE ) T ON M.BELTUSE = T.BELTUSE </t>
+          <t xml:space="preserve">SELECT M.BELTUSE, TOTALCOUNT, MORTALCOUNT FROM ( 	SELECT BELTUSE, COUNT(*) MORTALCOUNT 	FROM OCC 	WHERE MORTALITY = 1 	GROUP BY BELTUSE ) M JOIN ( 	SELECT BELTUSE, COUNT(*) TOTALCOUNT 	FROM OCC 	GROUP BY BELTUSE ) T ON M.BELTUSE = T.BELTUSE  </t>
         </is>
       </c>
       <c r="G262" t="n">
@@ -11244,7 +11413,7 @@
       </c>
       <c r="F263" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT COUNT(DISTINCT CONCAT(CASEID, VEHNO)) VEHCOUNT FROM CDC WHERE PDOF &gt;= 150 AND PDOF &lt;= 210 </t>
+          <t xml:space="preserve">SELECT COUNT(DISTINCT CONCAT(CASEID, VEHNO)) VEHCOUNT FROM CDC WHERE PDOF &gt;= 150 AND PDOF &lt;= 210  </t>
         </is>
       </c>
       <c r="G263" t="n">
@@ -11287,7 +11456,7 @@
       </c>
       <c r="F264" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT COUNT(DISTINCT CASEID) CRASHCOUNT FROM CDC WHERE HEADINGANG &gt;= 0 AND HEADINGANG &lt;= 90 </t>
+          <t xml:space="preserve">SELECT COUNT(DISTINCT CASEID) CRASHCOUNT FROM CDC WHERE HEADINGANG &gt;= 0 AND HEADINGANG &lt;= 90  </t>
         </is>
       </c>
       <c r="G264" t="n">
@@ -11319,21 +11488,25 @@
           <t>gemini-2.0-flash-001</t>
         </is>
       </c>
-      <c r="E265" t="inlineStr"/>
+      <c r="E265" t="inlineStr">
+        <is>
+          <t>SELECT MAX(CMAX) FROM CDC WHERE CMAX != 888 AND CMAX != 999</t>
+        </is>
+      </c>
       <c r="F265" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT TOP 1 CMAX  FROM CDC WHERE CMAX NOT IN (888, 999) ORDER BY CMAX DESC </t>
+          <t xml:space="preserve">SELECT  CMAX  FROM CDC WHERE CMAX NOT IN (888, 999) ORDER BY CMAX DESC limit 1 </t>
         </is>
       </c>
       <c r="G265" t="n">
-        <v>-1</v>
+        <v>423</v>
       </c>
       <c r="H265" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I265" t="inlineStr">
         <is>
-          <t>empty result set</t>
+          <t>full tuple compare succeeded</t>
         </is>
       </c>
     </row>
@@ -11355,64 +11528,64 @@
         </is>
       </c>
       <c r="E266" t="inlineStr">
+        <is>
+          <t>SELECT
+  COUNT(CASEID)
+FROM CDC
+WHERE
+  DAMAPILLAR &gt; 0;</t>
+        </is>
+      </c>
+      <c r="F266" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SELECT COUNT(DISTINCT CONCAT(CASEID, VEHNO)) VEHICLECOUNT FROM CDC WHERE DAMAPILLAR = 1  </t>
+        </is>
+      </c>
+      <c r="G266" t="n">
+        <v>407</v>
+      </c>
+      <c r="H266" t="b">
+        <v>0</v>
+      </c>
+      <c r="I266" t="inlineStr">
+        <is>
+          <t>asymmetrical tuple result size</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="1" t="n">
+        <v>265</v>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>NTSB</t>
+        </is>
+      </c>
+      <c r="C267" t="n">
+        <v>65</v>
+      </c>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>gemini-2.0-flash-001</t>
+        </is>
+      </c>
+      <c r="E267" t="inlineStr">
         <is>
           <t>SELECT
   COUNT(VEHNO)
 FROM CDC
 WHERE
-  DAMAPILLAR = 1;</t>
-        </is>
-      </c>
-      <c r="F266" t="inlineStr">
-        <is>
-          <t xml:space="preserve">SELECT COUNT(DISTINCT CONCAT(CASEID, VEHNO)) VEHICLECOUNT FROM CDC WHERE DAMAPILLAR = 1 </t>
-        </is>
-      </c>
-      <c r="G266" t="n">
-        <v>438</v>
-      </c>
-      <c r="H266" t="b">
-        <v>0</v>
-      </c>
-      <c r="I266" t="inlineStr">
-        <is>
-          <t>asymmetrical tuple result size</t>
-        </is>
-      </c>
-    </row>
-    <row r="267">
-      <c r="A267" s="1" t="n">
-        <v>265</v>
-      </c>
-      <c r="B267" t="inlineStr">
-        <is>
-          <t>NTSB</t>
-        </is>
-      </c>
-      <c r="C267" t="n">
-        <v>65</v>
-      </c>
-      <c r="D267" t="inlineStr">
-        <is>
-          <t>gemini-2.0-flash-001</t>
-        </is>
-      </c>
-      <c r="E267" t="inlineStr">
-        <is>
-          <t>SELECT
-  COUNT(VEHNO)
-FROM CDC
-WHERE
-  DAMOTHPILLAR = 1;</t>
+  DAMOTHPILLAR &gt; 0;</t>
         </is>
       </c>
       <c r="F267" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT COUNT(DISTINCT CONCAT(CASEID, VEHNO)) VEHICLECOUNT FROM CDC WHERE DAMOTHPILLAR = 1 </t>
+          <t xml:space="preserve">SELECT COUNT(DISTINCT CONCAT(CASEID, VEHNO)) VEHICLECOUNT FROM CDC WHERE DAMOTHPILLAR = 1  </t>
         </is>
       </c>
       <c r="G267" t="n">
-        <v>449</v>
+        <v>419</v>
       </c>
       <c r="H267" t="b">
         <v>0</v>
@@ -11447,7 +11620,7 @@
       </c>
       <c r="F268" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT AVG(DOORSILLDIFF) AVGDIFF FROM CDC WHERE DOORSILLDIFF NOT IN (888, 999) </t>
+          <t xml:space="preserve">SELECT AVG(DOORSILLDIFF) AVGDIFF FROM CDC WHERE DOORSILLDIFF NOT IN (888, 999)  </t>
         </is>
       </c>
       <c r="G268" t="n">
@@ -11479,21 +11652,25 @@
           <t>gemini-2.0-flash-001</t>
         </is>
       </c>
-      <c r="E269" t="inlineStr"/>
+      <c r="E269" t="inlineStr">
+        <is>
+          <t>SELECT MAX(DVSPEED) FROM CDC WHERE DVSPEED &lt;&gt; 999</t>
+        </is>
+      </c>
       <c r="F269" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT TOP 1 DVBARRIER FROM CDC WHERE DVBARRIER &lt;&gt; 999 ORDER BY DVBARRIER DESC </t>
+          <t xml:space="preserve">SELECT  DVBARRIER FROM CDC WHERE DVBARRIER &lt;&gt; 999 ORDER BY DVBARRIER DESC limit 1 </t>
         </is>
       </c>
       <c r="G269" t="n">
-        <v>-1</v>
+        <v>432</v>
       </c>
       <c r="H269" t="b">
         <v>0</v>
       </c>
       <c r="I269" t="inlineStr">
         <is>
-          <t>empty result set</t>
+          <t>full tuple compare failed</t>
         </is>
       </c>
     </row>
@@ -11529,7 +11706,7 @@
       </c>
       <c r="F270" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT CASEID, VEHNO, CMAX, C1, C2, C3, C4, C5, C6 FROM CDC WHERE CMAX NOT IN (888, 999) </t>
+          <t xml:space="preserve">SELECT CASEID, VEHNO, CMAX, C1, C2, C3, C4, C5, C6 FROM CDC WHERE CMAX NOT IN (888, 999)  </t>
         </is>
       </c>
       <c r="G270" t="n">
@@ -11568,7 +11745,7 @@
       </c>
       <c r="F271" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT CASEID, VEHNO, EDRSUMMNO FROM EDREVENT GROUP BY CASEID, VEHNO, EDRSUMMNO HAVING COUNT(*) = 10 </t>
+          <t xml:space="preserve">SELECT CASEID, VEHNO, EDRSUMMNO FROM EDREVENT GROUP BY CASEID, VEHNO, EDRSUMMNO HAVING COUNT(*) = 10  </t>
         </is>
       </c>
       <c r="G271" t="n">
@@ -11602,16 +11779,20 @@
       </c>
       <c r="E272" t="inlineStr">
         <is>
-          <t>SELECT CASEID, EDREVENTNO, NUMEVNTS FROM EDREVENT</t>
+          <t>SELECT
+  CASEID,
+  EDREVENTNO,
+  NUMEVNTS
+FROM EDREVENT;</t>
         </is>
       </c>
       <c r="F272" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT EV.CASEID, EV.EDREVENTNO, COUNT(*) AS PRECRASHTIMEPOINTS FROM EDRPRECRASH PC JOIN EDREVENT EV ON  	PC.CASEID = EV.CASEID 	AND PC.EDREVENTNO = EV.EDREVENTNO GROUP BY EV.CASEID, EV.EDREVENTNO ORDER BY CASEID </t>
+          <t xml:space="preserve">SELECT EV.CASEID, EV.EDREVENTNO, COUNT(*) AS PRECRASHTIMEPOINTS FROM EDRPRECRASH PC JOIN EDREVENT EV ON  	PC.CASEID = EV.CASEID 	AND PC.EDREVENTNO = EV.EDREVENTNO GROUP BY EV.CASEID, EV.EDREVENTNO ORDER BY EV.CASEID  </t>
         </is>
       </c>
       <c r="G272" t="n">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="H272" t="b">
         <v>0</v>
@@ -11657,7 +11838,7 @@
       </c>
       <c r="F273" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT DISTINCT MAKE, MODEL, MODELYEAR, IGCYCRASH  FROM EDREVENT E JOIN VPICDECODE V ON E.CASEID = V.CASEID AND E.VEHNO = V.VEHNO WHERE IGCYCRASH &lt; 200 AND IGCYCRASH &gt; 0 ORDER BY MODELYEAR DESC </t>
+          <t xml:space="preserve">SELECT DISTINCT MAKE, MODEL, MODELYEAR, IGCYCRASH  FROM EDREVENT E JOIN VPICDECODE V ON E.CASEID = V.CASEID AND E.VEHNO = V.VEHNO WHERE IGCYCRASH &lt; 200 AND IGCYCRASH &gt; 0 ORDER BY MODELYEAR DESC  </t>
         </is>
       </c>
       <c r="G273" t="n">
@@ -11696,7 +11877,7 @@
       </c>
       <c r="F274" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT COUNT(*) AS VEHICLECOUNT FROM ( 	SELECT DISTINCT CASEID, VEHNO, IGCYCRASH 	FROM EDREVENT ) E WHERE IGCYCRASH &gt; 0 AND IGCYCRASH &lt; 400 </t>
+          <t xml:space="preserve">SELECT COUNT(*) AS VEHICLECOUNT FROM ( 	SELECT DISTINCT CASEID, VEHNO, IGCYCRASH 	FROM EDREVENT ) E WHERE IGCYCRASH &gt; 0 AND IGCYCRASH &lt; 400  </t>
         </is>
       </c>
       <c r="G274" t="n">
@@ -11738,7 +11919,7 @@
       </c>
       <c r="F275" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT CASEID, VEHNO, OCCNO, COUNT(*) AS INJURY_COUNT FROM INJURY GROUP BY CASEID, VEHNO, OCCNO HAVING COUNT(INJNO) &gt; 1 ORDER BY INJURY_COUNT DESC </t>
+          <t xml:space="preserve">SELECT CASEID, VEHNO, OCCNO, COUNT(*) AS INJURY_COUNT FROM INJURY GROUP BY CASEID, VEHNO, OCCNO HAVING COUNT(INJNO) &gt; 1 ORDER BY INJURY_COUNT DESC  </t>
         </is>
       </c>
       <c r="G275" t="n">
@@ -11772,16 +11953,23 @@
       </c>
       <c r="E276" t="inlineStr">
         <is>
-          <t>SELECT T2.FUELTYPE, COUNT(T1.FIRE) FROM FIRE AS T1 JOIN FUEL AS T2 ON T1.CASEID  =  T2.CASEID GROUP BY T2.FUELTYPE</t>
+          <t>SELECT
+  FUELTYPE,
+  COUNT(FIRE.CASEID)
+FROM FUEL
+JOIN FIRE
+  ON FUEL.CASEID = FIRE.CASEID
+GROUP BY
+  FUELTYPE;</t>
         </is>
       </c>
       <c r="F276" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT FUELTYPE, COUNT(*) FROM FIRE     JOIN FUEL ON FIRE.CASEID = FUEL.CASEID AND FIRE.VEHNO = FUEL.VEHNO GROUP BY FUELTYPE </t>
+          <t xml:space="preserve">SELECT FUELTYPE, COUNT(*) FROM FIRE     JOIN FUEL ON FIRE.CASEID = FUEL.CASEID AND FIRE.VEHNO = FUEL.VEHNO GROUP BY FUELTYPE  </t>
         </is>
       </c>
       <c r="G276" t="n">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="H276" t="b">
         <v>0</v>
@@ -11823,7 +12011,7 @@
       </c>
       <c r="F277" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT SEX, COUNT(*) FROM OCC JOIN EJECT ON OCC.CASEID = EJECT.CASEID AND OCC.VEHNO = EJECT.VEHNO AND OCC.OCCNO = EJECT.VEHNO GROUP BY SEX </t>
+          <t xml:space="preserve">SELECT SEX, COUNT(*) FROM OCC JOIN EJECT ON OCC.CASEID = EJECT.CASEID AND OCC.VEHNO = EJECT.VEHNO AND OCC.OCCNO = EJECT.VEHNO GROUP BY SEX  </t>
         </is>
       </c>
       <c r="G277" t="n">
@@ -11865,7 +12053,7 @@
       </c>
       <c r="F278" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT MAKE, COUNT(*) AS CRASHCOUNT FROM VPICDECODE GROUP BY MAKE ORDER BY CRASHCOUNT DESC </t>
+          <t xml:space="preserve">SELECT MAKE, COUNT(*) AS CRASHCOUNT FROM VPICDECODE GROUP BY MAKE ORDER BY CRASHCOUNT DESC  </t>
         </is>
       </c>
       <c r="G278" t="n">
@@ -11900,7 +12088,7 @@
       <c r="E279" t="inlineStr">
         <is>
           <t>SELECT
-  COUNT(DISTINCT CASEID)
+  COUNT(CASEID)
 FROM AVOID
 WHERE
   EQUIP = 1;</t>
@@ -11908,11 +12096,11 @@
       </c>
       <c r="F279" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT COUNT(DISTINCT CASEID) CRASHCOUNT FROM AVOID WHERE AVAIL = 1 </t>
+          <t xml:space="preserve">SELECT COUNT(DISTINCT CASEID) CRASHCOUNT FROM AVOID WHERE AVAIL = 1  </t>
         </is>
       </c>
       <c r="G279" t="n">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="H279" t="b">
         <v>0</v>
@@ -11940,21 +12128,25 @@
           <t>gemini-2.0-flash-001</t>
         </is>
       </c>
-      <c r="E280" t="inlineStr"/>
+      <c r="E280" t="inlineStr">
+        <is>
+          <t>SELECT EQUIP FROM AVOID GROUP BY EQUIP ORDER BY COUNT(*) DESC LIMIT 1</t>
+        </is>
+      </c>
       <c r="F280" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT TOP 1 EQUIP FROM AVOID WHERE AVAIL = 1 GROUP BY EQUIP ORDER BY COUNT(*) DESC </t>
+          <t xml:space="preserve">SELECT  EQUIP FROM AVOID WHERE AVAIL = 1 GROUP BY EQUIP ORDER BY COUNT(*) DESC limit 1 </t>
         </is>
       </c>
       <c r="G280" t="n">
-        <v>-1</v>
+        <v>197</v>
       </c>
       <c r="H280" t="b">
         <v>0</v>
       </c>
       <c r="I280" t="inlineStr">
         <is>
-          <t>empty result set</t>
+          <t>full tuple compare failed</t>
         </is>
       </c>
     </row>
@@ -11977,16 +12169,16 @@
       </c>
       <c r="E281" t="inlineStr">
         <is>
-          <t>SELECT COUNT(DISTINCT VEHNO) FROM AVOID WHERE EQUIP &gt; 4</t>
+          <t>SELECT COUNT(VEHNO) FROM AVOID WHERE EQUIP &gt; 4</t>
         </is>
       </c>
       <c r="F281" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT COUNT(*) VEHCOUNT FROM ( 	SELECT CASEID, VEHNO, COUNT(EQUIP) FEATURECOUNT 	FROM AVOID 	WHERE AVAIL = 1 	GROUP BY CASEID, VEHNO 	HAVING COUNT(*) &gt; 4 ) SUBQUERY_T </t>
+          <t xml:space="preserve">SELECT COUNT(*) VEHCOUNT FROM ( 	SELECT CASEID, VEHNO, COUNT(EQUIP) FEATURECOUNT 	FROM AVOID 	WHERE AVAIL = 1 	GROUP BY CASEID, VEHNO 	HAVING COUNT(*) &gt; 4 ) SUBQUERY_T  </t>
         </is>
       </c>
       <c r="G281" t="n">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="H281" t="b">
         <v>0</v>
@@ -12021,7 +12213,7 @@
       </c>
       <c r="F282" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT COUNT(*) VEHCOUNT FROM ( 	SELECT DISTINCT CASEID, VEHNO 	FROM TIREDAMAGE ) T </t>
+          <t xml:space="preserve">SELECT COUNT(*) VEHCOUNT FROM ( 	SELECT DISTINCT CASEID, VEHNO 	FROM TIREDAMAGE ) T  </t>
         </is>
       </c>
       <c r="G282" t="n">
@@ -12060,7 +12252,7 @@
       </c>
       <c r="F283" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT COUNT(*) VEHCOUNT FROM TIREPLAC WHERE GVWR &lt; 4000 </t>
+          <t xml:space="preserve">SELECT COUNT(*) VEHCOUNT FROM TIREPLAC WHERE GVWR &lt; 4000  </t>
         </is>
       </c>
       <c r="G283" t="n">
@@ -12099,7 +12291,7 @@
       </c>
       <c r="F284" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT GAWRFRONT, GAWRREAR FROM TIREPLAC WHERE GVWR BETWEEN 4000 AND 9000 </t>
+          <t xml:space="preserve">SELECT GAWRFRONT, GAWRREAR FROM TIREPLAC WHERE GVWR BETWEEN 4000 AND 9000  </t>
         </is>
       </c>
       <c r="G284" t="n">
@@ -12138,7 +12330,7 @@
       </c>
       <c r="F285" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT AVG(RECFRPRESS1) AVGFRONT, AVG(RECRRPRESS1) AVGREAR FROM TIREPLAC WHERE GVWR &lt; 3000 </t>
+          <t xml:space="preserve">SELECT AVG(RECFRPRESS1) AVGFRONT, AVG(RECRRPRESS1) AVGREAR FROM TIREPLAC WHERE GVWR &lt; 3000  </t>
         </is>
       </c>
       <c r="G285" t="n">
@@ -12177,7 +12369,7 @@
       </c>
       <c r="F286" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT RECFRONT1, AVG(RECFRPRESS1) AVGPRESS FROM TIREPLAC GROUP BY RECFRONT1 </t>
+          <t xml:space="preserve">SELECT RECFRONT1, AVG(RECFRPRESS1) AVGPRESS FROM TIREPLAC GROUP BY RECFRONT1  </t>
         </is>
       </c>
       <c r="G286" t="n">
@@ -12223,7 +12415,7 @@
       </c>
       <c r="F287" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT RECFRONT1, RECREAR1 FROM VPICDECODE V JOIN TIREPLAC T ON V.CASEID = T.CASEID  AND V.VEHNO = T.VEHNO WHERE MAKE = 'SUBARU' AND MODEL = 'WRX' </t>
+          <t xml:space="preserve">SELECT RECFRONT1, RECREAR1 FROM VPICDECODE V JOIN TIREPLAC T ON V.CASEID = T.CASEID  AND V.VEHNO = T.VEHNO WHERE MAKE = 'SUBARU' AND MODEL = 'WRX'  </t>
         </is>
       </c>
       <c r="G287" t="n">
@@ -12271,7 +12463,7 @@
       </c>
       <c r="F288" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT RECFRONT1, RECREAR1, RECFRPRESS1, RECRRPRESS1 FROM VPICDECODE V JOIN TIREPLAC T ON V.CASEID = T.CASEID  AND V.VEHNO = T.VEHNO WHERE MAKE = 'HONDA' AND MODEL = 'CIVIC' AND MODELYEAR &lt; 2012 </t>
+          <t xml:space="preserve">SELECT RECFRONT1, RECREAR1, RECFRPRESS1, RECRRPRESS1 FROM VPICDECODE V JOIN TIREPLAC T ON V.CASEID = T.CASEID  AND V.VEHNO = T.VEHNO WHERE MAKE = 'HONDA' AND MODEL = 'CIVIC' AND MODELYEAR &lt; 2012  </t>
         </is>
       </c>
       <c r="G288" t="n">
@@ -12310,7 +12502,7 @@
       </c>
       <c r="F289" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT COUNT(DISTINCT CONCAT(CASEID, VEHNO)) VEHCOUNT FROM TIRE WHERE TIREMODEL = 'WRANGLER' </t>
+          <t xml:space="preserve">SELECT COUNT(DISTINCT CONCAT(CASEID, VEHNO)) VEHCOUNT FROM TIRE WHERE TIREMODEL = 'WRANGLER'  </t>
         </is>
       </c>
       <c r="G289" t="n">
@@ -12348,18 +12540,18 @@
   T.TIREMODEL
 FROM TIRE AS T
 JOIN VPICDECODE AS V
-  ON T.CASEID = V.CASEID AND T.VEHNO = V.VEHNO
+  ON T.CASEID = V.CASEID
 WHERE
   V.Make = 'Jeep' AND V.Model = 'Wrangler';</t>
         </is>
       </c>
       <c r="F290" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT DISTINCT TIREMODEL FROM TIRE T JOIN VPICDECODE V ON T.CASEID = V.CASEID AND T.VEHNO = V.VEHNO WHERE MAKE = 'JEEP' AND MODEL = 'WRANGLER' </t>
+          <t xml:space="preserve">SELECT DISTINCT TIREMODEL FROM TIRE T JOIN VPICDECODE V ON T.CASEID = V.CASEID AND T.VEHNO = V.VEHNO WHERE MAKE = 'JEEP' AND MODEL = 'WRANGLER'  </t>
         </is>
       </c>
       <c r="G290" t="n">
-        <v>1412</v>
+        <v>1402</v>
       </c>
       <c r="H290" t="b">
         <v>0</v>
@@ -12397,7 +12589,7 @@
       </c>
       <c r="F291" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT TIREMODEL, COUNT(DISTINCT CONCAT(CASEID, VEHNO)) VEHCOUNT FROM TIRE T GROUP BY TIREMODEL ORDER BY COUNT(DISTINCT CONCAT(CASEID, VEHNO)) DESC </t>
+          <t xml:space="preserve">SELECT TIREMODEL, COUNT(DISTINCT CONCAT(CASEID, VEHNO)) VEHCOUNT FROM TIRE T GROUP BY TIREMODEL ORDER BY COUNT(DISTINCT CONCAT(CASEID, VEHNO)) DESC  </t>
         </is>
       </c>
       <c r="G291" t="n">
@@ -12441,7 +12633,7 @@
       </c>
       <c r="F292" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT TIREMODEL, COUNT(DISTINCT CONCAT(T.CASEID, T.VEHNO)) VEHCOUNT FROM TIRE T LEFT JOIN TIREDAMAGE TD ON T.CASEID = TD.CASEID AND T.VEHNO = TD.VEHNO WHERE DAMAGE &gt; 0 AND DAMAGE &lt;&gt; 9 GROUP BY TIREMODEL ORDER BY COUNT(DISTINCT CONCAT(T.CASEID, T.VEHNO)) DESC </t>
+          <t xml:space="preserve">SELECT TIREMODEL, COUNT(DISTINCT CONCAT(T.CASEID, T.VEHNO)) VEHCOUNT FROM TIRE T LEFT JOIN TIREDAMAGE TD ON T.CASEID = TD.CASEID AND T.VEHNO = TD.VEHNO WHERE DAMAGE &gt; 0 AND DAMAGE &lt;&gt; 9 GROUP BY TIREMODEL ORDER BY COUNT(DISTINCT CONCAT(T.CASEID, T.VEHNO)) DESC  </t>
         </is>
       </c>
       <c r="G292" t="n">
@@ -12487,7 +12679,7 @@
       </c>
       <c r="F293" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT T.CASEID, T.VEHNO, TIRESIZE, RECFRONT1 FROM TIRE T JOIN TIREPLAC TP ON T.CASEID = TP.CASEID AND T.VEHNO = TP.VEHNO WHERE TIRELOC = 'LF' AND TIRESIZE = RECFRONT1 </t>
+          <t xml:space="preserve">SELECT T.CASEID, T.VEHNO, TIRESIZE, RECFRONT1 FROM TIRE T JOIN TIREPLAC TP ON T.CASEID = TP.CASEID AND T.VEHNO = TP.VEHNO WHERE TIRELOC = 'LF' AND TIRESIZE = RECFRONT1  </t>
         </is>
       </c>
       <c r="G293" t="n">
@@ -12538,7 +12730,7 @@
       </c>
       <c r="F294" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT T.CASEID, MAKE, MODEL, T.VEHNO, TIRESIZE, RECFRONT1 FROM TIRE T JOIN TIREPLAC TP ON T.CASEID = TP.CASEID AND T.VEHNO = TP.VEHNO JOIN VPICDECODE V ON T.CASEID = V.CASEID AND T.VEHNO = V.VEHNO WHERE TIRELOC = 'LF' AND TIRESIZE &lt;&gt; RECFRONT1 </t>
+          <t xml:space="preserve">SELECT T.CASEID, MAKE, MODEL, T.VEHNO, TIRESIZE, RECFRONT1 FROM TIRE T JOIN TIREPLAC TP ON T.CASEID = TP.CASEID AND T.VEHNO = TP.VEHNO JOIN VPICDECODE V ON T.CASEID = V.CASEID AND T.VEHNO = V.VEHNO WHERE TIRELOC = 'LF' AND TIRESIZE &lt;&gt; RECFRONT1  </t>
         </is>
       </c>
       <c r="G294" t="n">
@@ -12570,21 +12762,36 @@
           <t>gemini-2.0-flash-001</t>
         </is>
       </c>
-      <c r="E295" t="inlineStr"/>
+      <c r="E295" t="inlineStr">
+        <is>
+          <t>SELECT
+  T2.Make
+FROM TIRE AS T1
+INNER JOIN VPICDECODE AS T2
+  ON T1.CASEID = T2.CASEID
+WHERE
+  T1.TIRESIZE &lt;&gt; T2.RECFRONT1
+GROUP BY
+  T2.Make
+ORDER BY
+  COUNT(T2.Make) DESC
+LIMIT 1;</t>
+        </is>
+      </c>
       <c r="F295" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT TOP 1 MAKE FROM TIRE T JOIN TIREPLAC TP ON T.CASEID = TP.CASEID AND T.VEHNO = TP.VEHNO JOIN VPICDECODE V ON T.CASEID = V.CASEID AND T.VEHNO = V.VEHNO WHERE TIRELOC = 'LF' AND TIRESIZE &lt;&gt; RECFRONT1 GROUP BY MAKE ORDER BY COUNT(DISTINCT T.CASEID) DESC </t>
+          <t xml:space="preserve">SELECT  MAKE FROM TIRE T JOIN TIREPLAC TP ON T.CASEID = TP.CASEID AND T.VEHNO = TP.VEHNO JOIN VPICDECODE V ON T.CASEID = V.CASEID AND T.VEHNO = V.VEHNO WHERE TIRELOC = 'LF' AND TIRESIZE &lt;&gt; RECFRONT1 GROUP BY MAKE ORDER BY COUNT(DISTINCT T.CASEID) DESC limit 1 </t>
         </is>
       </c>
       <c r="G295" t="n">
-        <v>-1</v>
+        <v>1568</v>
       </c>
       <c r="H295" t="b">
         <v>0</v>
       </c>
       <c r="I295" t="inlineStr">
         <is>
-          <t>empty result set</t>
+          <t>asymmetrical tuple result size</t>
         </is>
       </c>
     </row>
@@ -12612,7 +12819,7 @@
       </c>
       <c r="F296" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT COUNT(DISTINCT CASEID) DISTRACTACCIDENTCOUNT FROM DISTRACT D </t>
+          <t xml:space="preserve">SELECT COUNT(DISTINCT CASEID) DISTRACTACCIDENTCOUNT FROM DISTRACT D  </t>
         </is>
       </c>
       <c r="G296" t="n">
@@ -12646,19 +12853,16 @@
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>SELECT COUNT(DISTINCT T1.CASEID)
-FROM CHILDSEAT AS T1
-INNER JOIN DISTRACT AS T2
-ON T1.CASEID = T2.CASEID;</t>
+          <t>SELECT COUNT(DISTINCT T1.CASEID) FROM CHILDSEAT AS T1 INNER JOIN DISTRACT AS T2 ON T1.CASEID  =  T2.CASEID</t>
         </is>
       </c>
       <c r="F297" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT COUNT(DISTINCT D.CASEID) ACCIDENTCOUNT FROM DISTRACT D JOIN ( 	SELECT DISTINCT CASEID FROM CHILDSEAT WHERE OCCNO IS NOT NULL ) S ON D.CASEID = S.CASEID </t>
+          <t xml:space="preserve">SELECT COUNT(DISTINCT D.CASEID) ACCIDENTCOUNT FROM DISTRACT D JOIN ( 	SELECT DISTINCT CASEID FROM CHILDSEAT WHERE OCCNO IS NOT NULL ) S ON D.CASEID = S.CASEID  </t>
         </is>
       </c>
       <c r="G297" t="n">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="H297" t="b">
         <v>1</v>
@@ -12704,7 +12908,7 @@
       </c>
       <c r="F298" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT MAKE, MODEL, COUNT(*) AS VEHICLE_COUNT FROM VPICDECODE V JOIN CHILDSEAT C ON V.CASEID = C.CASEID AND V.VEHNO = C.VEHNO  GROUP BY MAKE, MODEL ORDER BY VEHICLE_COUNT DESC </t>
+          <t xml:space="preserve">SELECT MAKE, MODEL, COUNT(*) AS VEHICLE_COUNT FROM VPICDECODE V JOIN CHILDSEAT C ON V.CASEID = C.CASEID AND V.VEHNO = C.VEHNO  GROUP BY MAKE, MODEL ORDER BY VEHICLE_COUNT DESC  </t>
         </is>
       </c>
       <c r="G298" t="n">
@@ -12750,16 +12954,19 @@
   ON VPICDECODE.CASEID = DISTRACT.CASEID
 GROUP BY
   VPICDECODE.Make,
+  VPICDECODE.Model
+ORDER BY
+  VPICDECODE.Make,
   VPICDECODE.Model;</t>
         </is>
       </c>
       <c r="F299" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT MAKE, MODEL, COUNT(*) AS VEHICLE_COUNT, COUNT(DISTRACTN) AS DISTRACTION_COUNT FROM VPICDECODE V JOIN CHILDSEAT C ON V.CASEID = C.CASEID AND V.VEHNO = C.VEHNO  LEFT JOIN DISTRACT D ON D.CASEID = V.CASEID AND D.VEHNO = V.VEHNO GROUP BY MAKE, MODEL ORDER BY DISTRACTION_COUNT DESC </t>
+          <t xml:space="preserve">SELECT MAKE, MODEL, COUNT(*) AS VEHICLE_COUNT, COUNT(DISTRACTN) AS DISTRACTION_COUNT FROM VPICDECODE V JOIN CHILDSEAT C ON V.CASEID = C.CASEID AND V.VEHNO = C.VEHNO  LEFT JOIN DISTRACT D ON D.CASEID = V.CASEID AND D.VEHNO = V.VEHNO GROUP BY MAKE, MODEL ORDER BY DISTRACTION_COUNT DESC  </t>
         </is>
       </c>
       <c r="G299" t="n">
-        <v>1645</v>
+        <v>1665</v>
       </c>
       <c r="H299" t="b">
         <v>0</v>
@@ -12805,7 +13012,7 @@
       </c>
       <c r="F300" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT MAKE, COUNT(*) AS VEHICLE_COUNT, COUNT(DISTRACTN) AS DISTRACT_COUNT, 	CAST(COUNT(DISTRACTN) AS FLOAT) / CAST(COUNT(*) AS FLOAT) AS PROP_DISTRACT FROM VPICDECODE V LEFT JOIN DISTRACT D ON V.CASEID = D.CASEID AND V.VEHNO = D.VEHNO GROUP BY MAKE HAVING COUNT(*) &gt; 5 ORDER BY PROP_DISTRACT DESC </t>
+          <t xml:space="preserve">SELECT MAKE, COUNT(*) AS VEHICLE_COUNT, COUNT(DISTRACTN) AS DISTRACT_COUNT, 	CAST(COUNT(DISTRACTN) AS FLOAT) / CAST(COUNT(*) AS FLOAT) AS PROP_DISTRACT FROM VPICDECODE V LEFT JOIN DISTRACT D ON V.CASEID = D.CASEID AND V.VEHNO = D.VEHNO GROUP BY MAKE HAVING COUNT(*) &gt; 5 ORDER BY PROP_DISTRACT DESC  </t>
         </is>
       </c>
       <c r="G300" t="n">
@@ -12855,7 +13062,7 @@
       </c>
       <c r="F301" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT MAKE, COUNT(*) AS CASE_COUNT, SUM(FIRE) AS FIRE_COUNT, (CAST(SUM(FIRE) AS FLOAT)/ CAST(COUNT(*) AS FLOAT)) AS FIRE_PROPORTION FROM VPICDECODE VD 	JOIN FIRE F ON F.CASEID = VD.CASEID AND F.VEHNO = VD.VEHNO GROUP BY MAKE ORDER BY FIRE_PROPORTION DESC </t>
+          <t xml:space="preserve">SELECT MAKE, COUNT(*) AS CASE_COUNT, SUM(FIRE) AS FIRE_COUNT, (CAST(SUM(FIRE) AS FLOAT)/ CAST(COUNT(*) AS FLOAT)) AS FIRE_PROPORTION FROM VPICDECODE VD 	JOIN FIRE F ON F.CASEID = VD.CASEID AND F.VEHNO = VD.VEHNO GROUP BY MAKE ORDER BY FIRE_PROPORTION DESC  </t>
         </is>
       </c>
       <c r="G301" t="n">
@@ -12890,7 +13097,7 @@
       <c r="E302" t="inlineStr"/>
       <c r="F302" t="inlineStr">
         <is>
-          <t xml:space="preserve">select institution_id, ENTITY_NAME, LEVEL from [Accountability_Levels] where SUBGROUP_NAME = 'Multiracial' and INDICATOR = 'HS Grad Rate' and entity_name like '%friendship%' </t>
+          <t xml:space="preserve">select institution_id, ENTITY_NAME, LEVEL from [Accountability_Levels] where SUBGROUP_NAME = 'Multiracial' and INDICATOR = 'HS Grad Rate' and entity_name like '%friendship%'  </t>
         </is>
       </c>
       <c r="G302" t="n">
@@ -12925,7 +13132,7 @@
       <c r="E303" t="inlineStr"/>
       <c r="F303" t="inlineStr">
         <is>
-          <t xml:space="preserve">select SUBGROUP_NAME, pct_not_tested from [Annual_EM_ELA] where entity_name = 'PEMBROKE INTERMEDIATE SCHOOL'      and ASSESSMENT_NAME = 'ELA4'     and year = 2021 </t>
+          <t xml:space="preserve">select SUBGROUP_NAME, pct_not_tested from [Annual_EM_ELA] where entity_name = 'PEMBROKE INTERMEDIATE SCHOOL'      and ASSESSMENT_NAME = 'ELA4'     and year = 2021  </t>
         </is>
       </c>
       <c r="G303" t="n">
@@ -12960,7 +13167,7 @@
       <c r="E304" t="inlineStr"/>
       <c r="F304" t="inlineStr">
         <is>
-          <t xml:space="preserve">select count(*) entryCount from [Annual_NYSAA] where year = 2022 </t>
+          <t xml:space="preserve">select count(*) entryCount from [Annual_NYSAA] where year = 2022  </t>
         </is>
       </c>
       <c r="G304" t="n">
@@ -12995,7 +13202,7 @@
       <c r="E305" t="inlineStr"/>
       <c r="F305" t="inlineStr">
         <is>
-          <t xml:space="preserve">select PUPIL_COUNT_TOT, FEDERAL_EXP, PER_FEDERAL_EXP from [Expenditures_per_Pupil] where entity_name = 'MONTESSORI MAGNET SCHOOL' and year = 2022 </t>
+          <t xml:space="preserve">select PUPIL_COUNT_TOT, FEDERAL_EXP, PER_FEDERAL_EXP from [Expenditures_per_Pupil] where entity_name = 'MONTESSORI MAGNET SCHOOL' and year = 2022  </t>
         </is>
       </c>
       <c r="G305" t="n">
@@ -13030,7 +13237,7 @@
       <c r="E306" t="inlineStr"/>
       <c r="F306" t="inlineStr">
         <is>
-          <t xml:space="preserve">select PUPIL_COUNT_TOT, FEDERAL_EXP, PER_FEDERAL_EXP, SUBGROUP_NAME, MEAN_SCORE from [Expenditures_per_Pupil] ex join [Annual_EM_MATH] mth on ex.ENTITY_CD = mth.ENTITY_CD and ex.YEAR = mth.YEAR where ex.entity_name = 'MONTESSORI MAGNET SCHOOL' and ASSESSMENT_NAME = 'MATH5' and ex.YEAR = 2022 </t>
+          <t xml:space="preserve">select PUPIL_COUNT_TOT, FEDERAL_EXP, PER_FEDERAL_EXP, SUBGROUP_NAME, MEAN_SCORE from [Expenditures_per_Pupil] ex join [Annual_EM_MATH] mth on ex.ENTITY_CD = mth.ENTITY_CD and ex.YEAR = mth.YEAR where ex.entity_name = 'MONTESSORI MAGNET SCHOOL' and ASSESSMENT_NAME = 'MATH5' and ex.YEAR = 2022  </t>
         </is>
       </c>
       <c r="G306" t="n">
@@ -13065,7 +13272,7 @@
       <c r="E307" t="inlineStr"/>
       <c r="F307" t="inlineStr">
         <is>
-          <t xml:space="preserve">select rate, grad_rate from [ACC_HS_Participation_Rate] p join [ACC_HS_Graduation_Rate] g  	on p.ENTITY_CD = g.ENTITY_CD  	and p.SUBGROUP_NAME = g.SUBGROUP_NAME  	and p.YEAR = g.YEAR  	and p.ENTITY_NAME = g.ENTITY_NAME 	and p.INSTITUTION_ID = g.INSTITUTION_ID where p.ENTITY_NAME = 'Brooklyn Collegiate' and p.SUBGROUP_NAME = 'All Students' and p.year = 2022 </t>
+          <t xml:space="preserve">select rate, grad_rate from [ACC_HS_Participation_Rate] p join [ACC_HS_Graduation_Rate] g  	on p.ENTITY_CD = g.ENTITY_CD  	and p.SUBGROUP_NAME = g.SUBGROUP_NAME  	and p.YEAR = g.YEAR  	and p.ENTITY_NAME = g.ENTITY_NAME 	and p.INSTITUTION_ID = g.INSTITUTION_ID where p.ENTITY_NAME = 'Brooklyn Collegiate' and p.SUBGROUP_NAME = 'All Students' and p.year = 2022  </t>
         </is>
       </c>
       <c r="G307" t="n">
@@ -13100,7 +13307,7 @@
       <c r="E308" t="inlineStr"/>
       <c r="F308" t="inlineStr">
         <is>
-          <t xml:space="preserve">select enrollment, absent_count, absent_rate from [ACC_EM_Chronic_Absenteeism] where entity_name = 'KENNEY MIDDLE SCHOOL' and year = 2021 and SUBGROUP_NAME = 'Students with disabilities' </t>
+          <t xml:space="preserve">select enrollment, absent_count, absent_rate from [ACC_EM_Chronic_Absenteeism] where entity_name = 'KENNEY MIDDLE SCHOOL' and year = 2021 and SUBGROUP_NAME = 'Students with disabilities'  </t>
         </is>
       </c>
       <c r="G308" t="n">
@@ -13135,7 +13342,7 @@
       <c r="E309" t="inlineStr"/>
       <c r="F309" t="inlineStr">
         <is>
-          <t xml:space="preserve">select SUBGROUP_NAME, tested, PER_LEVEL1, PER_LEVEL2, PER_LEVEL3, PER_LEVEL4, PER_LEVEL5 from [Annual_Regents_Exams] where ENTITY_NAME like '%LONGWOOD HIGH SCHOOL%' 	and year = 2022 	and subject = 'Regents Common Core Algebra I' </t>
+          <t xml:space="preserve">select SUBGROUP_NAME, tested, PER_LEVEL1, PER_LEVEL2, PER_LEVEL3, PER_LEVEL4, PER_LEVEL5 from [Annual_Regents_Exams] where ENTITY_NAME like '%LONGWOOD HIGH SCHOOL%' 	and year = 2022 	and subject = 'Regents Common Core Algebra I'  </t>
         </is>
       </c>
       <c r="G309" t="n">
@@ -13170,7 +13377,7 @@
       <c r="E310" t="inlineStr"/>
       <c r="F310" t="inlineStr">
         <is>
-          <t xml:space="preserve">select overall_status, count(*) statusCount from [Accountability_Status] where year = 2022 and ENTITY_CD in ( 	select entity_cd 	from [Institution_Grouping] 	where group_name = 'Public School' ) group by overall_status </t>
+          <t xml:space="preserve">select overall_status, count(*) statusCount from [Accountability_Status] where year = 2022 and ENTITY_CD in ( 	select entity_cd 	from [Institution_Grouping] 	where group_name = 'Public School' ) group by overall_status  </t>
         </is>
       </c>
       <c r="G310" t="n">
@@ -13205,7 +13412,7 @@
       <c r="E311" t="inlineStr"/>
       <c r="F311" t="inlineStr">
         <is>
-          <t xml:space="preserve">select overall_status, made_progress from [Accountability_Status] where entity_name = 'bronx career and college prep hs' and year = 2022 </t>
+          <t xml:space="preserve">select overall_status, made_progress from [Accountability_Status] where entity_name = 'bronx career and college prep hs' and year = 2022  </t>
         </is>
       </c>
       <c r="G311" t="n">
@@ -13240,7 +13447,7 @@
       <c r="E312" t="inlineStr"/>
       <c r="F312" t="inlineStr">
         <is>
-          <t xml:space="preserve">select core_cohort, weighted_cohort  from [ACC_EM_Core_and_Weighted_Performance] where entity_name = 'May Moore Primary School' 	and subject = 'combined' 	and SUBGROUP_NAME = 'Students with Disabilities' </t>
+          <t xml:space="preserve">select core_cohort, weighted_cohort  from [ACC_EM_Core_and_Weighted_Performance] where entity_name = 'May Moore Primary School' 	and subject = 'combined' 	and SUBGROUP_NAME = 'Students with Disabilities'  </t>
         </is>
       </c>
       <c r="G312" t="n">
@@ -13275,7 +13482,7 @@
       <c r="E313" t="inlineStr"/>
       <c r="F313" t="inlineStr">
         <is>
-          <t xml:space="preserve">select distinct entity_name  from [ACC_EM_Core_and_Weighted_Performance] p where not exists ( 	select ENTITY_CD 	from [ACC_EM_Core_and_Weighted_Performance] q 	where subgroup_name = 'Students with Disabilities' and p.ENTITY_CD = q.ENTITY_CD ) 	and ENTITY_CD in ( 		select entity_cd 		from [Institution_Grouping] 		where group_name = 'Public School' 	) </t>
+          <t xml:space="preserve">select distinct entity_name  from [ACC_EM_Core_and_Weighted_Performance] p where p.ENTITY_CD NOT IN( 	select ENTITY_CD 	from [ACC_EM_Core_and_Weighted_Performance] q 	where subgroup_name = 'Students with Disabilities'  ) 	and ENTITY_CD in ( 		select entity_cd 		from [Institution_Grouping] 		where group_name = 'Public School' 	)  </t>
         </is>
       </c>
       <c r="G313" t="n">
@@ -13310,7 +13517,7 @@
       <c r="E314" t="inlineStr"/>
       <c r="F314" t="inlineStr">
         <is>
-          <t xml:space="preserve">select count(distinct ENTITY_CD) schoolCount from [ACC_EM_Core_and_Weighted_Performance] where SUBGROUP_NAME = 'multiracial' 	and ENTITY_CD in ( 		select entity_cd 		from [Institution_Grouping] 		where group_name = 'Public School' 	) </t>
+          <t xml:space="preserve">select count(distinct ENTITY_CD) schoolCount from [ACC_EM_Core_and_Weighted_Performance] where SUBGROUP_NAME = 'multiracial' 	and ENTITY_CD in ( 		select entity_cd 		from [Institution_Grouping] 		where group_name = 'Public School' 	)  </t>
         </is>
       </c>
       <c r="G314" t="n">
@@ -13345,7 +13552,7 @@
       <c r="E315" t="inlineStr"/>
       <c r="F315" t="inlineStr">
         <is>
-          <t xml:space="preserve">select ENTITY_NAME, ELL_COUNT from [ACC_EM_ELP] where SUBGROUP_NAME = 'all students' 	and ENTITY_NAME like '%preparatory%' </t>
+          <t xml:space="preserve">select ENTITY_NAME, ELL_COUNT from [ACC_EM_ELP] where SUBGROUP_NAME = 'all students' 	and ENTITY_NAME like '%preparatory%'  </t>
         </is>
       </c>
       <c r="G315" t="n">
@@ -13380,7 +13587,7 @@
       <c r="E316" t="inlineStr"/>
       <c r="F316" t="inlineStr">
         <is>
-          <t xml:space="preserve">select count(*) schoolCount from [ACC_EM_ELP] where subgroup_name = 'white' 	and ell_count &lt;&gt; '0' 	and ENTITY_CD in ( 		select entity_cd 		from [Institution_Grouping] 		where group_name = 'Public School' 	) </t>
+          <t xml:space="preserve">select count(*) schoolCount from [ACC_EM_ELP] where subgroup_name = 'white' 	and ell_count &lt;&gt; '0' 	and ENTITY_CD in ( 		select entity_cd 		from [Institution_Grouping] 		where group_name = 'Public School' 	)  </t>
         </is>
       </c>
       <c r="G316" t="n">
@@ -13415,7 +13622,7 @@
       <c r="E317" t="inlineStr"/>
       <c r="F317" t="inlineStr">
         <is>
-          <t xml:space="preserve">select ell_count, benchmark, progress_rate, success_ratio from [ACC_EM_ELP] where ENTITY_NAME = 'PINE BUSH'  	and SUBGROUP_NAME = 'All Students' </t>
+          <t xml:space="preserve">select ell_count, benchmark, progress_rate, success_ratio from [ACC_EM_ELP] where ENTITY_NAME = 'PINE BUSH'  	and SUBGROUP_NAME = 'All Students'  </t>
         </is>
       </c>
       <c r="G317" t="n">
@@ -13450,7 +13657,7 @@
       <c r="E318" t="inlineStr"/>
       <c r="F318" t="inlineStr">
         <is>
-          <t xml:space="preserve">select count(distinct entity_cd) noPartCount from [ACC_EM_NYSESLAT_for_Participation] where NYSESLAT_PART = '0' 	and ENTITY_CD in ( 		select entity_cd 		from [Institution_Grouping] 		where group_name = 'Public School' 	) </t>
+          <t xml:space="preserve">select count(distinct entity_cd) noPartCount from [ACC_EM_NYSESLAT_for_Participation] where NYSESLAT_PART = '0' 	and ENTITY_CD in ( 		select entity_cd 		from [Institution_Grouping] 		where group_name = 'Public School' 	)  </t>
         </is>
       </c>
       <c r="G318" t="n">
@@ -13485,7 +13692,7 @@
       <c r="E319" t="inlineStr"/>
       <c r="F319" t="inlineStr">
         <is>
-          <t xml:space="preserve">select count(distinct subject) subjectCount from [ACC_EM_NYSESLAT_for_Participation] </t>
+          <t xml:space="preserve">select count(distinct subject) subjectCount from [ACC_EM_NYSESLAT_for_Participation]  </t>
         </is>
       </c>
       <c r="G319" t="n">
@@ -13520,7 +13727,7 @@
       <c r="E320" t="inlineStr"/>
       <c r="F320" t="inlineStr">
         <is>
-          <t xml:space="preserve">select distinct entity_name from [ACC_EM_ELP]  where entity_cd in ( 	select distinct entity_cd 	from [ACC_EM_NYSESLAT_for_Participation] 	where NYSESLAT_PART = '0' )  	and ELL_COUNT &lt;&gt; '0'  	and SUBGROUP_NAME = 'all students'  	and level = '2' 	and ENTITY_CD in ( 		select entity_cd 		from [Institution_Grouping] 		where group_name = 'Public School' 	) </t>
+          <t xml:space="preserve">select distinct entity_name from [ACC_EM_ELP]  where entity_cd in ( 	select distinct entity_cd 	from [ACC_EM_NYSESLAT_for_Participation] 	where NYSESLAT_PART = '0' )  	and ELL_COUNT &lt;&gt; '0'  	and SUBGROUP_NAME = 'all students'  	and level = '2' 	and ENTITY_CD in ( 		select entity_cd 		from [Institution_Grouping] 		where group_name = 'Public School' 	)  </t>
         </is>
       </c>
       <c r="G320" t="n">
@@ -13555,7 +13762,7 @@
       <c r="E321" t="inlineStr"/>
       <c r="F321" t="inlineStr">
         <is>
-          <t xml:space="preserve">select SUBGROUP_NAME, subject, cohort, rate from [ACC_EM_Participation_Rate] where entity_name = 'elmwood elementary school' and year = 2022 </t>
+          <t xml:space="preserve">select SUBGROUP_NAME, subject, cohort, rate from [ACC_EM_Participation_Rate] where entity_name = 'elmwood elementary school' and year = 2022  </t>
         </is>
       </c>
       <c r="G321" t="n">
@@ -13590,7 +13797,7 @@
       <c r="E322" t="inlineStr"/>
       <c r="F322" t="inlineStr">
         <is>
-          <t xml:space="preserve">select count(distinct entity_cd) schoolCount from [ACC_EM_Participation_Rate] where MET_95_PERCENT = 'Y' 	and ENTITY_CD in ( 		select entity_cd 		from [Institution_Grouping] 		where group_name = 'Public School' 	) </t>
+          <t xml:space="preserve">select count(distinct entity_cd) schoolCount from [ACC_EM_Participation_Rate] where MET_95_PERCENT = 'Y' 	and ENTITY_CD in ( 		select entity_cd 		from [Institution_Grouping] 		where group_name = 'Public School' 	)  </t>
         </is>
       </c>
       <c r="G322" t="n">
@@ -13625,7 +13832,7 @@
       <c r="E323" t="inlineStr"/>
       <c r="F323" t="inlineStr">
         <is>
-          <t xml:space="preserve">select avg(cast(rate as float)) as avgRate from [ACC_EM_Participation_Rate] where rate &lt;&gt; 's' 	and ENTITY_CD in ( 		select entity_cd 		from [Institution_Grouping] 		where group_name = 'Public School' 	) </t>
+          <t xml:space="preserve">select avg(cast(rate as float)) as avgRate from [ACC_EM_Participation_Rate] where rate &lt;&gt; 's' 	and ENTITY_CD in ( 		select entity_cd 		from [Institution_Grouping] 		where group_name = 'Public School' 	)  </t>
         </is>
       </c>
       <c r="G323" t="n">
@@ -13660,7 +13867,7 @@
       <c r="E324" t="inlineStr"/>
       <c r="F324" t="inlineStr">
         <is>
-          <t xml:space="preserve">select subject, avg(cast(absent_rate as float)) avgRate from [ACC_EM_Chronic_Absenteeism] where ABSENT_RATE &lt;&gt; 's' and ENTITY_CD in ( 		select entity_cd 		from [Institution_Grouping] 		where group_name = 'Public School' 	) group by subject </t>
+          <t xml:space="preserve">select subject, avg(cast(absent_rate as float)) avgRate from [ACC_EM_Chronic_Absenteeism] where ABSENT_RATE &lt;&gt; 's' and ENTITY_CD in ( 		select entity_cd 		from [Institution_Grouping] 		where group_name = 'Public School' 	) group by subject  </t>
         </is>
       </c>
       <c r="G324" t="n">
@@ -13695,7 +13902,7 @@
       <c r="E325" t="inlineStr"/>
       <c r="F325" t="inlineStr">
         <is>
-          <t xml:space="preserve">select top 1 entity_name from [ACC_EM_Chronic_Absenteeism] where SUBGROUP_NAME = 'students with disabilities' and absent_rate &lt;&gt; 's' order by cast(absent_rate as float) desc </t>
+          <t xml:space="preserve">select  entity_name from [ACC_EM_Chronic_Absenteeism] where SUBGROUP_NAME = 'students with disabilities' and absent_rate &lt;&gt; 's' order by cast(absent_rate as float) desc limit 1 </t>
         </is>
       </c>
       <c r="G325" t="n">
@@ -13706,7 +13913,7 @@
       </c>
       <c r="I325" t="inlineStr">
         <is>
-          <t>empty result set</t>
+          <t>Insufficient number of columns in generated result set</t>
         </is>
       </c>
     </row>
@@ -13730,7 +13937,7 @@
       <c r="E326" t="inlineStr"/>
       <c r="F326" t="inlineStr">
         <is>
-          <t xml:space="preserve">select a.entity_name, subgroup_name, enrollment from [ACC_EM_Chronic_Absenteeism] a join [Institution_Grouping] g on a.ENTITY_CD = g.ENTITY_CD where cast(absent_rate as float) = ( 	select max(cast(absent_rate as float))  	from [ACC_EM_Chronic_Absenteeism]  	where absent_rate &lt;&gt; 's' 	and year = 2022 	) 	and absent_rate &lt;&gt; 's' 	and year = 2022 	and group_name = 'public school' </t>
+          <t xml:space="preserve">select a.entity_name, subgroup_name, enrollment from [ACC_EM_Chronic_Absenteeism] a join [Institution_Grouping] g on a.ENTITY_CD = g.ENTITY_CD where cast(absent_rate as float) = ( 	select max(cast(absent_rate as float))  	from [ACC_EM_Chronic_Absenteeism]  	where absent_rate &lt;&gt; 's' 	and year = 2022 	) 	and absent_rate &lt;&gt; 's' 	and year = 2022 	and group_name = 'public school'  </t>
         </is>
       </c>
       <c r="G326" t="n">
@@ -13765,7 +13972,7 @@
       <c r="E327" t="inlineStr"/>
       <c r="F327" t="inlineStr">
         <is>
-          <t xml:space="preserve">select subgroup_name, avg(cast(absent_rate as float)) avgRate from [ACC_HS_Chronic_Absenteeism] a join [Institution_Grouping] g on a.ENTITY_CD = g.ENTITY_CD where absent_rate &lt;&gt; 's' 	and group_name = 'Public School' group by subgroup_name </t>
+          <t xml:space="preserve">select subgroup_name, avg(cast(absent_rate as float)) avgRate from [ACC_HS_Chronic_Absenteeism] a join [Institution_Grouping] g on a.ENTITY_CD = g.ENTITY_CD where absent_rate &lt;&gt; 's' 	and group_name = 'Public School' group by subgroup_name  </t>
         </is>
       </c>
       <c r="G327" t="n">
@@ -13800,7 +14007,7 @@
       <c r="E328" t="inlineStr"/>
       <c r="F328" t="inlineStr">
         <is>
-          <t xml:space="preserve">select top 1 entity_name, absent_count, absent_rate from [ACC_HS_Chronic_Absenteeism] where enrollment &lt;&gt; 's' 	and year = 2021 	and ENTITY_CD in ( 		select entity_cd 		from [Institution_Grouping] 		where group_name = 'Public School' 	) 	and SUBGROUP_NAME = 'All Students' order by cast(enrollment as float) desc </t>
+          <t xml:space="preserve">select  entity_name, absent_count, absent_rate from [ACC_HS_Chronic_Absenteeism] where enrollment &lt;&gt; 's' 	and year = 2021 	and ENTITY_CD in ( 		select entity_cd 		from [Institution_Grouping] 		where group_name = 'Public School' 	) 	and SUBGROUP_NAME = 'All Students' order by cast(enrollment as float) desc limit 1 </t>
         </is>
       </c>
       <c r="G328" t="n">
@@ -13811,7 +14018,7 @@
       </c>
       <c r="I328" t="inlineStr">
         <is>
-          <t>empty result set</t>
+          <t>asymmetrical tuple result size</t>
         </is>
       </c>
     </row>
@@ -13835,7 +14042,7 @@
       <c r="E329" t="inlineStr"/>
       <c r="F329" t="inlineStr">
         <is>
-          <t xml:space="preserve">select core_cohort, weighted_cohort, core_index, weighted_index from [ACC_HS_Core_and_Weighted_Performance] where year = 2022 	and subject = 'MATH' 	and subgroup_name = 'Economically Disadvantaged' 	and entity_name = 'ALBANY HIGH SCHOOL' </t>
+          <t xml:space="preserve">select core_cohort, weighted_cohort, core_index, weighted_index from [ACC_HS_Core_and_Weighted_Performance] where year = 2022 	and subject = 'MATH' 	and subgroup_name = 'Economically Disadvantaged' 	and entity_name = 'ALBANY HIGH SCHOOL'  </t>
         </is>
       </c>
       <c r="G329" t="n">
@@ -13870,7 +14077,7 @@
       <c r="E330" t="inlineStr"/>
       <c r="F330" t="inlineStr">
         <is>
-          <t xml:space="preserve">select top 5 p.ENTITY_NAME  from [ACC_HS_Core_and_Weighted_Performance] p join [Institution_Grouping] g on p.ENTITY_CD = g.ENTITY_CD where WEIGHTED_INDEX &lt;&gt; 's' 	and group_name = 'Public School' 	and subject = 'MATH' 	and subgroup_name = 'All Students' 	and year = 2022 order by cast(weighted_index as float) desc </t>
+          <t xml:space="preserve">select  p.ENTITY_NAME  from [ACC_HS_Core_and_Weighted_Performance] p join [Institution_Grouping] g on p.ENTITY_CD = g.ENTITY_CD where WEIGHTED_INDEX &lt;&gt; 's' 	and group_name = 'Public School' 	and subject = 'MATH' 	and subgroup_name = 'All Students' 	and year = 2022 order by cast(weighted_index as float) desc limit 5 </t>
         </is>
       </c>
       <c r="G330" t="n">
@@ -13881,7 +14088,7 @@
       </c>
       <c r="I330" t="inlineStr">
         <is>
-          <t>empty result set</t>
+          <t>asymmetrical tuple result size</t>
         </is>
       </c>
     </row>
@@ -13905,7 +14112,7 @@
       <c r="E331" t="inlineStr"/>
       <c r="F331" t="inlineStr">
         <is>
-          <t xml:space="preserve">select top 5 entity_name, avg(cast(weighted_index as float)) averageScienceScore from [ACC_HS_Core_and_Weighted_Performance] where weighted_index &lt;&gt; 's' and subject = 'SCIENCE' and entity_cd in ( 	select entity_cd 	from [Institution_Grouping] 	where GROUP_NAME = 'public school district' ) group by entity_name order by avg(cast(weighted_index as float)) asc </t>
+          <t xml:space="preserve">select  entity_name, avg(cast(weighted_index as float)) averageScienceScore from [ACC_HS_Core_and_Weighted_Performance] where weighted_index &lt;&gt; 's' and subject = 'SCIENCE' and entity_cd in ( 	select entity_cd 	from [Institution_Grouping] 	where GROUP_NAME = 'public school district' ) group by entity_name order by avg(cast(weighted_index as float)) asc limit 5 </t>
         </is>
       </c>
       <c r="G331" t="n">
@@ -13916,7 +14123,7 @@
       </c>
       <c r="I331" t="inlineStr">
         <is>
-          <t>empty result set</t>
+          <t>Insufficient number of columns in generated result set</t>
         </is>
       </c>
     </row>
@@ -13940,7 +14147,7 @@
       <c r="E332" t="inlineStr"/>
       <c r="F332" t="inlineStr">
         <is>
-          <t xml:space="preserve">select ELL_COUNT, BENCHMARK, PROGRESS_RATE, SUCCESS_RATIO, LEVEL from [ACC_HS_ELP] where ENTITY_NAME = 'ALFRED E SMITH CAREER-TECH HS' 	and SUBGROUP_NAME = 'All Students' 	and year = 2022 </t>
+          <t xml:space="preserve">select ELL_COUNT, BENCHMARK, PROGRESS_RATE, SUCCESS_RATIO, LEVEL from [ACC_HS_ELP] where ENTITY_NAME = 'ALFRED E SMITH CAREER-TECH HS' 	and SUBGROUP_NAME = 'All Students' 	and year = 2022  </t>
         </is>
       </c>
       <c r="G332" t="n">
@@ -13975,7 +14182,7 @@
       <c r="E333" t="inlineStr"/>
       <c r="F333" t="inlineStr">
         <is>
-          <t xml:space="preserve">select subgroup_name, avg(cast(ell_count as float)) ELLAvg from [ACC_HS_ELP] where entity_cd in ( 	select entity_cd 	from [Institution_Grouping] 	where GROUP_NAME = 'public school' ) group by subgroup_name </t>
+          <t xml:space="preserve">select subgroup_name, avg(cast(ell_count as float)) ELLAvg from [ACC_HS_ELP] where entity_cd in ( 	select entity_cd 	from [Institution_Grouping] 	where GROUP_NAME = 'public school' ) group by subgroup_name  </t>
         </is>
       </c>
       <c r="G333" t="n">
@@ -14010,7 +14217,7 @@
       <c r="E334" t="inlineStr"/>
       <c r="F334" t="inlineStr">
         <is>
-          <t xml:space="preserve">select top 1 el.ENTITY_NAME, ELL_COUNT, PER_FED_STATE_LOCAL_EXP from [ACC_HS_ELP] el join [Expenditures_per_Pupil] ex  	on el.ENTITY_CD = ex.ENTITY_CD  	and el.year = ex.year where SUBGROUP_NAME = 'All Students' 	and ELL_COUNT &lt;&gt; 's' 	and ex.YEAR = 2022 	and el.entity_cd in ( 		select entity_cd 		from [Institution_Grouping] 		where GROUP_NAME = 'public school district' 	) order by cast(ELL_COUNT as float) desc </t>
+          <t xml:space="preserve">select  el.ENTITY_NAME, ELL_COUNT, PER_FED_STATE_LOCAL_EXP from [ACC_HS_ELP] el join [Expenditures_per_Pupil] ex  	on el.ENTITY_CD = ex.ENTITY_CD  	and el.year = ex.year where SUBGROUP_NAME = 'All Students' 	and ELL_COUNT &lt;&gt; 's' 	and ex.YEAR = 2022 	and el.entity_cd in ( 		select entity_cd 		from [Institution_Grouping] 		where GROUP_NAME = 'public school district' 	) order by cast(ELL_COUNT as float) desc limit 1 </t>
         </is>
       </c>
       <c r="G334" t="n">
@@ -14021,7 +14228,7 @@
       </c>
       <c r="I334" t="inlineStr">
         <is>
-          <t>empty result set</t>
+          <t>Insufficient number of columns in generated result set</t>
         </is>
       </c>
     </row>
@@ -14045,7 +14252,7 @@
       <c r="E335" t="inlineStr"/>
       <c r="F335" t="inlineStr">
         <is>
-          <t xml:space="preserve">select YEAR, OVERALL_STATUS, count(*) entCount from [Accountability_Status_by_Subgroup] where SUBGROUP_NAME = 'All Students' group by year, OVERALL_STATUS </t>
+          <t xml:space="preserve">select YEAR, OVERALL_STATUS, count(*) entCount from [Accountability_Status_by_Subgroup] where SUBGROUP_NAME = 'All Students' group by year, OVERALL_STATUS  </t>
         </is>
       </c>
       <c r="G335" t="n">
@@ -14080,7 +14287,7 @@
       <c r="E336" t="inlineStr"/>
       <c r="F336" t="inlineStr">
         <is>
-          <t xml:space="preserve">select count(*) HSCount from [Accountability_Status_by_Subgroup] where SCHOOL_TYPE = 'HS' 	and SUBGROUP_NAME = 'Multiracial' 	and year = 2021 </t>
+          <t xml:space="preserve">select count(*) HSCount from [Accountability_Status_by_Subgroup] where SCHOOL_TYPE = 'HS' 	and SUBGROUP_NAME = 'Multiracial' 	and year = 2021  </t>
         </is>
       </c>
       <c r="G336" t="n">
@@ -14115,7 +14322,7 @@
       <c r="E337" t="inlineStr"/>
       <c r="F337" t="inlineStr">
         <is>
-          <t xml:space="preserve">select SCHOOL_TYPE, SUBGROUP_NAME, OVERALL_STATUS from [Accountability_Status_by_Subgroup] where year = 2021 	and ENTITY_NAME = 'ALBANY CITY SD' </t>
+          <t xml:space="preserve">select SCHOOL_TYPE, SUBGROUP_NAME, OVERALL_STATUS from [Accountability_Status_by_Subgroup] where year = 2021 	and ENTITY_NAME = 'ALBANY CITY SD'  </t>
         </is>
       </c>
       <c r="G337" t="n">
@@ -14150,7 +14357,7 @@
       <c r="E338" t="inlineStr"/>
       <c r="F338" t="inlineStr">
         <is>
-          <t xml:space="preserve">select ASSESSMENT_NAME, avg(cast([LEVEL1_%TESTED] as float)) L1, avg(cast([LEVEL2_%TESTED] as float)) L2, avg(cast([LEVEL3_%TESTED] as float)) L3, avg(cast([LEVEL4_%TESTED] as float)) L4 from [Annual_EM_Science] where [LEVEL1_%TESTED] &lt;&gt; 's' 	and entity_cd in ( 		select entity_cd 		from [Institution_Grouping] 		where GROUP_NAME = 'public school' 	) group by ASSESSMENT_NAME </t>
+          <t xml:space="preserve">select ASSESSMENT_NAME, avg(cast([LEVEL1_%TESTED] as float)) L1, avg(cast([LEVEL2_%TESTED] as float)) L2, avg(cast([LEVEL3_%TESTED] as float)) L3, avg(cast([LEVEL4_%TESTED] as float)) L4 from [Annual_EM_Science] where [LEVEL1_%TESTED] &lt;&gt; 's' 	and entity_cd in ( 		select entity_cd 		from [Institution_Grouping] 		where GROUP_NAME = 'public school' 	) group by ASSESSMENT_NAME  </t>
         </is>
       </c>
       <c r="G338" t="n">
@@ -14185,7 +14392,7 @@
       <c r="E339" t="inlineStr"/>
       <c r="F339" t="inlineStr">
         <is>
-          <t xml:space="preserve">select SUBGROUP_NAME, avg(cast([LEVEL1_%TESTED] as float)) L1, avg(cast([LEVEL2_%TESTED] as float)) L2, avg(cast([LEVEL3_%TESTED] as float)) L3, avg(cast([LEVEL4_%TESTED] as float)) L4 from [Annual_EM_Science] where [LEVEL1_%TESTED] &lt;&gt; 's' 	and ASSESSMENT_NAME = 'Science8' 	and entity_cd in ( 		select entity_cd 		from [Institution_Grouping] 		where GROUP_NAME = 'public school' 	) group by SUBGROUP_NAME </t>
+          <t xml:space="preserve">select SUBGROUP_NAME, avg(cast([LEVEL1_%TESTED] as float)) L1, avg(cast([LEVEL2_%TESTED] as float)) L2, avg(cast([LEVEL3_%TESTED] as float)) L3, avg(cast([LEVEL4_%TESTED] as float)) L4 from [Annual_EM_Science] where [LEVEL1_%TESTED] &lt;&gt; 's' 	and ASSESSMENT_NAME = 'Science8' 	and entity_cd in ( 		select entity_cd 		from [Institution_Grouping] 		where GROUP_NAME = 'public school' 	) group by SUBGROUP_NAME  </t>
         </is>
       </c>
       <c r="G339" t="n">
@@ -14220,7 +14427,7 @@
       <c r="E340" t="inlineStr"/>
       <c r="F340" t="inlineStr">
         <is>
-          <t xml:space="preserve">select count(distinct subject) subjectCount from [Annual_NYSESLAT] </t>
+          <t xml:space="preserve">select count(distinct subject) subjectCount from [Annual_NYSESLAT]  </t>
         </is>
       </c>
       <c r="G340" t="n">
@@ -14255,7 +14462,7 @@
       <c r="E341" t="inlineStr"/>
       <c r="F341" t="inlineStr">
         <is>
-          <t xml:space="preserve">select PER_EXP from [Annual_NYSESLAT] where SUBGROUP_NAME = 'Parent Not In Armed Forces' 	and SUBJECT = 'TS_6' 	and ENTITY_NAME = 'JOHANNA PERRIN MIDDLE SCHOOL' 	and year = 2021 </t>
+          <t xml:space="preserve">select PER_EXP from [Annual_NYSESLAT] where SUBGROUP_NAME = 'Parent Not In Armed Forces' 	and SUBJECT = 'TS_6' 	and ENTITY_NAME = 'JOHANNA PERRIN MIDDLE SCHOOL' 	and year = 2021  </t>
         </is>
       </c>
       <c r="G341" t="n">
@@ -14290,7 +14497,7 @@
       <c r="E342" t="inlineStr"/>
       <c r="F342" t="inlineStr">
         <is>
-          <t xml:space="preserve">select PER_ENT, PER_EMER, PER_TRAN, PER_EXP from [Annual_NYSESLAT] where SUBGROUP_NAME = 'Parent Not In Armed Forces' 	and SUBJECT = 'TS_6' 	and ENTITY_NAME = 'JOHANNA PERRIN MIDDLE SCHOOL' 	and year = 2021 </t>
+          <t xml:space="preserve">select PER_ENT, PER_EMER, PER_TRAN, PER_EXP from [Annual_NYSESLAT] where SUBGROUP_NAME = 'Parent Not In Armed Forces' 	and SUBJECT = 'TS_6' 	and ENTITY_NAME = 'JOHANNA PERRIN MIDDLE SCHOOL' 	and year = 2021  </t>
         </is>
       </c>
       <c r="G342" t="n">
@@ -14325,7 +14532,7 @@
       <c r="E343" t="inlineStr"/>
       <c r="F343" t="inlineStr">
         <is>
-          <t xml:space="preserve">select subject, avg(cast(per_ent as float)) avgScore from [Annual_NYSESLAT] where per_ent &lt;&gt; 's' 	and year = 2021 	and entity_cd in ( 		select entity_cd 		from [Institution_Grouping] 		where GROUP_NAME = 'public school district' 	) group by subject </t>
+          <t xml:space="preserve">select subject, avg(cast(per_ent as float)) avgScore from [Annual_NYSESLAT] where per_ent &lt;&gt; 's' 	and year = 2021 	and entity_cd in ( 		select entity_cd 		from [Institution_Grouping] 		where GROUP_NAME = 'public school district' 	) group by subject  </t>
         </is>
       </c>
       <c r="G343" t="n">
@@ -14360,7 +14567,7 @@
       <c r="E344" t="inlineStr"/>
       <c r="F344" t="inlineStr">
         <is>
-          <t xml:space="preserve">select subject,  	avg(cast(per_ent as float)) avgEnt, 	avg(cast(per_emer as float)) avgEmer, 	avg(cast(per_tran as float)) avgTran, 	avg(cast(per_exp as float)) avgExp, 	avg(cast(per_com as float)) avgCom from [Annual_NYSESLAT] where per_ent &lt;&gt; 's' 	and year = 2021 	and entity_cd in ( 		select entity_cd 		from [Institution_Grouping] 		where GROUP_NAME = 'public school district' 	) group by subject </t>
+          <t xml:space="preserve">select subject,  	avg(cast(per_ent as float)) avgEnt, 	avg(cast(per_emer as float)) avgEmer, 	avg(cast(per_tran as float)) avgTran, 	avg(cast(per_exp as float)) avgExp, 	avg(cast(per_com as float)) avgCom from [Annual_NYSESLAT] where per_ent &lt;&gt; 's' 	and year = 2021 	and entity_cd in ( 		select entity_cd 		from [Institution_Grouping] 		where GROUP_NAME = 'public school district' 	) group by subject  </t>
         </is>
       </c>
       <c r="G344" t="n">
@@ -14395,7 +14602,7 @@
       <c r="E345" t="inlineStr"/>
       <c r="F345" t="inlineStr">
         <is>
-          <t xml:space="preserve">select NUM_ENT, NUM_EMER, NUM_TRAN, NUM_EXP from [Annual_NYSESLAT] where SUBGROUP_NAME = 'Parent Not In Armed Forces' 	and SUBJECT = 'TS_6' 	and ENTITY_NAME = 'JOHANNA PERRIN MIDDLE SCHOOL' 	and year = 2021 </t>
+          <t xml:space="preserve">select NUM_ENT, NUM_EMER, NUM_TRAN, NUM_EXP from [Annual_NYSESLAT] where SUBGROUP_NAME = 'Parent Not In Armed Forces' 	and SUBJECT = 'TS_6' 	and ENTITY_NAME = 'JOHANNA PERRIN MIDDLE SCHOOL' 	and year = 2021  </t>
         </is>
       </c>
       <c r="G345" t="n">
@@ -14430,7 +14637,7 @@
       <c r="E346" t="inlineStr"/>
       <c r="F346" t="inlineStr">
         <is>
-          <t xml:space="preserve">select BOCES_NAME, count(distinct school_name) SchoolCount from [BOCES_and_N/RC] where year = 2020 group by BOCES_NAME </t>
+          <t xml:space="preserve">select BOCES_NAME, count(distinct school_name) SchoolCount from [BOCES_and_N/RC] where year = 2020 group by BOCES_NAME  </t>
         </is>
       </c>
       <c r="G346" t="n">
@@ -14465,7 +14672,7 @@
       <c r="E347" t="inlineStr"/>
       <c r="F347" t="inlineStr">
         <is>
-          <t xml:space="preserve">select COUNTY_NAME, count(distinct school_name) SchoolCount from [BOCES_and_N/RC] where year = 2020 group by COUNTY_NAME </t>
+          <t xml:space="preserve">select COUNTY_NAME, count(distinct school_name) SchoolCount from [BOCES_and_N/RC] where year = 2020 group by COUNTY_NAME  </t>
         </is>
       </c>
       <c r="G347" t="n">
@@ -14500,7 +14707,7 @@
       <c r="E348" t="inlineStr"/>
       <c r="F348" t="inlineStr">
         <is>
-          <t xml:space="preserve">select BOCES_NAME, avg(cast(PER_FEDERAL_EXP as float)) avgFedExp, avg(cast(PER_STATE_LOCAL_EXP as float)) avgLocExp from [BOCES_and_N/RC] b join [Expenditures_per_Pupil] e on b.ENTITY_CD = e.ENTITY_CD and b.YEAR = e.YEAR where b.year = 2021 group by BOCES_NAME </t>
+          <t xml:space="preserve">select BOCES_NAME, avg(cast(PER_FEDERAL_EXP as float)) avgFedExp, avg(cast(PER_STATE_LOCAL_EXP as float)) avgLocExp from [BOCES_and_N/RC] b join [Expenditures_per_Pupil] e on b.ENTITY_CD = e.ENTITY_CD and b.YEAR = e.YEAR where b.year = 2021 group by BOCES_NAME  </t>
         </is>
       </c>
       <c r="G348" t="n">
@@ -14535,7 +14742,7 @@
       <c r="E349" t="inlineStr"/>
       <c r="F349" t="inlineStr">
         <is>
-          <t xml:space="preserve">select count(distinct BOCES_NAME) BOCESCount from [BOCES_and_N/RC] </t>
+          <t xml:space="preserve">select count(distinct BOCES_NAME) BOCESCount from [BOCES_and_N/RC]  </t>
         </is>
       </c>
       <c r="G349" t="n">
@@ -14570,7 +14777,7 @@
       <c r="E350" t="inlineStr"/>
       <c r="F350" t="inlineStr">
         <is>
-          <t xml:space="preserve">select BOCES_NAME, count(distinct COUNTY_NAME) CountyCount from [BOCES_and_N/RC] group by BOCES_NAME having count(distinct COUNTY_NAME) &gt; 1 </t>
+          <t xml:space="preserve">select BOCES_NAME, count(distinct COUNTY_NAME) CountyCount from [BOCES_and_N/RC] group by BOCES_NAME having count(distinct COUNTY_NAME) &gt; 1  </t>
         </is>
       </c>
       <c r="G350" t="n">
@@ -14605,7 +14812,7 @@
       <c r="E351" t="inlineStr"/>
       <c r="F351" t="inlineStr">
         <is>
-          <t xml:space="preserve">select NUM_TEACH, NUM_TEACH_INEXP, PER_TEACH_INEXP from [Inexperienced_Teachers_and_Principals] where entity_name = 'SHERIDAN PREP ACADEMY' and year = 2021 </t>
+          <t xml:space="preserve">select NUM_TEACH, NUM_TEACH_INEXP, PER_TEACH_INEXP from [Inexperienced_Teachers_and_Principals] where entity_name = 'SHERIDAN PREP ACADEMY' and year = 2021  </t>
         </is>
       </c>
       <c r="G351" t="n">
@@ -14640,7 +14847,7 @@
       <c r="E352" t="inlineStr"/>
       <c r="F352" t="inlineStr">
         <is>
-          <t xml:space="preserve">select top 5 i.ENTITY_CD, i.ENTITY_NAME, PER_TEACH_INEXP from [Inexperienced_Teachers_and_Principals] i join [Institution_Grouping] g on i.ENTITY_CD = g.ENTITY_CD where year = 2021 	and GROUP_NAME = 'public school' order by PER_TEACH_INEXP desc </t>
+          <t xml:space="preserve">select  i.ENTITY_CD, i.ENTITY_NAME, PER_TEACH_INEXP from [Inexperienced_Teachers_and_Principals] i join [Institution_Grouping] g on i.ENTITY_CD = g.ENTITY_CD where year = 2021 	and GROUP_NAME = 'public school' order by PER_TEACH_INEXP desc limit 5 </t>
         </is>
       </c>
       <c r="G352" t="n">
@@ -14651,7 +14858,7 @@
       </c>
       <c r="I352" t="inlineStr">
         <is>
-          <t>empty result set</t>
+          <t>Insufficient number of columns in generated result set</t>
         </is>
       </c>
     </row>
@@ -14675,7 +14882,7 @@
       <c r="E353" t="inlineStr"/>
       <c r="F353" t="inlineStr">
         <is>
-          <t xml:space="preserve">select top 5 DISTRICT_NAME, AVG(PER_TEACH_INEXP) teachCount from [Inexperienced_Teachers_and_Principals] i join [BOCES_and_N/RC] b on i.ENTITY_CD = b.ENTITY_CD group by DISTRICT_NAME order by AVG(PER_TEACH_INEXP) desc </t>
+          <t xml:space="preserve">select  DISTRICT_NAME, AVG(PER_TEACH_INEXP) teachCount from [Inexperienced_Teachers_and_Principals] i join [BOCES_and_N/RC] b on i.ENTITY_CD = b.ENTITY_CD group by DISTRICT_NAME order by AVG(PER_TEACH_INEXP) desc limit 5 </t>
         </is>
       </c>
       <c r="G353" t="n">
@@ -14686,7 +14893,7 @@
       </c>
       <c r="I353" t="inlineStr">
         <is>
-          <t>empty result set</t>
+          <t>asymmetrical tuple result size</t>
         </is>
       </c>
     </row>
@@ -14710,7 +14917,7 @@
       <c r="E354" t="inlineStr"/>
       <c r="F354" t="inlineStr">
         <is>
-          <t xml:space="preserve">select avg(TOT_PRINC_LOW) princLow, avg(TOT_TEACH_LOW) teachLow from [Inexperienced_Teachers_and_Principals] </t>
+          <t xml:space="preserve">select avg(TOT_PRINC_LOW) princLow, avg(TOT_TEACH_LOW) teachLow from [Inexperienced_Teachers_and_Principals]  </t>
         </is>
       </c>
       <c r="G354" t="n">
@@ -14745,7 +14952,7 @@
       <c r="E355" t="inlineStr"/>
       <c r="F355" t="inlineStr">
         <is>
-          <t xml:space="preserve">select sum(cast(OUT_4_YR_CNT as int)) studentCount from [Postsecondary_Enrollment] where SUBGROUP_NAME in ('male', 'female') 	and ENTITY_NAME = 'BROCTON MIDDLE HIGH SCHOOL' </t>
+          <t xml:space="preserve">select sum(cast(OUT_4_YR_CNT as int)) studentCount from [Postsecondary_Enrollment] where SUBGROUP_NAME in ('male', 'female') 	and ENTITY_NAME = 'BROCTON MIDDLE HIGH SCHOOL'  </t>
         </is>
       </c>
       <c r="G355" t="n">
@@ -14780,7 +14987,7 @@
       <c r="E356" t="inlineStr"/>
       <c r="F356" t="inlineStr">
         <is>
-          <t xml:space="preserve">select PER_NYS_PUB_2_YR, PER_NYS_PUB_4_YR from [Postsecondary_Enrollment] where year = 2022 	and ENTITY_NAME = 'ONEIDA SENIOR HIGH SCHOOL' 	and SUBGROUP_NAME = 'All Students' </t>
+          <t xml:space="preserve">select PER_NYS_PUB_2_YR, PER_NYS_PUB_4_YR from [Postsecondary_Enrollment] where year = 2022 	and ENTITY_NAME = 'ONEIDA SENIOR HIGH SCHOOL' 	and SUBGROUP_NAME = 'All Students'  </t>
         </is>
       </c>
       <c r="G356" t="n">
@@ -14815,7 +15022,7 @@
       <c r="E357" t="inlineStr"/>
       <c r="F357" t="inlineStr">
         <is>
-          <t xml:space="preserve">select top 1 ENTITY_NAME from [Teachers_Teaching_Out_of_Certification] where year = 2021 	and entity_cd in ( 		select entity_cd 		from [Institution_Grouping] 		where GROUP_NAME = 'public school district' 	) order by NUM_OUT_CERT desc </t>
+          <t xml:space="preserve">select  ENTITY_NAME from [Teachers_Teaching_Out_of_Certification] where year = 2021 	and entity_cd in ( 		select entity_cd 		from [Institution_Grouping] 		where GROUP_NAME = 'public school district' 	) order by NUM_OUT_CERT desc limit 1 </t>
         </is>
       </c>
       <c r="G357" t="n">
@@ -14826,7 +15033,7 @@
       </c>
       <c r="I357" t="inlineStr">
         <is>
-          <t>empty result set</t>
+          <t>Insufficient number of columns in generated result set</t>
         </is>
       </c>
     </row>
@@ -14850,7 +15057,7 @@
       <c r="E358" t="inlineStr"/>
       <c r="F358" t="inlineStr">
         <is>
-          <t xml:space="preserve">select NUM_OUT_CERT, PER_OUT_CERT from [Teachers_Teaching_Out_of_Certification] where ENTITY_NAME = 'BOLTON CENTRAL SCHOOL' 	and year = 2021 </t>
+          <t xml:space="preserve">select NUM_OUT_CERT, PER_OUT_CERT from [Teachers_Teaching_Out_of_Certification] where ENTITY_NAME = 'BOLTON CENTRAL SCHOOL' 	and year = 2021  </t>
         </is>
       </c>
       <c r="G358" t="n">
@@ -14885,7 +15092,7 @@
       <c r="E359" t="inlineStr"/>
       <c r="F359" t="inlineStr">
         <is>
-          <t xml:space="preserve">select COUNTY_NAME, sum(NUM_OUT_CERT) OOCCount from [Teachers_Teaching_Out_of_Certification] c join [BOCES_and_N/RC] b on c.ENTITY_CD = b.ENTITY_CD group by COUNTY_NAME </t>
+          <t xml:space="preserve">select COUNTY_NAME, sum(NUM_OUT_CERT) OOCCount from [Teachers_Teaching_Out_of_Certification] c join [BOCES_and_N/RC] b on c.ENTITY_CD = b.ENTITY_CD group by COUNTY_NAME  </t>
         </is>
       </c>
       <c r="G359" t="n">
@@ -14920,7 +15127,7 @@
       <c r="E360" t="inlineStr"/>
       <c r="F360" t="inlineStr">
         <is>
-          <t xml:space="preserve">select subgroup_name, COHORT_COUNT, TEST_COUNT, LEVEL1_COUNT, LEVEL2_COUNT, LEVEL3_COUNT, LEVEL4_COUNT from [Total_Cohort_Regents_Exams] where ENTITY_NAME = 'WAVERLY HIGH SCHOOL' 	and COHORT = 2017 	and SUBGROUP_NAME in ('female', 'male') 	and SUBJECT = 'MATH' </t>
+          <t xml:space="preserve">select subgroup_name, COHORT_COUNT, TEST_COUNT, LEVEL1_COUNT, LEVEL2_COUNT, LEVEL3_COUNT, LEVEL4_COUNT from [Total_Cohort_Regents_Exams] where ENTITY_NAME = 'WAVERLY HIGH SCHOOL' 	and COHORT = 2017 	and SUBGROUP_NAME in ('female', 'male') 	and SUBJECT = 'MATH'  </t>
         </is>
       </c>
       <c r="G360" t="n">
@@ -14955,7 +15162,7 @@
       <c r="E361" t="inlineStr"/>
       <c r="F361" t="inlineStr">
         <is>
-          <t xml:space="preserve">select TOP 1 ENTITY_NAME from [Total_Cohort_Regents_Exams] where COHORT = 2017 	and SUBGROUP_NAME = 'All Students' 	and SUBJECT = 'MATH' 	and [LEVEL4_%COHORT] &lt;&gt; 's' 	and entity_cd in ( 		select entity_cd 		from [Institution_Grouping] 		where GROUP_NAME = 'public school' 	) order by cast([LEVEL4_%COHORT] as int) desc </t>
+          <t xml:space="preserve">select  ENTITY_NAME from [Total_Cohort_Regents_Exams] where COHORT = 2017 	and SUBGROUP_NAME = 'All Students' 	and SUBJECT = 'MATH' 	and [LEVEL4_%COHORT] &lt;&gt; 's' 	and entity_cd in ( 		select entity_cd 		from [Institution_Grouping] 		where GROUP_NAME = 'public school' 	) order by cast([LEVEL4_%COHORT] as int) desc limit 1 </t>
         </is>
       </c>
       <c r="G361" t="n">
@@ -14966,7 +15173,7 @@
       </c>
       <c r="I361" t="inlineStr">
         <is>
-          <t>empty result set</t>
+          <t>Insufficient number of columns in generated result set</t>
         </is>
       </c>
     </row>
@@ -14990,7 +15197,7 @@
       <c r="E362" t="inlineStr"/>
       <c r="F362" t="inlineStr">
         <is>
-          <t xml:space="preserve">select count(distinct ASSESSMENT_NAME) AssessmentCount from [Annual_EM_MATH] </t>
+          <t xml:space="preserve">select count(distinct ASSESSMENT_NAME) AssessmentCount from [Annual_EM_MATH]  </t>
         </is>
       </c>
       <c r="G362" t="n">
@@ -15025,7 +15232,7 @@
       <c r="E363" t="inlineStr"/>
       <c r="F363" t="inlineStr">
         <is>
-          <t xml:space="preserve">select total_count from [Annual_EM_Science] where year = 2021 	and SUBGROUP_NAME = 'male' 	and ASSESSMENT_NAME = 'Science4' 	and ENTITY_NAME = 'FORTS FERRY SCHOOL' </t>
+          <t xml:space="preserve">select total_count from [Annual_EM_Science] where year = 2021 	and SUBGROUP_NAME = 'male' 	and ASSESSMENT_NAME = 'Science4' 	and ENTITY_NAME = 'FORTS FERRY SCHOOL'  </t>
         </is>
       </c>
       <c r="G363" t="n">
@@ -15060,7 +15267,7 @@
       <c r="E364" t="inlineStr"/>
       <c r="F364" t="inlineStr">
         <is>
-          <t xml:space="preserve">select top 1 ENTITY_NAME from [Postsecondary_Enrollment] where year = 2022 	and SUBGROUP_NAME = 'All Students' 	and PER_OUT_4_YR &lt;&gt; 's' 	and entity_cd in ( 		select entity_cd 		from [Institution_Grouping] 		where GROUP_NAME = 'public school' 	) order by cast(PER_OUT_4_YR as int) desc </t>
+          <t xml:space="preserve">select  ENTITY_NAME from [Postsecondary_Enrollment] where year = 2022 	and SUBGROUP_NAME = 'All Students' 	and PER_OUT_4_YR &lt;&gt; 's' 	and entity_cd in ( 		select entity_cd 		from [Institution_Grouping] 		where GROUP_NAME = 'public school' 	) order by cast(PER_OUT_4_YR as int) desc limit 1 </t>
         </is>
       </c>
       <c r="G364" t="n">
@@ -15071,7 +15278,7 @@
       </c>
       <c r="I364" t="inlineStr">
         <is>
-          <t>empty result set</t>
+          <t>Insufficient number of columns in generated result set</t>
         </is>
       </c>
     </row>
@@ -15099,7 +15306,7 @@
       </c>
       <c r="F365" t="inlineStr">
         <is>
-          <t xml:space="preserve">select count(*) as station_count  from tbl_stations </t>
+          <t xml:space="preserve">select count(*) as station_count  from tbl_stations  </t>
         </is>
       </c>
       <c r="G365" t="n">
@@ -15138,7 +15345,7 @@
       </c>
       <c r="F366" t="inlineStr">
         <is>
-          <t xml:space="preserve">select count(distinct Island) from tbl_locations </t>
+          <t xml:space="preserve">select count(distinct Island) from tbl_locations  </t>
         </is>
       </c>
       <c r="G366" t="n">
@@ -15177,7 +15384,7 @@
       </c>
       <c r="F367" t="inlineStr">
         <is>
-          <t xml:space="preserve">select Island, count(distinct site_id) as site_count from tbl_locations group by Island </t>
+          <t xml:space="preserve">select Island, count(distinct site_id) as site_count from tbl_locations group by Island  </t>
         </is>
       </c>
       <c r="G367" t="n">
@@ -15216,7 +15423,7 @@
       </c>
       <c r="F368" t="inlineStr">
         <is>
-          <t xml:space="preserve">select count(*) densityCount from tbl_Density where Half_meter &gt; 8 </t>
+          <t xml:space="preserve">select count(*) densityCount from tbl_Density where Half_meter &gt; 8  </t>
         </is>
       </c>
       <c r="G368" t="n">
@@ -15250,16 +15457,16 @@
       </c>
       <c r="E369" t="inlineStr">
         <is>
-          <t>SELECT Station_ID, COUNT(Event_ID) FROM tbl_Events GROUP BY Station_ID</t>
+          <t>SELECT Station_ID, COUNT(*) FROM tbl_Events GROUP BY Station_ID</t>
         </is>
       </c>
       <c r="F369" t="inlineStr">
         <is>
-          <t xml:space="preserve">select station_id, count(*) event_count from tbl_events group by station_id </t>
+          <t xml:space="preserve">select station_id, count(*) event_count from tbl_events group by station_id  </t>
         </is>
       </c>
       <c r="G369" t="n">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="H369" t="b">
         <v>1</v>
@@ -15294,7 +15501,7 @@
       </c>
       <c r="F370" t="inlineStr">
         <is>
-          <t xml:space="preserve">select organization, count(*) person_count from tlu_contacts group by organization </t>
+          <t xml:space="preserve">select organization, count(*) person_count from tlu_contacts group by organization  </t>
         </is>
       </c>
       <c r="G370" t="n">
@@ -15333,7 +15540,7 @@
       </c>
       <c r="F371" t="inlineStr">
         <is>
-          <t xml:space="preserve">select distinct zip_code  from tlu_contacts where city = 'Hilo' </t>
+          <t xml:space="preserve">select distinct zip_code  from tlu_contacts where city = 'Hilo'  </t>
         </is>
       </c>
       <c r="G371" t="n">
@@ -15375,7 +15582,7 @@
       </c>
       <c r="F372" t="inlineStr">
         <is>
-          <t xml:space="preserve">select event_id, station_id, start_date  from tbl_events where repeat_sample = 1 and verified_by = 'Lauren Smith' </t>
+          <t xml:space="preserve">select event_id, station_id, start_date  from tbl_events where repeat_sample = 1 and verified_by = 'Lauren Smith'  </t>
         </is>
       </c>
       <c r="G372" t="n">
@@ -15414,7 +15621,7 @@
       </c>
       <c r="F373" t="inlineStr">
         <is>
-          <t xml:space="preserve">select count(*) obsCount from tbl_observations o join tlu_species s on o.Species_ID = s.Species_ID where habitat = 'Forest Bird' </t>
+          <t xml:space="preserve">select count(*) obsCount from tbl_observations o join tlu_species s on o.Species_ID = s.Species_ID where habitat = 'Forest Bird'  </t>
         </is>
       </c>
       <c r="G373" t="n">
@@ -15460,7 +15667,7 @@
       </c>
       <c r="F374" t="inlineStr">
         <is>
-          <t xml:space="preserve">select habitat, count(*) obsCount from tlu_species s join tbl_observations o on o.Species_ID = s.Species_ID group by habitat </t>
+          <t xml:space="preserve">select habitat, count(*) obsCount from tlu_species s join tbl_observations o on o.Species_ID = s.Species_ID group by habitat  </t>
         </is>
       </c>
       <c r="G374" t="n">
@@ -15499,7 +15706,7 @@
       </c>
       <c r="F375" t="inlineStr">
         <is>
-          <t xml:space="preserve">select e.event_id from tbl_events e join tbl_observations o on e.Event_ID = o.Event_ID group by e.event_id having count(*) &gt; 7 </t>
+          <t xml:space="preserve">select e.event_id from tbl_events e join tbl_observations o on e.Event_ID = o.Event_ID group by e.event_id having count(*) &gt; 7  </t>
         </is>
       </c>
       <c r="G375" t="n">
@@ -15531,21 +15738,30 @@
           <t>gemini-2.0-flash-001</t>
         </is>
       </c>
-      <c r="E376" t="inlineStr"/>
+      <c r="E376" t="inlineStr">
+        <is>
+          <t>SELECT T1.Scientific_Name, T1.Common_Name
+FROM tlu_Species AS T1
+INNER JOIN tbl_Observations AS T2 ON T1.Species_ID = T2.Species_ID
+GROUP BY T1.Species_ID
+ORDER BY COUNT(T2.Species_ID) DESC
+LIMIT 3;</t>
+        </is>
+      </c>
       <c r="F376" t="inlineStr">
         <is>
-          <t xml:space="preserve">select top 3 scientific_name, common_name from tbl_observations o join tlu_species s on o.Species_ID = s.Species_ID group by scientific_name, common_name order by count(*) desc </t>
+          <t xml:space="preserve">select  scientific_name, common_name from tbl_observations o join tlu_species s on o.Species_ID = s.Species_ID group by scientific_name, common_name order by count(*) desc limit 3 </t>
         </is>
       </c>
       <c r="G376" t="n">
-        <v>-1</v>
+        <v>307</v>
       </c>
       <c r="H376" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I376" t="inlineStr">
         <is>
-          <t>empty result set</t>
+          <t>full tuple compare succeeded</t>
         </is>
       </c>
     </row>
@@ -15566,21 +15782,36 @@
           <t>gemini-2.0-flash-001</t>
         </is>
       </c>
-      <c r="E377" t="inlineStr"/>
+      <c r="E377" t="inlineStr">
+        <is>
+          <t>SELECT Canopy_Comp, Understory_Comp
+FROM tbl_Habitat AS T1
+INNER JOIN tbl_Events AS T2
+ON T1.Event_ID = T2.Event_ID
+WHERE
+  T2.Entered_by = 'Caitlin Jensen'
+GROUP BY
+  Canopy_Comp,
+  Understory_Comp
+ORDER BY
+  COUNT(*) DESC
+LIMIT 1;</t>
+        </is>
+      </c>
       <c r="F377" t="inlineStr">
         <is>
-          <t xml:space="preserve">select top 1 canopy_comp, understory_comp from tbl_habitat h join tbl_events e on h.event_id = e.event_id where entered_by = 'caitlin jensen' group by canopy_comp, understory_comp order by count(*) desc </t>
+          <t xml:space="preserve">select  canopy_comp, understory_comp from tbl_habitat h join tbl_events e on h.event_id = e.event_id where entered_by = 'caitlin jensen' group by canopy_comp, understory_comp order by count(*) desc limit 1 </t>
         </is>
       </c>
       <c r="G377" t="n">
-        <v>-1</v>
+        <v>425</v>
       </c>
       <c r="H377" t="b">
         <v>0</v>
       </c>
       <c r="I377" t="inlineStr">
         <is>
-          <t>empty result set</t>
+          <t>asymmetrical tuple result size</t>
         </is>
       </c>
     </row>
@@ -15617,7 +15848,7 @@
       </c>
       <c r="F378" t="inlineStr">
         <is>
-          <t xml:space="preserve">select cloud, rain, wind, gust  from tbl_events e join tbl_Event_Details ed on e.Event_ID = ed.Event_ID where updated_by = 'Seth Judge' and entered_by = 'Cari Squibb' </t>
+          <t xml:space="preserve">select cloud, rain, wind, gust  from tbl_events e join tbl_Event_Details ed on e.Event_ID = ed.Event_ID where updated_by = 'Seth Judge' and entered_by = 'Cari Squibb'  </t>
         </is>
       </c>
       <c r="G378" t="n">
@@ -15656,7 +15887,7 @@
       </c>
       <c r="F379" t="inlineStr">
         <is>
-          <t xml:space="preserve">select count(*) obsCount from ( 	select observation_id  	from tbl_detections d 	group by Observation_ID 	having count(Detection_ID) &gt; 15 ) t </t>
+          <t xml:space="preserve">select count(*) obsCount from ( 	select observation_id  	from tbl_detections d 	group by Observation_ID 	having count(Detection_ID) &gt; 15 ) t  </t>
         </is>
       </c>
       <c r="G379" t="n">
@@ -15695,7 +15926,7 @@
       </c>
       <c r="F380" t="inlineStr">
         <is>
-          <t xml:space="preserve">select avg(distance) avgdist from tbl_detections </t>
+          <t xml:space="preserve">select avg(distance) avgdist from tbl_detections  </t>
         </is>
       </c>
       <c r="G380" t="n">
@@ -15727,21 +15958,25 @@
           <t>gemini-2.0-flash-001</t>
         </is>
       </c>
-      <c r="E381" t="inlineStr"/>
+      <c r="E381" t="inlineStr">
+        <is>
+          <t>SELECT T2.Common_Name FROM tbl_Detections AS T1 INNER JOIN tlu_Species AS T2 ON T1.Species_ID = T2.Species_ID ORDER BY T1.Distance DESC LIMIT 1</t>
+        </is>
+      </c>
       <c r="F381" t="inlineStr">
         <is>
-          <t xml:space="preserve">select top 1 common_name from tlu_species s join tbl_observations o on s.species_id = o.species_id join tbl_detections t on t.observation_id = o.observation_id order by distance desc </t>
+          <t xml:space="preserve">select  common_name from tlu_species s join tbl_observations o on s.species_id = o.species_id join tbl_detections t on t.observation_id = o.observation_id order by distance desc limit 1 </t>
         </is>
       </c>
       <c r="G381" t="n">
-        <v>-1</v>
+        <v>311</v>
       </c>
       <c r="H381" t="b">
         <v>0</v>
       </c>
       <c r="I381" t="inlineStr">
         <is>
-          <t>empty result set</t>
+          <t>asymmetrical tuple result size</t>
         </is>
       </c>
     </row>
@@ -15776,7 +16011,7 @@
       </c>
       <c r="F382" t="inlineStr">
         <is>
-          <t xml:space="preserve">select common_name, alternate_name from tlu_species s join xref_species_alternate_names a on s.species_id = a.species_id where family = 'laridae' </t>
+          <t xml:space="preserve">select common_name, alternate_name from tlu_species s join xref_species_alternate_names a on s.species_id = a.species_id where family = 'laridae'  </t>
         </is>
       </c>
       <c r="G382" t="n">
@@ -15815,7 +16050,7 @@
       </c>
       <c r="F383" t="inlineStr">
         <is>
-          <t xml:space="preserve">select distinct source from tlu_species </t>
+          <t xml:space="preserve">select distinct source from tlu_species  </t>
         </is>
       </c>
       <c r="G383" t="n">
@@ -15860,7 +16095,7 @@
       </c>
       <c r="F384" t="inlineStr">
         <is>
-          <t xml:space="preserve">select Station  from tbl_stations  join tbl_Stations_UTMs on tbl_stations.Station_ID = tbl_stations_utms.Station_ID where X_final = 272454 and Y_final = 2141631 </t>
+          <t xml:space="preserve">select Station  from tbl_stations  join tbl_Stations_UTMs on tbl_stations.Station_ID = tbl_stations_utms.Station_ID where X_final = 272454 and Y_final = 2141631  </t>
         </is>
       </c>
       <c r="G384" t="n">
@@ -15899,7 +16134,7 @@
       </c>
       <c r="F385" t="inlineStr">
         <is>
-          <t xml:space="preserve">select position_title, organization from tlu_contacts where First_Name = 'Patrick' and Last_Name = 'Hart' </t>
+          <t xml:space="preserve">select position_title, organization from tlu_contacts where First_Name = 'Patrick' and Last_Name = 'Hart'  </t>
         </is>
       </c>
       <c r="G385" t="n">
@@ -15943,7 +16178,7 @@
       </c>
       <c r="F386" t="inlineStr">
         <is>
-          <t xml:space="preserve">select distinct Island, Site_name from tbl_locations join tbl_sites on tbl_locations.site_id = tbl_sites.site_id </t>
+          <t xml:space="preserve">select distinct Island, Site_name from tbl_locations join tbl_sites on tbl_locations.site_id = tbl_sites.site_id  </t>
         </is>
       </c>
       <c r="G386" t="n">
@@ -15982,7 +16217,7 @@
       </c>
       <c r="F387" t="inlineStr">
         <is>
-          <t xml:space="preserve">select Island from tbl_locations where loc_name = 'Northwest Kahuku' </t>
+          <t xml:space="preserve">select Island from tbl_locations where loc_name = 'Northwest Kahuku'  </t>
         </is>
       </c>
       <c r="G387" t="n">
@@ -16021,7 +16256,7 @@
       </c>
       <c r="F388" t="inlineStr">
         <is>
-          <t xml:space="preserve">select distinct family, scientific_name, common_name  from tlu_species where habitat = 'Forest Bird' </t>
+          <t xml:space="preserve">select distinct family, scientific_name, common_name  from tlu_species where habitat = 'Forest Bird'  </t>
         </is>
       </c>
       <c r="G388" t="n">
@@ -16060,7 +16295,7 @@
       </c>
       <c r="F389" t="inlineStr">
         <is>
-          <t xml:space="preserve">select distinct datum, count(*) stationCount from tbl_stations_utms where datum in ('WGS84', 'NAD83') group by datum </t>
+          <t xml:space="preserve">select distinct datum, count(*) stationCount from tbl_stations_utms where datum in ('WGS84', 'NAD83') group by datum  </t>
         </is>
       </c>
       <c r="G389" t="n">
@@ -16099,7 +16334,7 @@
       </c>
       <c r="F390" t="inlineStr">
         <is>
-          <t xml:space="preserve">select count(*) obs_count from tbl_observations obs join tbl_event_details det on obs.Event_ID = det.Event_ID where Cloud = 0 </t>
+          <t xml:space="preserve">select count(*) obs_count from tbl_observations obs join tbl_event_details det on obs.Event_ID = det.Event_ID where Cloud = 0  </t>
         </is>
       </c>
       <c r="G390" t="n">
@@ -16138,7 +16373,7 @@
       </c>
       <c r="F391" t="inlineStr">
         <is>
-          <t xml:space="preserve">select count(*) windy_day_count from tbl_event_details where wind in ( 	select max(wind) from tbl_event_details ) </t>
+          <t xml:space="preserve">select count(*) windy_day_count from tbl_event_details where wind in ( 	select max(wind) from tbl_event_details )  </t>
         </is>
       </c>
       <c r="G391" t="n">
@@ -16177,7 +16412,7 @@
       </c>
       <c r="F392" t="inlineStr">
         <is>
-          <t xml:space="preserve">select Island, count(*) as station_count from tbl_locations loc join tbl_transect trans on loc.location_id = trans.location_id join tbl_stations sta on trans.transect_id = sta.Transect_ID group by Island </t>
+          <t xml:space="preserve">select Island, count(*) as station_count from tbl_locations loc join tbl_transect trans on loc.location_id = trans.location_id join tbl_stations sta on trans.transect_id = sta.Transect_ID group by Island  </t>
         </is>
       </c>
       <c r="G392" t="n">
@@ -16209,21 +16444,31 @@
           <t>gemini-2.0-flash-001</t>
         </is>
       </c>
-      <c r="E393" t="inlineStr"/>
+      <c r="E393" t="inlineStr">
+        <is>
+          <t>SELECT T1.Island, COUNT(T3.Station_ID) AS num_stations
+FROM tbl_Locations AS T1
+INNER JOIN tbl_Transect AS T2 ON T1.Location_ID = T2.Location_ID
+INNER JOIN tbl_Stations AS T3 ON T2.Transect_ID = T3.Transect_ID
+GROUP BY T1.Island
+ORDER BY num_stations ASC
+LIMIT 1;</t>
+        </is>
+      </c>
       <c r="F393" t="inlineStr">
         <is>
-          <t xml:space="preserve">select top 1 Island, count(*) as station_count from tbl_locations loc join tbl_transect trans on loc.location_id = trans.location_id join tbl_stations sta on trans.transect_id = sta.Transect_ID group by Island order by station_count asc </t>
+          <t xml:space="preserve">select  Island, count(*) as station_count from tbl_locations loc join tbl_transect trans on loc.location_id = trans.location_id join tbl_stations sta on trans.transect_id = sta.Transect_ID group by Island order by station_count asc limit 1 </t>
         </is>
       </c>
       <c r="G393" t="n">
-        <v>-1</v>
+        <v>417</v>
       </c>
       <c r="H393" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I393" t="inlineStr">
         <is>
-          <t>empty result set</t>
+          <t>full tuple compare succeeded</t>
         </is>
       </c>
     </row>
@@ -16260,7 +16505,7 @@
       </c>
       <c r="F394" t="inlineStr">
         <is>
-          <t xml:space="preserve">select distinct family, species_code from tlu_species s join tbl_observations o on s.species_id = o.species_id join tbl_events e on o.event_id = e.event_id join tbl_event_details ed on e.event_id = ed.event_id where rain = 1 </t>
+          <t xml:space="preserve">select distinct family, species_code from tlu_species s join tbl_observations o on s.species_id = o.species_id join tbl_events e on o.event_id = e.event_id join tbl_event_details ed on e.event_id = ed.event_id where rain = 1  </t>
         </is>
       </c>
       <c r="G394" t="n">
@@ -16310,7 +16555,7 @@
       </c>
       <c r="F395" t="inlineStr">
         <is>
-          <t xml:space="preserve">select distinct scientific_name, common_name from tlu_species spc join tbl_observations obs on spc.Species_ID = obs.species_id join xref_event_contacts xcon on xcon.Event_ID = obs.event_id join tlu_contacts con on xcon.Contact_ID = con.Contact_ID where last_name = 'Hart' and first_name = 'Patrick' order by Scientific_Name </t>
+          <t xml:space="preserve">select distinct scientific_name, common_name from tlu_species spc join tbl_observations obs on spc.Species_ID = obs.species_id join xref_event_contacts xcon on xcon.Event_ID = obs.event_id join tlu_contacts con on xcon.Contact_ID = con.Contact_ID where last_name = 'Hart' and first_name = 'Patrick' order by Scientific_Name  </t>
         </is>
       </c>
       <c r="G395" t="n">
@@ -16362,7 +16607,7 @@
       </c>
       <c r="F396" t="inlineStr">
         <is>
-          <t xml:space="preserve">select Station, Common_Name, count(*) NumObservations from tbl_Stations t_s  join tbl_Events t_e on t_e.Station_ID = t_s.Station_ID join tbl_Observations t_o on t_o.Event_ID = t_e.Event_ID join tlu_Species t_sp on t_o.Species_ID = t_sp.Species_iD where Station = '2' or Station = '3' group by Station, Common_Name order by Station </t>
+          <t xml:space="preserve">select Station, Common_Name, count(*) NumObservations from tbl_Stations t_s  join tbl_Events t_e on t_e.Station_ID = t_s.Station_ID join tbl_Observations t_o on t_o.Event_ID = t_e.Event_ID join tlu_Species t_sp on t_o.Species_ID = t_sp.Species_iD where Station = '2' or Station = '3' group by Station, Common_Name order by Station  </t>
         </is>
       </c>
       <c r="G396" t="n">
@@ -16410,7 +16655,7 @@
       </c>
       <c r="F397" t="inlineStr">
         <is>
-          <t xml:space="preserve">select station, count(*) as event_count from tbl_stations ts join tbl_events te on ts.station_id = te.station_id group by ts.station order by event_count desc </t>
+          <t xml:space="preserve">select station, count(*) as event_count from tbl_stations ts join tbl_events te on ts.station_id = te.station_id group by ts.station order by event_count desc  </t>
         </is>
       </c>
       <c r="G397" t="n">
@@ -16442,21 +16687,28 @@
           <t>gemini-2.0-flash-001</t>
         </is>
       </c>
-      <c r="E398" t="inlineStr"/>
+      <c r="E398" t="inlineStr">
+        <is>
+          <t>SELECT Station, Lat_final
+FROM tbl_Stations
+ORDER BY Lat_final DESC
+LIMIT 1;</t>
+        </is>
+      </c>
       <c r="F398" t="inlineStr">
         <is>
-          <t xml:space="preserve">select top 1 lat_final, long_final, Station  from tbl_stations order by lat_final desc </t>
+          <t xml:space="preserve">select  lat_final, long_final, Station  from tbl_stations order by lat_final desc limit 1 </t>
         </is>
       </c>
       <c r="G398" t="n">
-        <v>-1</v>
+        <v>239</v>
       </c>
       <c r="H398" t="b">
         <v>0</v>
       </c>
       <c r="I398" t="inlineStr">
         <is>
-          <t>empty result set</t>
+          <t>Insufficient number of columns in generated result set</t>
         </is>
       </c>
     </row>
@@ -16484,7 +16736,7 @@
       </c>
       <c r="F399" t="inlineStr">
         <is>
-          <t xml:space="preserve">select count(distinct tbl_stations.station_id) as station_count from tbl_stations join tbl_events on tbl_stations.station_id = tbl_events.station_id join tbl_observations on tbl_observations.event_id = tbl_events.event_id join tlu_species on tlu_species.species_id = tbl_observations.species_id where common_name = 'Hawaii Amakihi' </t>
+          <t xml:space="preserve">select count(distinct tbl_stations.station_id) as station_count from tbl_stations join tbl_events on tbl_stations.station_id = tbl_events.station_id join tbl_observations on tbl_observations.event_id = tbl_events.event_id join tlu_species on tlu_species.species_id = tbl_observations.species_id where common_name = 'Hawaii Amakihi'  </t>
         </is>
       </c>
       <c r="G399" t="n">
@@ -16537,7 +16789,7 @@
       </c>
       <c r="F400" t="inlineStr">
         <is>
-          <t xml:space="preserve">select 100 * (sum(sighted) / count(distinct station_id)) as perc_stations from ( 	select distinct tbl_stations.station_id, case  			when tlu_species.common_name = 'Hawaii Amakihi' then 1.0 else 0.0 			end as sighted 	from tbl_stations 	join tbl_events on tbl_stations.station_id = tbl_events.station_id 	join tbl_observations on tbl_observations.event_id = tbl_events.event_id 	join tlu_species on tlu_species.species_id = tbl_observations.species_id ) sightings </t>
+          <t xml:space="preserve">select 100 * (sum(sighted) / count(distinct station_id)) as perc_stations from ( 	select distinct tbl_stations.station_id, case  			when tlu_species.common_name = 'Hawaii Amakihi' then 1.0 else 0.0 			end as sighted 	from tbl_stations 	join tbl_events on tbl_stations.station_id = tbl_events.station_id 	join tbl_observations on tbl_observations.event_id = tbl_events.event_id 	join tlu_species on tlu_species.species_id = tbl_observations.species_id ) sightings  </t>
         </is>
       </c>
       <c r="G400" t="n">
@@ -16583,7 +16835,7 @@
       </c>
       <c r="F401" t="inlineStr">
         <is>
-          <t xml:space="preserve">select last_name, first_name, count(*) num_events from tlu_contacts tlc join xref_event_contacts xrec on tlc.Contact_ID = xrec.Contact_ID where organization = 'National Park Service' group by last_name, first_name, organization order by last_name desc </t>
+          <t xml:space="preserve">select last_name, first_name, count(*) num_events from tlu_contacts tlc join xref_event_contacts xrec on tlc.Contact_ID = xrec.Contact_ID where organization = 'National Park Service' group by last_name, first_name, organization order by last_name desc  </t>
         </is>
       </c>
       <c r="G401" t="n">
@@ -16633,7 +16885,7 @@
       </c>
       <c r="F402" t="inlineStr">
         <is>
-          <t xml:space="preserve">select Scientific_Name, Common_Name, avg(cast(canopy_height as float)) as avg_canopy_height from tbl_habitat hab join tbl_events ev on hab.Event_ID = ev.Event_ID join tbl_Observations obs on obs.Event_ID = ev.Event_ID join tlu_species spec on spec.species_id = obs.species_id group by Scientific_Name, common_name order by Scientific_Name </t>
+          <t xml:space="preserve">select Scientific_Name, Common_Name, avg(cast(canopy_height as float)) as avg_canopy_height from tbl_habitat hab join tbl_events ev on hab.Event_ID = ev.Event_ID join tbl_Observations obs on obs.Event_ID = ev.Event_ID join tlu_species spec on spec.species_id = obs.species_id group by Scientific_Name, common_name order by Scientific_Name  </t>
         </is>
       </c>
       <c r="G402" t="n">
@@ -16685,14 +16937,14 @@
 FROM tbl_Observations AS O
 JOIN tbl_Events AS E
   ON O.Event_ID = E.Event_ID
-JOIN tbl_Sites AS S
-  ON E.Station_ID LIKE '%' || S.Site_ID || '%'
 JOIN tbl_Stations AS ST
   ON E.Station_ID = ST.Station_ID
 JOIN tbl_Transect AS T
   ON ST.Transect_ID = T.Transect_ID
 JOIN tbl_Locations AS L
   ON T.Location_ID = L.Location_ID
+JOIN tbl_Sites AS S
+  ON L.Site_ID = S.Site_ID
 JOIN tlu_Species AS SP
   ON O.Species_ID = SP.Species_ID
 LEFT JOIN xref_Species_Alternate_Names AS X
@@ -16705,11 +16957,11 @@
       </c>
       <c r="F403" t="inlineStr">
         <is>
-          <t xml:space="preserve">select island, site_name, Loc_Name, transect, transect_type, Station, lat_final, te.event_id, last_name, event_notes, family, Scientific_Name, Common_Name, Alternate_Name from tbl_locations tl join tbl_sites ts on tl.Site_ID = ts.Site_ID join tbl_transect tr on tr.Location_ID = tl.Location_ID join tbl_stations st on st.Transect_ID = tr.Transect_ID join tbl_events te on te.station_id = st.station_id join xref_Event_Contacts ec on ec.Event_ID = te.Event_ID join tlu_Contacts con on ec.Contact_ID = con.Contact_ID join tbl_Observations obs on te.Event_ID = obs.Event_ID join tlu_species spc on obs.Species_ID = spc.Species_ID join xref_Species_Alternate_Names spc_alt on spc.Species_ID = spc_alt.Species_ID </t>
+          <t xml:space="preserve">select island, site_name, Loc_Name, transect, transect_type, Station, lat_final, te.event_id, last_name, event_notes, family, Scientific_Name, Common_Name, Alternate_Name from tbl_locations tl join tbl_sites ts on tl.Site_ID = ts.Site_ID join tbl_transect tr on tr.Location_ID = tl.Location_ID join tbl_stations st on st.Transect_ID = tr.Transect_ID join tbl_events te on te.station_id = st.station_id join xref_Event_Contacts ec on ec.Event_ID = te.Event_ID join tlu_Contacts con on ec.Contact_ID = con.Contact_ID join tbl_Observations obs on te.Event_ID = obs.Event_ID join tlu_species spc on obs.Species_ID = spc.Species_ID join xref_Species_Alternate_Names spc_alt on spc.Species_ID = spc_alt.Species_ID  </t>
         </is>
       </c>
       <c r="G403" t="n">
-        <v>1157</v>
+        <v>1153</v>
       </c>
       <c r="H403" t="b">
         <v>0</v>
@@ -16737,21 +16989,25 @@
           <t>gemini-2.0-flash-001</t>
         </is>
       </c>
-      <c r="E404" t="inlineStr"/>
+      <c r="E404" t="inlineStr">
+        <is>
+          <t>SELECT T2.Island FROM tbl_Observations AS T1 INNER JOIN tbl_Locations AS T2 ON T1.Observation_ID = T2.Location_ID INNER JOIN tlu_Species AS T3 ON T1.Species_ID = T3.Species_ID WHERE T3.Common_Name = "Pacific Kingfisher" GROUP BY T2.Island ORDER BY count(*) DESC LIMIT 1</t>
+        </is>
+      </c>
       <c r="F404" t="inlineStr">
         <is>
-          <t xml:space="preserve">select top 1 island, count(*) as kingfisher_count from tbl_locations tl join tbl_transect tr on tr.Location_ID = tl.Location_ID join tbl_stations st on st.Transect_ID = tr.Transect_ID join tbl_events te on te.station_id = st.station_id join xref_Event_Contacts ec on ec.Event_ID = te.Event_ID join tlu_Contacts con on ec.Contact_ID = con.Contact_ID join tbl_Observations obs on te.Event_ID = obs.Event_ID join tlu_species spc on obs.Species_ID = spc.Species_ID where common_name = 'Pacific Kingfisher' group by island order by kingfisher_count </t>
+          <t xml:space="preserve">select  island, count(*) as kingfisher_count from tbl_locations tl join tbl_transect tr on tr.Location_ID = tl.Location_ID join tbl_stations st on st.Transect_ID = tr.Transect_ID join tbl_events te on te.station_id = st.station_id join xref_Event_Contacts ec on ec.Event_ID = te.Event_ID join tlu_Contacts con on ec.Contact_ID = con.Contact_ID join tbl_Observations obs on te.Event_ID = obs.Event_ID join tlu_species spc on obs.Species_ID = spc.Species_ID where common_name = 'Pacific Kingfisher' group by island order by kingfisher_count limit 1 </t>
         </is>
       </c>
       <c r="G404" t="n">
-        <v>-1</v>
+        <v>774</v>
       </c>
       <c r="H404" t="b">
         <v>0</v>
       </c>
       <c r="I404" t="inlineStr">
         <is>
-          <t>empty result set</t>
+          <t>asymmetrical tuple result size</t>
         </is>
       </c>
     </row>
@@ -17029,11 +17285,7 @@
       </c>
       <c r="E411" t="inlineStr">
         <is>
-          <t>SELECT
-  COUNT(DocNum)
-FROM RCT2
-WHERE
-  vatApplied &gt; 700;</t>
+          <t>SELECT COUNT(*) FROM RCT2 WHERE InvType = 'I' AND vatApplied &gt; 700</t>
         </is>
       </c>
       <c r="F411" t="inlineStr">
@@ -17042,14 +17294,14 @@
         </is>
       </c>
       <c r="G411" t="n">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="H411" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I411" t="inlineStr">
         <is>
-          <t>full tuple compare succeeded</t>
+          <t>full tuple compare failed</t>
         </is>
       </c>
     </row>
@@ -17248,7 +17500,7 @@
       </c>
       <c r="E416" t="inlineStr">
         <is>
-          <t>SELECT Name, Address, Cellolar, E_MailL FROM OCPR WHERE Position IN ('CEO', 'COO');</t>
+          <t>SELECT Name, Address, Cellolar, E_MailL FROM OCPR WHERE Position IN ('CEO', 'COO')</t>
         </is>
       </c>
       <c r="F416" t="inlineStr">
@@ -18938,13 +19190,7 @@
       </c>
       <c r="E455" t="inlineStr">
         <is>
-          <t>SELECT
-  T1.teamID
-FROM HTM1 AS T1
-INNER JOIN OHEM AS T2
-  ON T1.empID = T2.empID
-WHERE
-  T2.CPF = '51B';</t>
+          <t>SELECT T1.teamID FROM HTM1 AS T1 INNER JOIN OHEM AS T2 ON T1.empID = T2.empID WHERE T2.govID = '51B'</t>
         </is>
       </c>
       <c r="F455" t="inlineStr">
@@ -18953,7 +19199,7 @@
         </is>
       </c>
       <c r="G455" t="n">
-        <v>897</v>
+        <v>889</v>
       </c>
       <c r="H455" t="b">
         <v>0</v>
@@ -19112,13 +19358,7 @@
       </c>
       <c r="E459" t="inlineStr">
         <is>
-          <t>SELECT
-  StatusOfP,
-  citizenshp,
-  passportNo
-FROM OHEM
-WHERE
-  lastName = 'Buyer';</t>
+          <t>SELECT StatusOfP, citizenshp, passportNo FROM OHEM WHERE lastName = 'Buyer'</t>
         </is>
       </c>
       <c r="F459" t="inlineStr">
@@ -19127,7 +19367,7 @@
         </is>
       </c>
       <c r="G459" t="n">
-        <v>848</v>
+        <v>838</v>
       </c>
       <c r="H459" t="b">
         <v>1</v>
